--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2480" windowWidth="32120" windowHeight="20440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
   </bookViews>
   <sheets>
     <sheet name="gantt chart" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>Plan</t>
   </si>
@@ -231,9 +231,6 @@
     <t>MILESTONE</t>
   </si>
   <si>
-    <t>Design Site</t>
-  </si>
-  <si>
     <t>Fill Out Gantt Chart</t>
   </si>
   <si>
@@ -364,6 +361,18 @@
   </si>
   <si>
     <t>Create collection for schools and its methods</t>
+  </si>
+  <si>
+    <t>Update collection schemas</t>
+  </si>
+  <si>
+    <t>Make buildings collection generic for all types</t>
+  </si>
+  <si>
+    <t>Come up with schema for ratings (i.e. what to rate)</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -828,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +940,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -945,69 +1020,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -1254,7 +1266,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="11"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,24 +1545,24 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BE70"/>
+  <dimension ref="A2:BE73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="39" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="33" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="33" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="54" customWidth="1"/>
     <col min="11" max="11" width="2.83203125" style="33" customWidth="1"/>
     <col min="12" max="16" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" style="33" bestFit="1" customWidth="1"/>
@@ -1570,112 +1582,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="19" customHeight="1">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="L2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44">
         <f ca="1">DAYS360(P4,today+1)</f>
-        <v>10</v>
-      </c>
-      <c r="R2" s="47"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="53" t="s">
+      <c r="W2" s="47"/>
+      <c r="X2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="49" t="s">
         <v>9</v>
       </c>
       <c r="AJ2" s="33"/>
       <c r="AK2" s="33"/>
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="53" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:57" ht="27" customHeight="1">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:57" ht="18.75" customHeight="1">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="L4" s="38" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="L4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="37">
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="59">
         <v>42660</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="37">
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="59">
         <v>42688</v>
       </c>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
       <c r="AI4" s="33"/>
       <c r="AJ4" s="33"/>
       <c r="AK4" s="33"/>
-      <c r="AN4" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR4" s="34">
+      <c r="AN4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR4" s="56">
         <f ca="1">TODAY()</f>
-        <v>42669</v>
-      </c>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
+        <v>42670</v>
+      </c>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
       <c r="AW4" s="33"/>
       <c r="AX4" s="33"/>
       <c r="AY4" s="33"/>
@@ -1684,42 +1696,42 @@
     </row>
     <row r="5" spans="1:57">
       <c r="G5" s="1"/>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37">
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="59">
         <v>42675</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="38" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="38" t="s">
+      <c r="AA5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="37">
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="59">
         <v>42713</v>
       </c>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38" t="s">
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
       <c r="AW5" s="33"/>
       <c r="AX5" s="33"/>
       <c r="AY5" s="33"/>
@@ -1746,29 +1758,29 @@
     <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="44"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="40" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1785,7 +1797,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -1844,7 +1856,7 @@
       <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="2">
         <v>17</v>
       </c>
@@ -1984,15 +1996,15 @@
     <row r="9" spans="1:57" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="2">
         <v>1</v>
       </c>
@@ -2132,14 +2144,14 @@
     </row>
     <row r="10" spans="1:57" ht="19" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="11">
@@ -2167,7 +2179,7 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="6">
@@ -2192,7 +2204,7 @@
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="6">
@@ -2215,9 +2227,9 @@
     <row r="13" spans="1:57" ht="19" customHeight="1">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="6">
@@ -2240,7 +2252,7 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="6">
@@ -2263,7 +2275,7 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="6">
         <v>9</v>
       </c>
@@ -2282,7 +2294,7 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="6">
         <v>11</v>
       </c>
@@ -2301,7 +2313,7 @@
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="6">
         <v>13</v>
       </c>
@@ -2319,10 +2331,10 @@
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="11">
@@ -2345,12 +2357,12 @@
     </row>
     <row r="19" spans="1:31" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="35" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="6">
@@ -2375,7 +2387,7 @@
       <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="35" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="6">
@@ -2400,7 +2412,7 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="35" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="6">
@@ -2425,8 +2437,8 @@
       <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="39" t="s">
-        <v>63</v>
+      <c r="E22" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="F22" s="6">
         <v>10</v>
@@ -2446,7 +2458,7 @@
       <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="35" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="6">
@@ -2491,8 +2503,8 @@
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>63</v>
+      <c r="E24" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="F24" s="6">
         <v>10</v>
@@ -2509,14 +2521,14 @@
     </row>
     <row r="25" spans="1:31" ht="19" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="37" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="19">
@@ -2542,7 +2554,7 @@
       <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="6">
@@ -2567,7 +2579,7 @@
       <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="6">
@@ -2612,7 +2624,7 @@
       <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="6">
@@ -2659,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="11">
@@ -2682,14 +2694,14 @@
     </row>
     <row r="30" spans="1:31" ht="19" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="23"/>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="38" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="25">
@@ -2714,10 +2726,10 @@
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="23"/>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="38" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="25">
@@ -2742,10 +2754,10 @@
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="23"/>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="38" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="25">
@@ -2768,14 +2780,14 @@
     </row>
     <row r="33" spans="1:31" ht="19" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="19">
@@ -2800,10 +2812,10 @@
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="23"/>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="38" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="25">
@@ -2828,20 +2840,26 @@
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="23"/>
-      <c r="E35" s="42"/>
+      <c r="E35" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F35" s="25">
         <v>11</v>
       </c>
       <c r="G35" s="25">
         <v>1</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="H35" s="25">
+        <v>11</v>
+      </c>
+      <c r="I35" s="25">
+        <v>1</v>
+      </c>
       <c r="J35" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="27"/>
       <c r="AA35" s="29"/>
@@ -2850,12 +2868,12 @@
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="23"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G36" s="25">
         <v>1</v>
@@ -2868,165 +2886,157 @@
       <c r="K36" s="27"/>
       <c r="AA36" s="29"/>
     </row>
-    <row r="37" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A37" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="41" t="s">
+    <row r="37" spans="1:31" ht="19" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="25">
+        <v>12</v>
+      </c>
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26">
+        <v>0</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+    </row>
+    <row r="38" spans="1:31" ht="19" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="25">
+        <v>14</v>
+      </c>
+      <c r="G38" s="25">
+        <v>1</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26">
+        <v>0</v>
+      </c>
+      <c r="K38" s="27"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+    </row>
+    <row r="39" spans="1:31" ht="19" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="25">
+        <v>14</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26">
+        <v>0</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+    </row>
+    <row r="40" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F40" s="19">
         <v>6</v>
       </c>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="G40" s="19">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
         <v>6</v>
       </c>
-      <c r="I37" s="19">
-        <v>1</v>
-      </c>
-      <c r="J37" s="20">
-        <v>1</v>
-      </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-    </row>
-    <row r="38" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="C38" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="25">
-        <v>6</v>
-      </c>
-      <c r="G38" s="25">
-        <v>1</v>
-      </c>
-      <c r="H38" s="25">
-        <v>6</v>
-      </c>
-      <c r="I38" s="25">
-        <v>1</v>
-      </c>
-      <c r="J38" s="26">
-        <v>1</v>
-      </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-    </row>
-    <row r="39" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="C39" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="25">
-        <v>10</v>
-      </c>
-      <c r="G39" s="25">
-        <v>1</v>
-      </c>
-      <c r="H39" s="25">
-        <v>10</v>
-      </c>
-      <c r="I39" s="25">
-        <v>1</v>
-      </c>
-      <c r="J39" s="26">
-        <v>1</v>
-      </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-    </row>
-    <row r="40" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="C40" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="25">
-        <v>11</v>
-      </c>
-      <c r="G40" s="25">
-        <v>1</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26">
-        <v>0</v>
-      </c>
-      <c r="K40" s="27"/>
+      <c r="I40" s="19">
+        <v>1</v>
+      </c>
+      <c r="J40" s="20">
+        <v>1</v>
+      </c>
+      <c r="K40" s="21"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
@@ -3051,19 +3061,25 @@
     <row r="41" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A41" s="22"/>
       <c r="C41" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="42"/>
+        <v>52</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F41" s="25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G41" s="25">
-        <v>2</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="25">
+        <v>6</v>
+      </c>
+      <c r="I41" s="25">
+        <v>1</v>
+      </c>
       <c r="J41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
@@ -3090,21 +3106,25 @@
     <row r="42" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A42" s="22"/>
       <c r="C42" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="F42" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="25">
         <v>1</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="H42" s="25">
+        <v>10</v>
+      </c>
+      <c r="I42" s="25">
+        <v>1</v>
+      </c>
       <c r="J42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
@@ -3131,9 +3151,11 @@
     <row r="43" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A43" s="22"/>
       <c r="C43" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="42"/>
+        <v>53</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="F43" s="25">
         <v>11</v>
       </c>
@@ -3168,27 +3190,23 @@
       <c r="AE43" s="27"/>
     </row>
     <row r="44" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A44" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="19">
-        <v>11</v>
-      </c>
-      <c r="G44" s="19">
-        <v>1</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20">
+      <c r="A44" s="22"/>
+      <c r="C44" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="25">
+        <v>12</v>
+      </c>
+      <c r="G44" s="25">
+        <v>2</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26">
         <v>0</v>
       </c>
-      <c r="K44" s="21"/>
+      <c r="K44" s="27"/>
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
@@ -3213,14 +3231,16 @@
     <row r="45" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A45" s="22"/>
       <c r="C45" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="42"/>
+        <v>54</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="F45" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
@@ -3252,9 +3272,9 @@
     <row r="46" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A46" s="22"/>
       <c r="C46" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="E46" s="38"/>
       <c r="F46" s="25">
         <v>11</v>
       </c>
@@ -3289,23 +3309,29 @@
       <c r="AE46" s="27"/>
     </row>
     <row r="47" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="C47" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="25">
-        <v>12</v>
-      </c>
-      <c r="G47" s="25">
-        <v>1</v>
-      </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26">
-        <v>0</v>
-      </c>
-      <c r="K47" s="27"/>
+      <c r="A47" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="19">
+        <v>11</v>
+      </c>
+      <c r="G47" s="19">
+        <v>2</v>
+      </c>
+      <c r="H47" s="19">
+        <v>11</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="K47" s="21"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
@@ -3328,27 +3354,23 @@
       <c r="AE47" s="27"/>
     </row>
     <row r="48" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A48" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="19">
-        <v>1</v>
-      </c>
-      <c r="G48" s="19">
-        <v>1</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20">
+      <c r="A48" s="22"/>
+      <c r="C48" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="25">
+        <v>13</v>
+      </c>
+      <c r="G48" s="25">
+        <v>2</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26">
         <v>0</v>
       </c>
-      <c r="K48" s="21"/>
+      <c r="K48" s="27"/>
       <c r="L48" s="27"/>
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
@@ -3373,11 +3395,11 @@
     <row r="49" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A49" s="22"/>
       <c r="C49" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="42"/>
+        <v>70</v>
+      </c>
+      <c r="E49" s="38"/>
       <c r="F49" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G49" s="25">
         <v>2</v>
@@ -3412,11 +3434,11 @@
     <row r="50" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A50" s="22"/>
       <c r="C50" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="42"/>
+        <v>72</v>
+      </c>
+      <c r="E50" s="38"/>
       <c r="F50" s="25">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G50" s="25">
         <v>1</v>
@@ -3449,23 +3471,27 @@
       <c r="AE50" s="27"/>
     </row>
     <row r="51" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="C51" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="25">
-        <v>1</v>
-      </c>
-      <c r="G51" s="25">
-        <v>1</v>
-      </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26">
+      <c r="A51" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="19">
+        <v>1</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20">
         <v>0</v>
       </c>
-      <c r="K51" s="27"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
@@ -3490,9 +3516,9 @@
     <row r="52" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A52" s="22"/>
       <c r="C52" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="E52" s="38"/>
       <c r="F52" s="25">
         <v>1</v>
       </c>
@@ -3529,14 +3555,14 @@
     <row r="53" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A53" s="22"/>
       <c r="C53" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="42"/>
+        <v>79</v>
+      </c>
+      <c r="E53" s="38"/>
       <c r="F53" s="25">
         <v>1</v>
       </c>
       <c r="G53" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
@@ -3568,9 +3594,9 @@
     <row r="54" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="22"/>
       <c r="C54" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="E54" s="38"/>
       <c r="F54" s="25">
         <v>1</v>
       </c>
@@ -3607,14 +3633,14 @@
     <row r="55" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A55" s="22"/>
       <c r="C55" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="42"/>
+        <v>61</v>
+      </c>
+      <c r="E55" s="38"/>
       <c r="F55" s="25">
         <v>1</v>
       </c>
       <c r="G55" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
@@ -3646,14 +3672,14 @@
     <row r="56" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A56" s="22"/>
       <c r="C56" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="E56" s="38"/>
       <c r="F56" s="25">
         <v>1</v>
       </c>
       <c r="G56" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -3685,14 +3711,14 @@
     <row r="57" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A57" s="22"/>
       <c r="C57" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="E57" s="38"/>
       <c r="F57" s="25">
         <v>1</v>
       </c>
       <c r="G57" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
@@ -3724,14 +3750,14 @@
     <row r="58" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A58" s="22"/>
       <c r="C58" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="42"/>
+        <v>81</v>
+      </c>
+      <c r="E58" s="38"/>
       <c r="F58" s="25">
         <v>1</v>
       </c>
       <c r="G58" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
@@ -3763,14 +3789,14 @@
     <row r="59" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A59" s="22"/>
       <c r="C59" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="42"/>
+        <v>82</v>
+      </c>
+      <c r="E59" s="38"/>
       <c r="F59" s="25">
         <v>1</v>
       </c>
       <c r="G59" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
@@ -3800,25 +3826,23 @@
       <c r="AE59" s="27"/>
     </row>
     <row r="60" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A60" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="19">
-        <v>1</v>
-      </c>
-      <c r="G60" s="19">
-        <v>1</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20">
+      <c r="A60" s="22"/>
+      <c r="C60" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="F60" s="25">
+        <v>1</v>
+      </c>
+      <c r="G60" s="25">
+        <v>3</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26">
         <v>0</v>
       </c>
-      <c r="K60" s="21"/>
+      <c r="K60" s="27"/>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
@@ -3842,13 +3866,15 @@
     </row>
     <row r="61" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A61" s="22"/>
-      <c r="C61" s="24"/>
-      <c r="E61" s="42"/>
+      <c r="C61" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="38"/>
       <c r="F61" s="25">
         <v>1</v>
       </c>
       <c r="G61" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
@@ -3879,13 +3905,15 @@
     </row>
     <row r="62" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="22"/>
-      <c r="C62" s="24"/>
-      <c r="E62" s="42"/>
+      <c r="C62" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="38"/>
       <c r="F62" s="25">
         <v>1</v>
       </c>
       <c r="G62" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
@@ -3915,21 +3943,25 @@
       <c r="AE62" s="27"/>
     </row>
     <row r="63" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A63" s="22"/>
-      <c r="C63" s="24"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="25">
-        <v>1</v>
-      </c>
-      <c r="G63" s="25">
-        <v>1</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26">
+      <c r="A63" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="19">
+        <v>1</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20">
         <v>0</v>
       </c>
-      <c r="K63" s="27"/>
+      <c r="K63" s="21"/>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
@@ -3954,7 +3986,7 @@
     <row r="64" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A64" s="22"/>
       <c r="C64" s="24"/>
-      <c r="E64" s="42"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="25">
         <v>1</v>
       </c>
@@ -3991,7 +4023,7 @@
     <row r="65" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A65" s="22"/>
       <c r="C65" s="24"/>
-      <c r="E65" s="42"/>
+      <c r="E65" s="38"/>
       <c r="F65" s="25">
         <v>1</v>
       </c>
@@ -4028,7 +4060,7 @@
     <row r="66" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A66" s="22"/>
       <c r="C66" s="24"/>
-      <c r="E66" s="42"/>
+      <c r="E66" s="38"/>
       <c r="F66" s="25">
         <v>1</v>
       </c>
@@ -4065,7 +4097,7 @@
     <row r="67" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A67" s="22"/>
       <c r="C67" s="24"/>
-      <c r="E67" s="42"/>
+      <c r="E67" s="38"/>
       <c r="F67" s="25">
         <v>1</v>
       </c>
@@ -4102,7 +4134,7 @@
     <row r="68" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A68" s="22"/>
       <c r="C68" s="24"/>
-      <c r="E68" s="42"/>
+      <c r="E68" s="38"/>
       <c r="F68" s="25">
         <v>1</v>
       </c>
@@ -4139,7 +4171,7 @@
     <row r="69" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A69" s="22"/>
       <c r="C69" s="24"/>
-      <c r="E69" s="42"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="25">
         <v>1</v>
       </c>
@@ -4176,7 +4208,7 @@
     <row r="70" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A70" s="22"/>
       <c r="C70" s="24"/>
-      <c r="E70" s="42"/>
+      <c r="E70" s="38"/>
       <c r="F70" s="25">
         <v>1</v>
       </c>
@@ -4210,6 +4242,117 @@
       <c r="AD70" s="27"/>
       <c r="AE70" s="27"/>
     </row>
+    <row r="71" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+      <c r="A71" s="22"/>
+      <c r="C71" s="24"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="25">
+        <v>1</v>
+      </c>
+      <c r="G71" s="25">
+        <v>1</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="26">
+        <v>0</v>
+      </c>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="31"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="27"/>
+    </row>
+    <row r="72" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+      <c r="A72" s="22"/>
+      <c r="C72" s="24"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="25">
+        <v>1</v>
+      </c>
+      <c r="G72" s="25">
+        <v>1</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="26">
+        <v>0</v>
+      </c>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="31"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="27"/>
+      <c r="AE72" s="27"/>
+    </row>
+    <row r="73" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+      <c r="A73" s="22"/>
+      <c r="C73" s="24"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="25">
+        <v>1</v>
+      </c>
+      <c r="G73" s="25">
+        <v>1</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="26">
+        <v>0</v>
+      </c>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="31"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="AR4:AU4"/>
@@ -4227,7 +4370,7 @@
     <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="L10:BD70">
+  <conditionalFormatting sqref="L10:BD73">
     <cfRule type="expression" dxfId="9" priority="50">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23925"/>
   </bookViews>
   <sheets>
     <sheet name="gantt chart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Plan">PeriodInPlan*('gantt chart'!$F1&gt;0)</definedName>
     <definedName name="today">'gantt chart'!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1276,19 +1276,19 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
@@ -1297,7 +1297,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1305,6 +1305,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1542,46 +1548,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BE73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="33" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="2.875" style="33" customWidth="1"/>
+    <col min="12" max="16" width="3.125" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="3.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.875" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.625" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.625" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="2.6640625" style="1"/>
+    <col min="57" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="19" customHeight="1">
+    <row r="2" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="57" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="27" customHeight="1">
+    <row r="3" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -1639,7 +1645,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:57" ht="18.75" customHeight="1">
+    <row r="4" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1700,7 @@
       <c r="AZ4" s="33"/>
       <c r="BA4" s="33"/>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
       <c r="L5" s="60" t="s">
         <v>13</v>
@@ -1736,7 +1742,7 @@
       <c r="AX5" s="33"/>
       <c r="AY5" s="33"/>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -1755,7 +1761,7 @@
       <c r="AX6" s="33"/>
       <c r="AY6" s="33"/>
     </row>
-    <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="40"/>
@@ -1829,7 +1835,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1">
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="15.75" customHeight="1">
+    <row r="9" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="41"/>
@@ -2142,7 +2148,7 @@
       </c>
       <c r="BE9" s="33"/>
     </row>
-    <row r="10" spans="1:57" ht="19" customHeight="1">
+    <row r="10" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -2172,7 +2178,7 @@
       <c r="K10" s="13"/>
       <c r="AA10" s="29"/>
     </row>
-    <row r="11" spans="1:57" ht="18.75" customHeight="1">
+    <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -2199,7 +2205,7 @@
       </c>
       <c r="AA11" s="29"/>
     </row>
-    <row r="12" spans="1:57" ht="19" customHeight="1">
+    <row r="12" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>17</v>
@@ -2224,7 +2230,7 @@
       </c>
       <c r="AA12" s="29"/>
     </row>
-    <row r="13" spans="1:57" ht="19" customHeight="1">
+    <row r="13" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
@@ -2247,7 +2253,7 @@
       </c>
       <c r="AA13" s="29"/>
     </row>
-    <row r="14" spans="1:57" ht="19" customHeight="1">
+    <row r="14" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -2270,7 +2276,7 @@
       </c>
       <c r="AA14" s="29"/>
     </row>
-    <row r="15" spans="1:57" ht="19" customHeight="1">
+    <row r="15" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="AA15" s="29"/>
     </row>
-    <row r="16" spans="1:57" ht="19" customHeight="1">
+    <row r="16" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -2308,7 +2314,7 @@
       </c>
       <c r="AA16" s="29"/>
     </row>
-    <row r="17" spans="1:31" ht="19" customHeight="1">
+    <row r="17" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -2327,7 +2333,7 @@
       </c>
       <c r="AA17" s="29"/>
     </row>
-    <row r="18" spans="1:31" ht="19" customHeight="1">
+    <row r="18" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
@@ -2355,7 +2361,7 @@
       <c r="K18" s="13"/>
       <c r="AA18" s="29"/>
     </row>
-    <row r="19" spans="1:31" ht="19" customHeight="1">
+    <row r="19" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
@@ -2382,7 +2388,7 @@
       </c>
       <c r="AA19" s="29"/>
     </row>
-    <row r="20" spans="1:31" ht="19" customHeight="1">
+    <row r="20" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20" s="5" t="s">
         <v>34</v>
@@ -2407,7 +2413,7 @@
       </c>
       <c r="AA20" s="29"/>
     </row>
-    <row r="21" spans="1:31" ht="19" customHeight="1">
+    <row r="21" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21" s="5" t="s">
         <v>42</v>
@@ -2432,7 +2438,7 @@
       </c>
       <c r="AA21" s="29"/>
     </row>
-    <row r="22" spans="1:31" ht="19" customHeight="1">
+    <row r="22" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
@@ -2446,14 +2452,18 @@
       <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="6">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
       <c r="J22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="29"/>
     </row>
-    <row r="23" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
+    <row r="23" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>35</v>
@@ -2498,7 +2508,7 @@
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
     </row>
-    <row r="24" spans="1:31" ht="19" customHeight="1">
+    <row r="24" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
@@ -2512,14 +2522,18 @@
       <c r="G24" s="6">
         <v>1</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="6">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
       <c r="J24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="29"/>
     </row>
-    <row r="25" spans="1:31" ht="19" customHeight="1">
+    <row r="25" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2563,7 @@
       <c r="K25" s="21"/>
       <c r="AA25" s="29"/>
     </row>
-    <row r="26" spans="1:31" ht="19" customHeight="1">
+    <row r="26" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="5" t="s">
         <v>38</v>
@@ -2574,7 +2588,7 @@
       </c>
       <c r="AA26" s="29"/>
     </row>
-    <row r="27" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
+    <row r="27" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>39</v>
@@ -2619,7 +2633,7 @@
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
     </row>
-    <row r="28" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
+    <row r="28" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28" s="5" t="s">
         <v>40</v>
@@ -2664,7 +2678,7 @@
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
     </row>
-    <row r="29" spans="1:31" ht="19" customHeight="1">
+    <row r="29" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
@@ -2692,7 +2706,7 @@
       <c r="K29" s="13"/>
       <c r="AA29" s="29"/>
     </row>
-    <row r="30" spans="1:31" ht="19" customHeight="1">
+    <row r="30" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>65</v>
       </c>
@@ -2722,7 +2736,7 @@
       <c r="K30" s="27"/>
       <c r="AA30" s="29"/>
     </row>
-    <row r="31" spans="1:31" ht="19" customHeight="1">
+    <row r="31" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
@@ -2750,7 +2764,7 @@
       <c r="K31" s="27"/>
       <c r="AA31" s="29"/>
     </row>
-    <row r="32" spans="1:31" ht="19" customHeight="1">
+    <row r="32" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="24" t="s">
@@ -2778,7 +2792,7 @@
       <c r="K32" s="27"/>
       <c r="AA32" s="29"/>
     </row>
-    <row r="33" spans="1:31" ht="19" customHeight="1">
+    <row r="33" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>66</v>
       </c>
@@ -2808,7 +2822,7 @@
       <c r="K33" s="21"/>
       <c r="AA33" s="29"/>
     </row>
-    <row r="34" spans="1:31" ht="19" customHeight="1">
+    <row r="34" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24" t="s">
@@ -2836,7 +2850,7 @@
       <c r="K34" s="27"/>
       <c r="AA34" s="29"/>
     </row>
-    <row r="35" spans="1:31" ht="19" customHeight="1">
+    <row r="35" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24" t="s">
@@ -2864,7 +2878,7 @@
       <c r="K35" s="27"/>
       <c r="AA35" s="29"/>
     </row>
-    <row r="36" spans="1:31" ht="19" customHeight="1">
+    <row r="36" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24" t="s">
@@ -2886,7 +2900,7 @@
       <c r="K36" s="27"/>
       <c r="AA36" s="29"/>
     </row>
-    <row r="37" spans="1:31" ht="19" customHeight="1">
+    <row r="37" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24" t="s">
@@ -2927,7 +2941,7 @@
       <c r="AD37" s="34"/>
       <c r="AE37" s="34"/>
     </row>
-    <row r="38" spans="1:31" ht="19" customHeight="1">
+    <row r="38" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24" t="s">
@@ -2968,7 +2982,7 @@
       <c r="AD38" s="34"/>
       <c r="AE38" s="34"/>
     </row>
-    <row r="39" spans="1:31" ht="19" customHeight="1">
+    <row r="39" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24" t="s">
@@ -3009,7 +3023,7 @@
       <c r="AD39" s="34"/>
       <c r="AE39" s="34"/>
     </row>
-    <row r="40" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="40" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>76</v>
       </c>
@@ -3058,7 +3072,7 @@
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
     </row>
-    <row r="41" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="41" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="C41" s="24" t="s">
         <v>52</v>
@@ -3103,7 +3117,7 @@
       <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
     </row>
-    <row r="42" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="42" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="C42" s="24" t="s">
         <v>60</v>
@@ -3148,7 +3162,7 @@
       <c r="AD42" s="27"/>
       <c r="AE42" s="27"/>
     </row>
-    <row r="43" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="43" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="C43" s="24" t="s">
         <v>53</v>
@@ -3189,7 +3203,7 @@
       <c r="AD43" s="27"/>
       <c r="AE43" s="27"/>
     </row>
-    <row r="44" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="44" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="C44" s="24" t="s">
         <v>71</v>
@@ -3228,7 +3242,7 @@
       <c r="AD44" s="27"/>
       <c r="AE44" s="27"/>
     </row>
-    <row r="45" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="45" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="C45" s="24" t="s">
         <v>54</v>
@@ -3269,7 +3283,7 @@
       <c r="AD45" s="27"/>
       <c r="AE45" s="27"/>
     </row>
-    <row r="46" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="46" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="C46" s="24" t="s">
         <v>68</v>
@@ -3308,7 +3322,7 @@
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
     </row>
-    <row r="47" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="47" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>77</v>
       </c>
@@ -3353,7 +3367,7 @@
       <c r="AD47" s="27"/>
       <c r="AE47" s="27"/>
     </row>
-    <row r="48" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="48" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="C48" s="24" t="s">
         <v>73</v>
@@ -3392,7 +3406,7 @@
       <c r="AD48" s="27"/>
       <c r="AE48" s="27"/>
     </row>
-    <row r="49" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="49" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="C49" s="24" t="s">
         <v>70</v>
@@ -3431,7 +3445,7 @@
       <c r="AD49" s="27"/>
       <c r="AE49" s="27"/>
     </row>
-    <row r="50" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="50" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="C50" s="24" t="s">
         <v>72</v>
@@ -3470,7 +3484,7 @@
       <c r="AD50" s="27"/>
       <c r="AE50" s="27"/>
     </row>
-    <row r="51" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="51" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>74</v>
       </c>
@@ -3513,7 +3527,7 @@
       <c r="AD51" s="27"/>
       <c r="AE51" s="27"/>
     </row>
-    <row r="52" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="52" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="C52" s="24" t="s">
         <v>78</v>
@@ -3552,7 +3566,7 @@
       <c r="AD52" s="27"/>
       <c r="AE52" s="27"/>
     </row>
-    <row r="53" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="53" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="C53" s="24" t="s">
         <v>79</v>
@@ -3591,7 +3605,7 @@
       <c r="AD53" s="27"/>
       <c r="AE53" s="27"/>
     </row>
-    <row r="54" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="54" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="C54" s="24" t="s">
         <v>56</v>
@@ -3630,7 +3644,7 @@
       <c r="AD54" s="27"/>
       <c r="AE54" s="27"/>
     </row>
-    <row r="55" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="55" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="C55" s="24" t="s">
         <v>61</v>
@@ -3669,7 +3683,7 @@
       <c r="AD55" s="27"/>
       <c r="AE55" s="27"/>
     </row>
-    <row r="56" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="56" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="C56" s="24" t="s">
         <v>80</v>
@@ -3708,7 +3722,7 @@
       <c r="AD56" s="27"/>
       <c r="AE56" s="27"/>
     </row>
-    <row r="57" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="57" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="C57" s="24" t="s">
         <v>57</v>
@@ -3747,7 +3761,7 @@
       <c r="AD57" s="27"/>
       <c r="AE57" s="27"/>
     </row>
-    <row r="58" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="58" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="C58" s="24" t="s">
         <v>81</v>
@@ -3786,7 +3800,7 @@
       <c r="AD58" s="27"/>
       <c r="AE58" s="27"/>
     </row>
-    <row r="59" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="59" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="C59" s="24" t="s">
         <v>82</v>
@@ -3825,7 +3839,7 @@
       <c r="AD59" s="27"/>
       <c r="AE59" s="27"/>
     </row>
-    <row r="60" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="60" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="C60" s="24" t="s">
         <v>83</v>
@@ -3864,7 +3878,7 @@
       <c r="AD60" s="27"/>
       <c r="AE60" s="27"/>
     </row>
-    <row r="61" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="61" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="C61" s="24" t="s">
         <v>58</v>
@@ -3903,7 +3917,7 @@
       <c r="AD61" s="27"/>
       <c r="AE61" s="27"/>
     </row>
-    <row r="62" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="62" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="C62" s="24" t="s">
         <v>84</v>
@@ -3942,7 +3956,7 @@
       <c r="AD62" s="27"/>
       <c r="AE62" s="27"/>
     </row>
-    <row r="63" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="63" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>67</v>
       </c>
@@ -3983,7 +3997,7 @@
       <c r="AD63" s="27"/>
       <c r="AE63" s="27"/>
     </row>
-    <row r="64" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="64" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="C64" s="24"/>
       <c r="E64" s="38"/>
@@ -4020,7 +4034,7 @@
       <c r="AD64" s="27"/>
       <c r="AE64" s="27"/>
     </row>
-    <row r="65" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="65" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="C65" s="24"/>
       <c r="E65" s="38"/>
@@ -4057,7 +4071,7 @@
       <c r="AD65" s="27"/>
       <c r="AE65" s="27"/>
     </row>
-    <row r="66" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="66" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="C66" s="24"/>
       <c r="E66" s="38"/>
@@ -4094,7 +4108,7 @@
       <c r="AD66" s="27"/>
       <c r="AE66" s="27"/>
     </row>
-    <row r="67" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="67" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="C67" s="24"/>
       <c r="E67" s="38"/>
@@ -4131,7 +4145,7 @@
       <c r="AD67" s="27"/>
       <c r="AE67" s="27"/>
     </row>
-    <row r="68" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="68" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="C68" s="24"/>
       <c r="E68" s="38"/>
@@ -4168,7 +4182,7 @@
       <c r="AD68" s="27"/>
       <c r="AE68" s="27"/>
     </row>
-    <row r="69" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="69" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="C69" s="24"/>
       <c r="E69" s="38"/>
@@ -4205,7 +4219,7 @@
       <c r="AD69" s="27"/>
       <c r="AE69" s="27"/>
     </row>
-    <row r="70" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="70" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="C70" s="24"/>
       <c r="E70" s="38"/>
@@ -4242,7 +4256,7 @@
       <c r="AD70" s="27"/>
       <c r="AE70" s="27"/>
     </row>
-    <row r="71" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="71" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="C71" s="24"/>
       <c r="E71" s="38"/>
@@ -4279,7 +4293,7 @@
       <c r="AD71" s="27"/>
       <c r="AE71" s="27"/>
     </row>
-    <row r="72" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="72" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="C72" s="24"/>
       <c r="E72" s="38"/>
@@ -4316,7 +4330,7 @@
       <c r="AD72" s="27"/>
       <c r="AE72" s="27"/>
     </row>
-    <row r="73" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="73" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="C73" s="24"/>
       <c r="E73" s="38"/>
@@ -4420,25 +4434,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5489,6 +5501,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
@@ -5614,15 +5635,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
   <ds:schemaRefs>
@@ -5642,6 +5654,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5655,12 +5675,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
   </bookViews>
   <sheets>
     <sheet name="gantt chart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Plan">PeriodInPlan*('gantt chart'!$F1&gt;0)</definedName>
     <definedName name="today">'gantt chart'!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>Plan</t>
   </si>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="11"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="12"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1276,19 +1276,19 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
@@ -1297,7 +1297,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1305,12 +1305,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1548,46 +1542,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BE73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="2.875" style="33" customWidth="1"/>
-    <col min="12" max="16" width="3.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="33" customWidth="1"/>
+    <col min="12" max="16" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="27" width="3.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="2.625" style="1"/>
+    <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" ht="19" customHeight="1">
       <c r="C2" s="57" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +1601,7 @@
       <c r="P2" s="43"/>
       <c r="Q2" s="44">
         <f ca="1">DAYS360(P4,today+1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R2" s="43"/>
       <c r="T2" s="45"/>
@@ -1635,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="27" customHeight="1">
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -1645,7 +1639,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" ht="18.75" customHeight="1">
       <c r="C4" s="58" t="s">
         <v>27</v>
       </c>
@@ -1689,7 +1683,7 @@
       </c>
       <c r="AR4" s="56">
         <f ca="1">TODAY()</f>
-        <v>42670</v>
+        <v>42671</v>
       </c>
       <c r="AS4" s="56"/>
       <c r="AT4" s="56"/>
@@ -1700,7 +1694,7 @@
       <c r="AZ4" s="33"/>
       <c r="BA4" s="33"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57">
       <c r="G5" s="1"/>
       <c r="L5" s="60" t="s">
         <v>13</v>
@@ -1742,7 +1736,7 @@
       <c r="AX5" s="33"/>
       <c r="AY5" s="33"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57">
       <c r="G6" s="1"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -1761,7 +1755,7 @@
       <c r="AX6" s="33"/>
       <c r="AY6" s="33"/>
     </row>
-    <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="40"/>
@@ -1835,7 +1829,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1999,7 +1993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="41"/>
@@ -2148,7 +2142,7 @@
       </c>
       <c r="BE9" s="33"/>
     </row>
-    <row r="10" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="19" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -2178,7 +2172,7 @@
       <c r="K10" s="13"/>
       <c r="AA10" s="29"/>
     </row>
-    <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -2205,7 +2199,7 @@
       </c>
       <c r="AA11" s="29"/>
     </row>
-    <row r="12" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="19" customHeight="1">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>17</v>
@@ -2230,7 +2224,7 @@
       </c>
       <c r="AA12" s="29"/>
     </row>
-    <row r="13" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="19" customHeight="1">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
@@ -2253,7 +2247,7 @@
       </c>
       <c r="AA13" s="29"/>
     </row>
-    <row r="14" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="19" customHeight="1">
       <c r="A14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -2276,7 +2270,7 @@
       </c>
       <c r="AA14" s="29"/>
     </row>
-    <row r="15" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="19" customHeight="1">
       <c r="A15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -2295,7 +2289,7 @@
       </c>
       <c r="AA15" s="29"/>
     </row>
-    <row r="16" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" ht="19" customHeight="1">
       <c r="A16" s="4"/>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -2314,7 +2308,7 @@
       </c>
       <c r="AA16" s="29"/>
     </row>
-    <row r="17" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="19" customHeight="1">
       <c r="A17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -2333,7 +2327,7 @@
       </c>
       <c r="AA17" s="29"/>
     </row>
-    <row r="18" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="19" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
@@ -2361,7 +2355,7 @@
       <c r="K18" s="13"/>
       <c r="AA18" s="29"/>
     </row>
-    <row r="19" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
@@ -2388,7 +2382,7 @@
       </c>
       <c r="AA19" s="29"/>
     </row>
-    <row r="20" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="19" customHeight="1">
       <c r="A20" s="4"/>
       <c r="C20" s="5" t="s">
         <v>34</v>
@@ -2413,7 +2407,7 @@
       </c>
       <c r="AA20" s="29"/>
     </row>
-    <row r="21" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="19" customHeight="1">
       <c r="A21" s="4"/>
       <c r="C21" s="5" t="s">
         <v>42</v>
@@ -2438,7 +2432,7 @@
       </c>
       <c r="AA21" s="29"/>
     </row>
-    <row r="22" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="19" customHeight="1">
       <c r="A22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
@@ -2463,7 +2457,7 @@
       </c>
       <c r="AA22" s="29"/>
     </row>
-    <row r="23" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
       <c r="A23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>35</v>
@@ -2508,7 +2502,7 @@
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
     </row>
-    <row r="24" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="19" customHeight="1">
       <c r="A24" s="4"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
@@ -2533,7 +2527,7 @@
       </c>
       <c r="AA24" s="29"/>
     </row>
-    <row r="25" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="19" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>64</v>
       </c>
@@ -2563,7 +2557,7 @@
       <c r="K25" s="21"/>
       <c r="AA25" s="29"/>
     </row>
-    <row r="26" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="19" customHeight="1">
       <c r="A26" s="4"/>
       <c r="C26" s="5" t="s">
         <v>38</v>
@@ -2588,7 +2582,7 @@
       </c>
       <c r="AA26" s="29"/>
     </row>
-    <row r="27" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>39</v>
@@ -2633,7 +2627,7 @@
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
     </row>
-    <row r="28" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
       <c r="A28" s="4"/>
       <c r="C28" s="5" t="s">
         <v>40</v>
@@ -2678,7 +2672,7 @@
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
     </row>
-    <row r="29" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="19" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
@@ -2706,7 +2700,7 @@
       <c r="K29" s="13"/>
       <c r="AA29" s="29"/>
     </row>
-    <row r="30" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="19" customHeight="1">
       <c r="A30" s="22" t="s">
         <v>65</v>
       </c>
@@ -2736,7 +2730,7 @@
       <c r="K30" s="27"/>
       <c r="AA30" s="29"/>
     </row>
-    <row r="31" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="19" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
@@ -2764,7 +2758,7 @@
       <c r="K31" s="27"/>
       <c r="AA31" s="29"/>
     </row>
-    <row r="32" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="19" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="24" t="s">
@@ -2792,7 +2786,7 @@
       <c r="K32" s="27"/>
       <c r="AA32" s="29"/>
     </row>
-    <row r="33" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="19" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>66</v>
       </c>
@@ -2822,7 +2816,7 @@
       <c r="K33" s="21"/>
       <c r="AA33" s="29"/>
     </row>
-    <row r="34" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="19" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24" t="s">
@@ -2850,7 +2844,7 @@
       <c r="K34" s="27"/>
       <c r="AA34" s="29"/>
     </row>
-    <row r="35" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="19" customHeight="1">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24" t="s">
@@ -2878,7 +2872,7 @@
       <c r="K35" s="27"/>
       <c r="AA35" s="29"/>
     </row>
-    <row r="36" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="19" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24" t="s">
@@ -2900,24 +2894,30 @@
       <c r="K36" s="27"/>
       <c r="AA36" s="29"/>
     </row>
-    <row r="37" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="19" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="23"/>
-      <c r="E37" s="38"/>
+      <c r="E37" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="F37" s="25">
         <v>12</v>
       </c>
       <c r="G37" s="25">
         <v>1</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="H37" s="25">
+        <v>12</v>
+      </c>
+      <c r="I37" s="25">
+        <v>1</v>
+      </c>
       <c r="J37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="27"/>
       <c r="L37" s="34"/>
@@ -2941,21 +2941,25 @@
       <c r="AD37" s="34"/>
       <c r="AE37" s="34"/>
     </row>
-    <row r="38" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="19" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="23"/>
-      <c r="E38" s="38"/>
+      <c r="E38" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F38" s="25">
         <v>14</v>
       </c>
       <c r="G38" s="25">
-        <v>1</v>
-      </c>
-      <c r="H38" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="25">
+        <v>12</v>
+      </c>
       <c r="I38" s="25"/>
       <c r="J38" s="26">
         <v>0</v>
@@ -2982,7 +2986,7 @@
       <c r="AD38" s="34"/>
       <c r="AE38" s="34"/>
     </row>
-    <row r="39" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="19" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24" t="s">
@@ -2994,7 +2998,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
@@ -3023,7 +3027,7 @@
       <c r="AD39" s="34"/>
       <c r="AE39" s="34"/>
     </row>
-    <row r="40" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A40" s="16" t="s">
         <v>76</v>
       </c>
@@ -3072,7 +3076,7 @@
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
     </row>
-    <row r="41" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A41" s="22"/>
       <c r="C41" s="24" t="s">
         <v>52</v>
@@ -3117,7 +3121,7 @@
       <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
     </row>
-    <row r="42" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A42" s="22"/>
       <c r="C42" s="24" t="s">
         <v>60</v>
@@ -3162,7 +3166,7 @@
       <c r="AD42" s="27"/>
       <c r="AE42" s="27"/>
     </row>
-    <row r="43" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A43" s="22"/>
       <c r="C43" s="24" t="s">
         <v>53</v>
@@ -3203,7 +3207,7 @@
       <c r="AD43" s="27"/>
       <c r="AE43" s="27"/>
     </row>
-    <row r="44" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A44" s="22"/>
       <c r="C44" s="24" t="s">
         <v>71</v>
@@ -3242,7 +3246,7 @@
       <c r="AD44" s="27"/>
       <c r="AE44" s="27"/>
     </row>
-    <row r="45" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A45" s="22"/>
       <c r="C45" s="24" t="s">
         <v>54</v>
@@ -3283,7 +3287,7 @@
       <c r="AD45" s="27"/>
       <c r="AE45" s="27"/>
     </row>
-    <row r="46" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A46" s="22"/>
       <c r="C46" s="24" t="s">
         <v>68</v>
@@ -3322,7 +3326,7 @@
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
     </row>
-    <row r="47" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A47" s="16" t="s">
         <v>77</v>
       </c>
@@ -3367,7 +3371,7 @@
       <c r="AD47" s="27"/>
       <c r="AE47" s="27"/>
     </row>
-    <row r="48" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A48" s="22"/>
       <c r="C48" s="24" t="s">
         <v>73</v>
@@ -3406,7 +3410,7 @@
       <c r="AD48" s="27"/>
       <c r="AE48" s="27"/>
     </row>
-    <row r="49" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A49" s="22"/>
       <c r="C49" s="24" t="s">
         <v>70</v>
@@ -3445,7 +3449,7 @@
       <c r="AD49" s="27"/>
       <c r="AE49" s="27"/>
     </row>
-    <row r="50" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A50" s="22"/>
       <c r="C50" s="24" t="s">
         <v>72</v>
@@ -3484,7 +3488,7 @@
       <c r="AD50" s="27"/>
       <c r="AE50" s="27"/>
     </row>
-    <row r="51" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A51" s="16" t="s">
         <v>74</v>
       </c>
@@ -3527,7 +3531,7 @@
       <c r="AD51" s="27"/>
       <c r="AE51" s="27"/>
     </row>
-    <row r="52" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A52" s="22"/>
       <c r="C52" s="24" t="s">
         <v>78</v>
@@ -3566,7 +3570,7 @@
       <c r="AD52" s="27"/>
       <c r="AE52" s="27"/>
     </row>
-    <row r="53" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A53" s="22"/>
       <c r="C53" s="24" t="s">
         <v>79</v>
@@ -3605,7 +3609,7 @@
       <c r="AD53" s="27"/>
       <c r="AE53" s="27"/>
     </row>
-    <row r="54" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="22"/>
       <c r="C54" s="24" t="s">
         <v>56</v>
@@ -3644,7 +3648,7 @@
       <c r="AD54" s="27"/>
       <c r="AE54" s="27"/>
     </row>
-    <row r="55" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A55" s="22"/>
       <c r="C55" s="24" t="s">
         <v>61</v>
@@ -3683,7 +3687,7 @@
       <c r="AD55" s="27"/>
       <c r="AE55" s="27"/>
     </row>
-    <row r="56" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A56" s="22"/>
       <c r="C56" s="24" t="s">
         <v>80</v>
@@ -3722,7 +3726,7 @@
       <c r="AD56" s="27"/>
       <c r="AE56" s="27"/>
     </row>
-    <row r="57" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A57" s="22"/>
       <c r="C57" s="24" t="s">
         <v>57</v>
@@ -3761,7 +3765,7 @@
       <c r="AD57" s="27"/>
       <c r="AE57" s="27"/>
     </row>
-    <row r="58" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A58" s="22"/>
       <c r="C58" s="24" t="s">
         <v>81</v>
@@ -3800,7 +3804,7 @@
       <c r="AD58" s="27"/>
       <c r="AE58" s="27"/>
     </row>
-    <row r="59" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A59" s="22"/>
       <c r="C59" s="24" t="s">
         <v>82</v>
@@ -3839,7 +3843,7 @@
       <c r="AD59" s="27"/>
       <c r="AE59" s="27"/>
     </row>
-    <row r="60" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A60" s="22"/>
       <c r="C60" s="24" t="s">
         <v>83</v>
@@ -3878,7 +3882,7 @@
       <c r="AD60" s="27"/>
       <c r="AE60" s="27"/>
     </row>
-    <row r="61" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A61" s="22"/>
       <c r="C61" s="24" t="s">
         <v>58</v>
@@ -3917,7 +3921,7 @@
       <c r="AD61" s="27"/>
       <c r="AE61" s="27"/>
     </row>
-    <row r="62" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="22"/>
       <c r="C62" s="24" t="s">
         <v>84</v>
@@ -3956,7 +3960,7 @@
       <c r="AD62" s="27"/>
       <c r="AE62" s="27"/>
     </row>
-    <row r="63" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A63" s="16" t="s">
         <v>67</v>
       </c>
@@ -3997,7 +4001,7 @@
       <c r="AD63" s="27"/>
       <c r="AE63" s="27"/>
     </row>
-    <row r="64" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A64" s="22"/>
       <c r="C64" s="24"/>
       <c r="E64" s="38"/>
@@ -4034,7 +4038,7 @@
       <c r="AD64" s="27"/>
       <c r="AE64" s="27"/>
     </row>
-    <row r="65" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A65" s="22"/>
       <c r="C65" s="24"/>
       <c r="E65" s="38"/>
@@ -4071,7 +4075,7 @@
       <c r="AD65" s="27"/>
       <c r="AE65" s="27"/>
     </row>
-    <row r="66" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A66" s="22"/>
       <c r="C66" s="24"/>
       <c r="E66" s="38"/>
@@ -4108,7 +4112,7 @@
       <c r="AD66" s="27"/>
       <c r="AE66" s="27"/>
     </row>
-    <row r="67" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A67" s="22"/>
       <c r="C67" s="24"/>
       <c r="E67" s="38"/>
@@ -4145,7 +4149,7 @@
       <c r="AD67" s="27"/>
       <c r="AE67" s="27"/>
     </row>
-    <row r="68" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A68" s="22"/>
       <c r="C68" s="24"/>
       <c r="E68" s="38"/>
@@ -4182,7 +4186,7 @@
       <c r="AD68" s="27"/>
       <c r="AE68" s="27"/>
     </row>
-    <row r="69" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A69" s="22"/>
       <c r="C69" s="24"/>
       <c r="E69" s="38"/>
@@ -4219,7 +4223,7 @@
       <c r="AD69" s="27"/>
       <c r="AE69" s="27"/>
     </row>
-    <row r="70" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A70" s="22"/>
       <c r="C70" s="24"/>
       <c r="E70" s="38"/>
@@ -4256,7 +4260,7 @@
       <c r="AD70" s="27"/>
       <c r="AE70" s="27"/>
     </row>
-    <row r="71" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A71" s="22"/>
       <c r="C71" s="24"/>
       <c r="E71" s="38"/>
@@ -4293,7 +4297,7 @@
       <c r="AD71" s="27"/>
       <c r="AE71" s="27"/>
     </row>
-    <row r="72" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A72" s="22"/>
       <c r="C72" s="24"/>
       <c r="E72" s="38"/>
@@ -4330,7 +4334,7 @@
       <c r="AD72" s="27"/>
       <c r="AE72" s="27"/>
     </row>
-    <row r="73" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A73" s="22"/>
       <c r="C73" s="24"/>
       <c r="E73" s="38"/>
@@ -4434,23 +4438,25 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>Plan</t>
   </si>
@@ -366,13 +366,16 @@
     <t>Update collection schemas</t>
   </si>
   <si>
-    <t>Make buildings collection generic for all types</t>
-  </si>
-  <si>
     <t>Come up with schema for ratings (i.e. what to rate)</t>
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Add feature for user log in /sign up</t>
+  </si>
+  <si>
+    <t>Get data for a building from the backend</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,9 +973,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,6 +1006,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1019,6 +1022,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,7 +1272,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="12"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="15"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1545,27 +1551,27 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BE73"/>
+  <dimension ref="A2:BE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="39" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="33" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="33" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="53" customWidth="1"/>
     <col min="11" max="11" width="2.83203125" style="33" customWidth="1"/>
     <col min="12" max="16" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="18" max="27" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="2.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1599,33 +1605,33 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
-      <c r="Q2" s="44">
-        <f ca="1">DAYS360(P4,today+1)</f>
-        <v>12</v>
+      <c r="Q2" s="61">
+        <f ca="1">DAYS360(P4 - 1,today)</f>
+        <v>15</v>
       </c>
       <c r="R2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="46" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="49" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="49" t="s">
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="48" t="s">
         <v>9</v>
       </c>
       <c r="AJ2" s="33"/>
       <c r="AK2" s="33"/>
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="49" t="s">
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="48" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1678,12 +1684,12 @@
       <c r="AI4" s="33"/>
       <c r="AJ4" s="33"/>
       <c r="AK4" s="33"/>
-      <c r="AN4" s="52" t="s">
+      <c r="AN4" s="51" t="s">
         <v>48</v>
       </c>
       <c r="AR4" s="56">
         <f ca="1">TODAY()</f>
-        <v>42671</v>
+        <v>42675</v>
       </c>
       <c r="AS4" s="56"/>
       <c r="AT4" s="56"/>
@@ -2147,7 +2153,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="9"/>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="19" spans="1:31" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>33</v>
@@ -2898,7 +2904,7 @@
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="38" t="s">
@@ -2990,42 +2996,40 @@
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="38"/>
       <c r="F39" s="25">
-        <v>14</v>
-      </c>
-      <c r="G39" s="25">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="26">
         <v>0</v>
       </c>
       <c r="K39" s="27"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
       <c r="AA39" s="29"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
     </row>
     <row r="40" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A40" s="16" t="s">
@@ -3335,7 +3339,9 @@
         <v>69</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="37"/>
+      <c r="E47" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="F47" s="19">
         <v>11</v>
       </c>
@@ -3376,7 +3382,9 @@
       <c r="C48" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="38"/>
+      <c r="E48" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="F48" s="25">
         <v>13</v>
       </c>
@@ -3415,7 +3423,9 @@
       <c r="C49" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="38"/>
+      <c r="E49" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="F49" s="25">
         <v>11</v>
       </c>
@@ -3454,7 +3464,9 @@
       <c r="C50" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="F50" s="25">
         <v>13</v>
       </c>
@@ -3497,17 +3509,23 @@
         <v>75</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="37"/>
+      <c r="E51" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="F51" s="19">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G51" s="19">
         <v>1</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="H51" s="19">
+        <v>15</v>
+      </c>
+      <c r="I51" s="19">
+        <v>1</v>
+      </c>
       <c r="J51" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="21"/>
       <c r="L51" s="27"/>
@@ -3536,17 +3554,23 @@
       <c r="C52" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F52" s="25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G52" s="25">
-        <v>2</v>
-      </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="25">
+        <v>15</v>
+      </c>
+      <c r="I52" s="25">
+        <v>1</v>
+      </c>
       <c r="J52" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="27"/>
       <c r="L52" s="27"/>
@@ -3575,17 +3599,23 @@
       <c r="C53" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="38"/>
+      <c r="E53" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F53" s="25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G53" s="25">
         <v>1</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="H53" s="25">
+        <v>15</v>
+      </c>
+      <c r="I53" s="25">
+        <v>1</v>
+      </c>
       <c r="J53" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="27"/>
       <c r="L53" s="27"/>
@@ -3612,19 +3642,25 @@
     <row r="54" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="22"/>
       <c r="C54" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="38"/>
+        <v>92</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F54" s="25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G54" s="25">
-        <v>1</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="H54" s="25">
+        <v>15</v>
+      </c>
+      <c r="I54" s="25">
+        <v>2</v>
+      </c>
       <c r="J54" s="26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
@@ -3651,14 +3687,14 @@
     <row r="55" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A55" s="22"/>
       <c r="C55" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="25">
         <v>1</v>
       </c>
       <c r="G55" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
@@ -3690,14 +3726,14 @@
     <row r="56" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A56" s="22"/>
       <c r="C56" s="24" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="25">
         <v>1</v>
       </c>
       <c r="G56" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -3729,14 +3765,14 @@
     <row r="57" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A57" s="22"/>
       <c r="C57" s="24" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="25">
         <v>1</v>
       </c>
       <c r="G57" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
@@ -3768,14 +3804,14 @@
     <row r="58" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A58" s="22"/>
       <c r="C58" s="24" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="25">
         <v>1</v>
       </c>
       <c r="G58" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
@@ -3807,14 +3843,14 @@
     <row r="59" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A59" s="22"/>
       <c r="C59" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="25">
         <v>1</v>
       </c>
       <c r="G59" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
@@ -3846,14 +3882,14 @@
     <row r="60" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A60" s="22"/>
       <c r="C60" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="25">
         <v>1</v>
       </c>
       <c r="G60" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
@@ -3885,14 +3921,14 @@
     <row r="61" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A61" s="22"/>
       <c r="C61" s="24" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="25">
         <v>1</v>
       </c>
       <c r="G61" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
@@ -3924,14 +3960,14 @@
     <row r="62" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="22"/>
       <c r="C62" s="24" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="25">
         <v>1</v>
       </c>
       <c r="G62" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
@@ -3961,25 +3997,23 @@
       <c r="AE62" s="27"/>
     </row>
     <row r="63" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="19">
-        <v>1</v>
-      </c>
-      <c r="G63" s="19">
-        <v>1</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20">
+      <c r="A63" s="22"/>
+      <c r="C63" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="38"/>
+      <c r="F63" s="25">
+        <v>1</v>
+      </c>
+      <c r="G63" s="25">
+        <v>3</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="26">
         <v>0</v>
       </c>
-      <c r="K63" s="21"/>
+      <c r="K63" s="27"/>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
@@ -4002,21 +4036,25 @@
       <c r="AE63" s="27"/>
     </row>
     <row r="64" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
-      <c r="A64" s="22"/>
-      <c r="C64" s="24"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="25">
-        <v>1</v>
-      </c>
-      <c r="G64" s="25">
-        <v>1</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26">
+      <c r="A64" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="19">
+        <v>1</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20">
         <v>0</v>
       </c>
-      <c r="K64" s="27"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="27"/>
       <c r="M64" s="27"/>
       <c r="N64" s="27"/>
@@ -4371,6 +4409,43 @@
       <c r="AD73" s="27"/>
       <c r="AE73" s="27"/>
     </row>
+    <row r="74" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+      <c r="A74" s="22"/>
+      <c r="C74" s="24"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="25">
+        <v>1</v>
+      </c>
+      <c r="G74" s="25">
+        <v>1</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="26">
+        <v>0</v>
+      </c>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="31"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="AR4:AU4"/>
@@ -4388,7 +4463,7 @@
     <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="L10:BD73">
+  <conditionalFormatting sqref="L10:BD74">
     <cfRule type="expression" dxfId="9" priority="50">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>Plan</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>Get data for a building from the backend</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Create school results page</t>
   </si>
 </sst>
 </file>
@@ -1009,6 +1015,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,9 +1031,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1278,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="15"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="16"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1553,8 +1559,8 @@
   </sheetPr>
   <dimension ref="A2:BE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1571,7 +1577,7 @@
     <col min="10" max="10" width="7.1640625" style="53" customWidth="1"/>
     <col min="11" max="11" width="2.83203125" style="33" customWidth="1"/>
     <col min="12" max="16" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="33" customWidth="1"/>
     <col min="18" max="27" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="2.83203125" style="33" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1588,14 +1594,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="19" customHeight="1">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="L2" s="43" t="s">
@@ -1605,9 +1611,9 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
-      <c r="Q2" s="61">
-        <f ca="1">DAYS360(P4 - 1,today)</f>
-        <v>15</v>
+      <c r="Q2" s="56">
+        <f ca="1">DAYS360(P4 - 1,today) + 1</f>
+        <v>16</v>
       </c>
       <c r="R2" s="43"/>
       <c r="T2" s="44"/>
@@ -1636,64 +1642,64 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="27" customHeight="1">
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:57" ht="18.75" customHeight="1">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="59">
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="60">
         <v>42660</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="60" t="s">
+      <c r="AA4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="59">
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="60">
         <v>42688</v>
       </c>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
       <c r="AI4" s="33"/>
       <c r="AJ4" s="33"/>
       <c r="AK4" s="33"/>
       <c r="AN4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AR4" s="56">
+      <c r="AR4" s="57">
         <f ca="1">TODAY()</f>
         <v>42675</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
       <c r="AW4" s="33"/>
       <c r="AX4" s="33"/>
       <c r="AY4" s="33"/>
@@ -1702,42 +1708,42 @@
     </row>
     <row r="5" spans="1:57">
       <c r="G5" s="1"/>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="59">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="60">
         <v>42675</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60" t="s">
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="60" t="s">
+      <c r="AA5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="59">
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="60">
         <v>42713</v>
       </c>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60" t="s">
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
       <c r="AW5" s="33"/>
       <c r="AX5" s="33"/>
       <c r="AY5" s="33"/>
@@ -2281,17 +2287,23 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="F15" s="6">
         <v>9</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="6">
+        <v>14</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
       <c r="J15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="29"/>
     </row>
@@ -2300,17 +2312,23 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="F16" s="6">
         <v>11</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="6">
+        <v>15</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="29"/>
     </row>
@@ -2319,17 +2337,23 @@
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" s="6">
         <v>13</v>
       </c>
       <c r="G17" s="6">
         <v>3</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="6">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="29"/>
     </row>
@@ -3391,7 +3415,9 @@
       <c r="G48" s="25">
         <v>2</v>
       </c>
-      <c r="H48" s="25"/>
+      <c r="H48" s="25">
+        <v>13</v>
+      </c>
       <c r="I48" s="25"/>
       <c r="J48" s="26">
         <v>0</v>
@@ -3432,7 +3458,9 @@
       <c r="G49" s="25">
         <v>2</v>
       </c>
-      <c r="H49" s="25"/>
+      <c r="H49" s="25">
+        <v>11</v>
+      </c>
       <c r="I49" s="25"/>
       <c r="J49" s="26">
         <v>0</v>
@@ -3473,7 +3501,9 @@
       <c r="G50" s="25">
         <v>1</v>
       </c>
-      <c r="H50" s="25"/>
+      <c r="H50" s="25">
+        <v>13</v>
+      </c>
       <c r="I50" s="25"/>
       <c r="J50" s="26">
         <v>0</v>
@@ -3660,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
@@ -3884,17 +3914,23 @@
       <c r="C60" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="38"/>
+      <c r="E60" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F60" s="25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G60" s="25">
         <v>2</v>
       </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="H60" s="25">
+        <v>15</v>
+      </c>
+      <c r="I60" s="25">
+        <v>2</v>
+      </c>
       <c r="J60" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
@@ -3923,17 +3959,23 @@
       <c r="C61" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="38"/>
+      <c r="E61" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="F61" s="25">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G61" s="25">
         <v>3</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
+      <c r="H61" s="25">
+        <v>14</v>
+      </c>
+      <c r="I61" s="25">
+        <v>3</v>
+      </c>
       <c r="J61" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="27"/>
       <c r="L61" s="27"/>
@@ -4040,7 +4082,9 @@
         <v>67</v>
       </c>
       <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="C64" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="D64" s="17"/>
       <c r="E64" s="37"/>
       <c r="F64" s="19">

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23925"/>
   </bookViews>
   <sheets>
     <sheet name="gantt chart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Plan">PeriodInPlan*('gantt chart'!$F1&gt;0)</definedName>
     <definedName name="today">'gantt chart'!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1288,28 +1288,31 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1317,6 +1320,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1554,46 +1563,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="33" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="2.875" style="33" customWidth="1"/>
+    <col min="12" max="16" width="3.125" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" style="33" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="3.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.875" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.625" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.625" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="2.6640625" style="1"/>
+    <col min="57" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="19" customHeight="1">
+    <row r="2" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="58" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="27" customHeight="1">
+    <row r="3" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
@@ -1651,7 +1660,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:57" ht="18.75" customHeight="1">
+    <row r="4" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="59" t="s">
         <v>27</v>
       </c>
@@ -1706,7 +1715,7 @@
       <c r="AZ4" s="33"/>
       <c r="BA4" s="33"/>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
       <c r="L5" s="61" t="s">
         <v>13</v>
@@ -1748,7 +1757,7 @@
       <c r="AX5" s="33"/>
       <c r="AY5" s="33"/>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -1767,7 +1776,7 @@
       <c r="AX6" s="33"/>
       <c r="AY6" s="33"/>
     </row>
-    <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="40"/>
@@ -1841,7 +1850,7 @@
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1">
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="15.75" customHeight="1">
+    <row r="9" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="41"/>
@@ -2154,7 +2163,7 @@
       </c>
       <c r="BE9" s="33"/>
     </row>
-    <row r="10" spans="1:57" ht="19" customHeight="1">
+    <row r="10" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -2184,7 +2193,7 @@
       <c r="K10" s="13"/>
       <c r="AA10" s="29"/>
     </row>
-    <row r="11" spans="1:57" ht="18.75" customHeight="1">
+    <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -2211,7 +2220,7 @@
       </c>
       <c r="AA11" s="29"/>
     </row>
-    <row r="12" spans="1:57" ht="19" customHeight="1">
+    <row r="12" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>17</v>
@@ -2236,7 +2245,7 @@
       </c>
       <c r="AA12" s="29"/>
     </row>
-    <row r="13" spans="1:57" ht="19" customHeight="1">
+    <row r="13" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
@@ -2259,7 +2268,7 @@
       </c>
       <c r="AA13" s="29"/>
     </row>
-    <row r="14" spans="1:57" ht="19" customHeight="1">
+    <row r="14" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -2282,7 +2291,7 @@
       </c>
       <c r="AA14" s="29"/>
     </row>
-    <row r="15" spans="1:57" ht="19" customHeight="1">
+    <row r="15" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -2307,7 +2316,7 @@
       </c>
       <c r="AA15" s="29"/>
     </row>
-    <row r="16" spans="1:57" ht="19" customHeight="1">
+    <row r="16" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -2332,7 +2341,7 @@
       </c>
       <c r="AA16" s="29"/>
     </row>
-    <row r="17" spans="1:31" ht="19" customHeight="1">
+    <row r="17" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -2357,7 +2366,7 @@
       </c>
       <c r="AA17" s="29"/>
     </row>
-    <row r="18" spans="1:31" ht="19" customHeight="1">
+    <row r="18" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
@@ -2385,7 +2394,7 @@
       <c r="K18" s="13"/>
       <c r="AA18" s="29"/>
     </row>
-    <row r="19" spans="1:31" ht="19" customHeight="1">
+    <row r="19" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -2412,7 +2421,7 @@
       </c>
       <c r="AA19" s="29"/>
     </row>
-    <row r="20" spans="1:31" ht="19" customHeight="1">
+    <row r="20" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20" s="5" t="s">
         <v>34</v>
@@ -2437,7 +2446,7 @@
       </c>
       <c r="AA20" s="29"/>
     </row>
-    <row r="21" spans="1:31" ht="19" customHeight="1">
+    <row r="21" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21" s="5" t="s">
         <v>42</v>
@@ -2462,7 +2471,7 @@
       </c>
       <c r="AA21" s="29"/>
     </row>
-    <row r="22" spans="1:31" ht="19" customHeight="1">
+    <row r="22" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
@@ -2487,7 +2496,7 @@
       </c>
       <c r="AA22" s="29"/>
     </row>
-    <row r="23" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
+    <row r="23" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>35</v>
@@ -2532,7 +2541,7 @@
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
     </row>
-    <row r="24" spans="1:31" ht="19" customHeight="1">
+    <row r="24" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
@@ -2557,7 +2566,7 @@
       </c>
       <c r="AA24" s="29"/>
     </row>
-    <row r="25" spans="1:31" ht="19" customHeight="1">
+    <row r="25" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>64</v>
       </c>
@@ -2587,7 +2596,7 @@
       <c r="K25" s="21"/>
       <c r="AA25" s="29"/>
     </row>
-    <row r="26" spans="1:31" ht="19" customHeight="1">
+    <row r="26" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="5" t="s">
         <v>38</v>
@@ -2612,7 +2621,7 @@
       </c>
       <c r="AA26" s="29"/>
     </row>
-    <row r="27" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
+    <row r="27" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>39</v>
@@ -2657,7 +2666,7 @@
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
     </row>
-    <row r="28" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1">
+    <row r="28" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28" s="5" t="s">
         <v>40</v>
@@ -2702,7 +2711,7 @@
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
     </row>
-    <row r="29" spans="1:31" ht="19" customHeight="1">
+    <row r="29" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
@@ -2730,7 +2739,7 @@
       <c r="K29" s="13"/>
       <c r="AA29" s="29"/>
     </row>
-    <row r="30" spans="1:31" ht="19" customHeight="1">
+    <row r="30" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>65</v>
       </c>
@@ -2760,7 +2769,7 @@
       <c r="K30" s="27"/>
       <c r="AA30" s="29"/>
     </row>
-    <row r="31" spans="1:31" ht="19" customHeight="1">
+    <row r="31" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
@@ -2788,7 +2797,7 @@
       <c r="K31" s="27"/>
       <c r="AA31" s="29"/>
     </row>
-    <row r="32" spans="1:31" ht="19" customHeight="1">
+    <row r="32" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="23"/>
       <c r="C32" s="24" t="s">
@@ -2816,7 +2825,7 @@
       <c r="K32" s="27"/>
       <c r="AA32" s="29"/>
     </row>
-    <row r="33" spans="1:31" ht="19" customHeight="1">
+    <row r="33" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>66</v>
       </c>
@@ -2846,7 +2855,7 @@
       <c r="K33" s="21"/>
       <c r="AA33" s="29"/>
     </row>
-    <row r="34" spans="1:31" ht="19" customHeight="1">
+    <row r="34" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24" t="s">
@@ -2874,7 +2883,7 @@
       <c r="K34" s="27"/>
       <c r="AA34" s="29"/>
     </row>
-    <row r="35" spans="1:31" ht="19" customHeight="1">
+    <row r="35" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24" t="s">
@@ -2902,7 +2911,7 @@
       <c r="K35" s="27"/>
       <c r="AA35" s="29"/>
     </row>
-    <row r="36" spans="1:31" ht="19" customHeight="1">
+    <row r="36" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24" t="s">
@@ -2924,7 +2933,7 @@
       <c r="K36" s="27"/>
       <c r="AA36" s="29"/>
     </row>
-    <row r="37" spans="1:31" ht="19" customHeight="1">
+    <row r="37" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24" t="s">
@@ -2971,7 +2980,7 @@
       <c r="AD37" s="34"/>
       <c r="AE37" s="34"/>
     </row>
-    <row r="38" spans="1:31" ht="19" customHeight="1">
+    <row r="38" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24" t="s">
@@ -3016,7 +3025,7 @@
       <c r="AD38" s="34"/>
       <c r="AE38" s="34"/>
     </row>
-    <row r="39" spans="1:31" ht="19" customHeight="1">
+    <row r="39" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24" t="s">
@@ -3055,7 +3064,7 @@
       <c r="AD39" s="55"/>
       <c r="AE39" s="55"/>
     </row>
-    <row r="40" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="40" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>76</v>
       </c>
@@ -3104,7 +3113,7 @@
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
     </row>
-    <row r="41" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="41" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="C41" s="24" t="s">
         <v>52</v>
@@ -3149,7 +3158,7 @@
       <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
     </row>
-    <row r="42" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="42" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="C42" s="24" t="s">
         <v>60</v>
@@ -3194,7 +3203,7 @@
       <c r="AD42" s="27"/>
       <c r="AE42" s="27"/>
     </row>
-    <row r="43" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="43" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="C43" s="24" t="s">
         <v>53</v>
@@ -3235,7 +3244,7 @@
       <c r="AD43" s="27"/>
       <c r="AE43" s="27"/>
     </row>
-    <row r="44" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="44" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="C44" s="24" t="s">
         <v>71</v>
@@ -3274,7 +3283,7 @@
       <c r="AD44" s="27"/>
       <c r="AE44" s="27"/>
     </row>
-    <row r="45" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="45" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="C45" s="24" t="s">
         <v>54</v>
@@ -3315,7 +3324,7 @@
       <c r="AD45" s="27"/>
       <c r="AE45" s="27"/>
     </row>
-    <row r="46" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="46" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="C46" s="24" t="s">
         <v>68</v>
@@ -3354,7 +3363,7 @@
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
     </row>
-    <row r="47" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="47" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>77</v>
       </c>
@@ -3401,7 +3410,7 @@
       <c r="AD47" s="27"/>
       <c r="AE47" s="27"/>
     </row>
-    <row r="48" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="48" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="C48" s="24" t="s">
         <v>73</v>
@@ -3444,7 +3453,7 @@
       <c r="AD48" s="27"/>
       <c r="AE48" s="27"/>
     </row>
-    <row r="49" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="49" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="C49" s="24" t="s">
         <v>70</v>
@@ -3487,7 +3496,7 @@
       <c r="AD49" s="27"/>
       <c r="AE49" s="27"/>
     </row>
-    <row r="50" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="50" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="C50" s="24" t="s">
         <v>72</v>
@@ -3530,7 +3539,7 @@
       <c r="AD50" s="27"/>
       <c r="AE50" s="27"/>
     </row>
-    <row r="51" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="51" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>74</v>
       </c>
@@ -3579,7 +3588,7 @@
       <c r="AD51" s="27"/>
       <c r="AE51" s="27"/>
     </row>
-    <row r="52" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="52" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="C52" s="24" t="s">
         <v>78</v>
@@ -3624,7 +3633,7 @@
       <c r="AD52" s="27"/>
       <c r="AE52" s="27"/>
     </row>
-    <row r="53" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="53" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="C53" s="24" t="s">
         <v>79</v>
@@ -3669,7 +3678,7 @@
       <c r="AD53" s="27"/>
       <c r="AE53" s="27"/>
     </row>
-    <row r="54" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="54" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="C54" s="24" t="s">
         <v>92</v>
@@ -3714,7 +3723,7 @@
       <c r="AD54" s="27"/>
       <c r="AE54" s="27"/>
     </row>
-    <row r="55" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="55" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="C55" s="24" t="s">
         <v>56</v>
@@ -3753,7 +3762,7 @@
       <c r="AD55" s="27"/>
       <c r="AE55" s="27"/>
     </row>
-    <row r="56" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="56" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="C56" s="24" t="s">
         <v>61</v>
@@ -3792,7 +3801,7 @@
       <c r="AD56" s="27"/>
       <c r="AE56" s="27"/>
     </row>
-    <row r="57" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="57" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="C57" s="24" t="s">
         <v>80</v>
@@ -3831,7 +3840,7 @@
       <c r="AD57" s="27"/>
       <c r="AE57" s="27"/>
     </row>
-    <row r="58" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="58" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="C58" s="24" t="s">
         <v>57</v>
@@ -3870,7 +3879,7 @@
       <c r="AD58" s="27"/>
       <c r="AE58" s="27"/>
     </row>
-    <row r="59" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="59" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="C59" s="24" t="s">
         <v>81</v>
@@ -3909,7 +3918,7 @@
       <c r="AD59" s="27"/>
       <c r="AE59" s="27"/>
     </row>
-    <row r="60" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="60" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="C60" s="24" t="s">
         <v>82</v>
@@ -3954,7 +3963,7 @@
       <c r="AD60" s="27"/>
       <c r="AE60" s="27"/>
     </row>
-    <row r="61" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="61" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="C61" s="24" t="s">
         <v>83</v>
@@ -3999,7 +4008,7 @@
       <c r="AD61" s="27"/>
       <c r="AE61" s="27"/>
     </row>
-    <row r="62" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="62" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="C62" s="24" t="s">
         <v>58</v>
@@ -4038,7 +4047,7 @@
       <c r="AD62" s="27"/>
       <c r="AE62" s="27"/>
     </row>
-    <row r="63" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="63" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="C63" s="24" t="s">
         <v>84</v>
@@ -4077,7 +4086,7 @@
       <c r="AD63" s="27"/>
       <c r="AE63" s="27"/>
     </row>
-    <row r="64" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="64" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>67</v>
       </c>
@@ -4120,7 +4129,7 @@
       <c r="AD64" s="27"/>
       <c r="AE64" s="27"/>
     </row>
-    <row r="65" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="65" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="C65" s="24"/>
       <c r="E65" s="38"/>
@@ -4157,7 +4166,7 @@
       <c r="AD65" s="27"/>
       <c r="AE65" s="27"/>
     </row>
-    <row r="66" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="66" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="C66" s="24"/>
       <c r="E66" s="38"/>
@@ -4194,7 +4203,7 @@
       <c r="AD66" s="27"/>
       <c r="AE66" s="27"/>
     </row>
-    <row r="67" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="67" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="C67" s="24"/>
       <c r="E67" s="38"/>
@@ -4231,7 +4240,7 @@
       <c r="AD67" s="27"/>
       <c r="AE67" s="27"/>
     </row>
-    <row r="68" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="68" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="C68" s="24"/>
       <c r="E68" s="38"/>
@@ -4268,7 +4277,7 @@
       <c r="AD68" s="27"/>
       <c r="AE68" s="27"/>
     </row>
-    <row r="69" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="69" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="C69" s="24"/>
       <c r="E69" s="38"/>
@@ -4305,7 +4314,7 @@
       <c r="AD69" s="27"/>
       <c r="AE69" s="27"/>
     </row>
-    <row r="70" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="70" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="C70" s="24"/>
       <c r="E70" s="38"/>
@@ -4342,7 +4351,7 @@
       <c r="AD70" s="27"/>
       <c r="AE70" s="27"/>
     </row>
-    <row r="71" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="71" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="C71" s="24"/>
       <c r="E71" s="38"/>
@@ -4379,7 +4388,7 @@
       <c r="AD71" s="27"/>
       <c r="AE71" s="27"/>
     </row>
-    <row r="72" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="72" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="C72" s="24"/>
       <c r="E72" s="38"/>
@@ -4416,7 +4425,7 @@
       <c r="AD72" s="27"/>
       <c r="AE72" s="27"/>
     </row>
-    <row r="73" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="73" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="C73" s="24"/>
       <c r="E73" s="38"/>
@@ -4453,7 +4462,7 @@
       <c r="AD73" s="27"/>
       <c r="AE73" s="27"/>
     </row>
-    <row r="74" spans="1:31" s="23" customFormat="1" ht="19" customHeight="1">
+    <row r="74" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="C74" s="24"/>
       <c r="E74" s="38"/>
@@ -4557,25 +4566,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5626,15 +5633,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
@@ -5760,6 +5758,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
   <ds:schemaRefs>
@@ -5779,14 +5786,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5800,4 +5799,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
   </bookViews>
   <sheets>
-    <sheet name="gantt chart" sheetId="1" r:id="rId1"/>
+    <sheet name="engineering" sheetId="1" r:id="rId1"/>
+    <sheet name="business" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">(PeriodInActual*('gantt chart'!$H1&gt;0))*PeriodInPlan</definedName>
-    <definedName name="ActualBeyond">PeriodInActual*('gantt chart'!$H1&gt;0)</definedName>
+    <definedName name="Actual" localSheetId="1">(business!PeriodInActual*(business!$H1&gt;0))*business!PeriodInPlan</definedName>
+    <definedName name="Actual">(PeriodInActual*(engineering!$H1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond" localSheetId="1">business!PeriodInActual*(business!$H1&gt;0)</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*(engineering!$H1&gt;0)</definedName>
+    <definedName name="PercentComplete" localSheetId="1">business!PercentCompleteBeyond*business!PeriodInPlan</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('gantt chart'!A$9=MEDIAN('gantt chart'!A$9,'gantt chart'!$H1,'gantt chart'!$H1+'gantt chart'!$I1)*('gantt chart'!$H1&gt;0))*(('gantt chart'!A$9&lt;(INT('gantt chart'!$H1+'gantt chart'!$I1*'gantt chart'!$J1)))+('gantt chart'!A$9='gantt chart'!$H1))*('gantt chart'!$J1&gt;0)</definedName>
-    <definedName name="period_selected">'gantt chart'!$Q$2</definedName>
-    <definedName name="PeriodInActual">'gantt chart'!A$9=MEDIAN('gantt chart'!A$9,'gantt chart'!$H1,'gantt chart'!$H1+'gantt chart'!$I1-1)</definedName>
-    <definedName name="PeriodInPlan">'gantt chart'!A$9=MEDIAN('gantt chart'!A$9,'gantt chart'!$F1,'gantt chart'!$F1+'gantt chart'!$G1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*('gantt chart'!$F1&gt;0)</definedName>
-    <definedName name="today">'gantt chart'!$AR$4</definedName>
+    <definedName name="PercentCompleteBeyond" localSheetId="1">(business!A$9=MEDIAN(business!A$9,business!$H1,business!$H1+business!$I1)*(business!$H1&gt;0))*((business!A$9&lt;(INT(business!$H1+business!$I1*business!$J1)))+(business!A$9=business!$H1))*(business!$J1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">(engineering!A$9=MEDIAN(engineering!A$9,engineering!$H1,engineering!$H1+engineering!$I1)*(engineering!$H1&gt;0))*((engineering!A$9&lt;(INT(engineering!$H1+engineering!$I1*engineering!$J1)))+(engineering!A$9=engineering!$H1))*(engineering!$J1&gt;0)</definedName>
+    <definedName name="period_selected" localSheetId="1">business!$Q$2</definedName>
+    <definedName name="period_selected">engineering!$Q$2</definedName>
+    <definedName name="PeriodInActual" localSheetId="1">business!A$9=MEDIAN(business!A$9,business!$H1,business!$H1+business!$I1-1)</definedName>
+    <definedName name="PeriodInActual">engineering!A$9=MEDIAN(engineering!A$9,engineering!$H1,engineering!$H1+engineering!$I1-1)</definedName>
+    <definedName name="PeriodInPlan" localSheetId="1">business!A$9=MEDIAN(business!A$9,business!$F1,business!$F1+business!$G1-1)</definedName>
+    <definedName name="PeriodInPlan">engineering!A$9=MEDIAN(engineering!A$9,engineering!$F1,engineering!$F1+engineering!$G1-1)</definedName>
+    <definedName name="Plan" localSheetId="1">business!PeriodInPlan*(business!$F1&gt;0)</definedName>
+    <definedName name="Plan">PeriodInPlan*(engineering!$F1&gt;0)</definedName>
+    <definedName name="today" localSheetId="1">business!$AR$4</definedName>
+    <definedName name="today">engineering!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>Plan</t>
   </si>
@@ -180,9 +190,6 @@
     <t>(Project 4)</t>
   </si>
   <si>
-    <t>Team  ESAP</t>
-  </si>
-  <si>
     <t>RATE MY CAMPUS</t>
   </si>
   <si>
@@ -300,9 +307,6 @@
     <t>MongoDB</t>
   </si>
   <si>
-    <t>School search</t>
-  </si>
-  <si>
     <t>Implement load more button functionality</t>
   </si>
   <si>
@@ -381,13 +385,76 @@
     <t>PP</t>
   </si>
   <si>
-    <t>Create school results page</t>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>User Manual</t>
+  </si>
+  <si>
+    <t>Take screenshots of the website</t>
+  </si>
+  <si>
+    <t>Create instructions on how to search</t>
+  </si>
+  <si>
+    <t>Create instructions on how to add a rating</t>
+  </si>
+  <si>
+    <t>Create instructions on how to contact support</t>
+  </si>
+  <si>
+    <t>Create instructions on how to read the ratings</t>
+  </si>
+  <si>
+    <t>Deployment Plan</t>
+  </si>
+  <si>
+    <t>Maintenance Plan</t>
+  </si>
+  <si>
+    <t>Research marketing strategies + costs</t>
+  </si>
+  <si>
+    <t>Research a web domain host + costs</t>
+  </si>
+  <si>
+    <t>Research costs to hire developers</t>
+  </si>
+  <si>
+    <t>Research how to obtain updated lists of facilities</t>
+  </si>
+  <si>
+    <t>Research a service to host our server + costs</t>
+  </si>
+  <si>
+    <t>Test Suite</t>
+  </si>
+  <si>
+    <t>Research testing packages for Meteor</t>
+  </si>
+  <si>
+    <t>Research testing packages for React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an "API" to run tests </t>
+  </si>
+  <si>
+    <t>Create a page to display API response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research costs to hire business type peeps </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,7 +721,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,8 +912,32 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,24 +962,9 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -955,9 +1031,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,9 +1082,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,6 +1089,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1033,8 +1109,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="72">
     <cellStyle name="Activity" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
@@ -1064,6 +1158,10 @@
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1093,6 +1191,10 @@
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6"/>
@@ -1100,7 +1202,160 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1278,7 +1533,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="16"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="25"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="0" inc="0" max="0" page="0" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1288,31 +1547,28 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1320,12 +1576,52 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>203200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1563,245 +1859,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BE74"/>
+  <dimension ref="A2:BM59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="2.875" style="33" customWidth="1"/>
-    <col min="12" max="16" width="3.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="33" customWidth="1"/>
-    <col min="18" max="27" width="3.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="28" customWidth="1"/>
+    <col min="12" max="16" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="28" customWidth="1"/>
+    <col min="18" max="27" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="2.625" style="1"/>
+    <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="L2" s="43" t="s">
+    <row r="2" spans="1:65" ht="19" customHeight="1">
+      <c r="B2" s="57"/>
+      <c r="C2" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="36"/>
+      <c r="L2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="56">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>16</v>
-      </c>
-      <c r="R2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="48" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="48" t="s">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="48" t="s">
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="L4" s="61" t="s">
+    <row r="3" spans="1:65" ht="27" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:65" ht="18.75" customHeight="1">
+      <c r="B4" s="58"/>
+      <c r="C4" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="36"/>
+      <c r="L4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="60">
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="55">
         <v>42660</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="61" t="s">
+      <c r="AA4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="60">
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="55">
         <v>42688</v>
       </c>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AN4" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR4" s="57">
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AN4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" s="52">
         <f ca="1">TODAY()</f>
+        <v>42684</v>
+      </c>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+    </row>
+    <row r="5" spans="1:65">
+      <c r="G5" s="1"/>
+      <c r="L5" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55">
         <v>42675</v>
       </c>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
-      <c r="L5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60">
-        <v>42675</v>
-      </c>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="61" t="s">
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="61" t="s">
+      <c r="AA5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="60">
-        <v>42713</v>
-      </c>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61" t="s">
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="55">
+        <v>42712</v>
+      </c>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+    </row>
+    <row r="6" spans="1:65">
       <c r="G6" s="1"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AW6" s="33"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="33"/>
-    </row>
-    <row r="7" spans="1:57" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+    </row>
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="34" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1818,7 +2118,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -1849,16 +2149,19 @@
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
-    </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +2180,7 @@
       <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="2">
         <v>17</v>
       </c>
@@ -1923,7 +2226,7 @@
       <c r="Z8" s="2">
         <v>31</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="AA8" s="23">
         <v>1</v>
       </c>
       <c r="AB8" s="2">
@@ -2013,19 +2316,46 @@
       <c r="BD8" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="BE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>3</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>6</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>7</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>8</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="2">
         <v>1</v>
       </c>
@@ -2071,7 +2401,7 @@
       <c r="Z9" s="2">
         <v>15</v>
       </c>
-      <c r="AA9" s="28">
+      <c r="AA9" s="23">
         <v>16</v>
       </c>
       <c r="AB9" s="2">
@@ -2161,2349 +2491,2469 @@
       <c r="BD9" s="2">
         <v>45</v>
       </c>
-      <c r="BE9" s="33"/>
-    </row>
-    <row r="10" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="54" t="s">
+      <c r="BE9" s="2">
+        <v>46</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>47</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>48</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>49</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>50</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>51</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>52</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>53</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" ht="19" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="36" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="14">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>5</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="AA10" s="24"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="51"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="51"/>
+    </row>
+    <row r="11" spans="1:65" ht="19" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="AA10" s="29"/>
-    </row>
-    <row r="11" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="AA11" s="29"/>
-    </row>
-    <row r="12" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="24"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="51"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="51"/>
+    </row>
+    <row r="12" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H12" s="6">
         <v>1</v>
       </c>
       <c r="I12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AA12" s="29"/>
-    </row>
-    <row r="13" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="10"/>
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="10"/>
+      <c r="BM12" s="10"/>
+    </row>
+    <row r="13" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6">
         <v>4</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
       <c r="J13" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="AA13" s="29"/>
-    </row>
-    <row r="14" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10"/>
+      <c r="BL13" s="10"/>
+      <c r="BM13" s="10"/>
+    </row>
+    <row r="14" spans="1:65" ht="19" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="20">
+        <v>5</v>
+      </c>
+      <c r="G14" s="20">
+        <v>2</v>
+      </c>
+      <c r="H14" s="20">
+        <v>5</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="AA14" s="24"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+    </row>
+    <row r="15" spans="1:65" ht="19" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="20">
+        <v>5</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
+        <v>5</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="AA15" s="24"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="51"/>
+      <c r="BL15" s="51"/>
+      <c r="BM15" s="51"/>
+    </row>
+    <row r="16" spans="1:65" ht="19" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="20">
+        <v>5</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>5</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="AA16" s="24"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="51"/>
+      <c r="BL16" s="51"/>
+      <c r="BM16" s="51"/>
+    </row>
+    <row r="17" spans="1:65" ht="19" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20">
+        <v>5</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="AA17" s="24"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+    </row>
+    <row r="18" spans="1:65" ht="19" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="20">
         <v>10</v>
       </c>
-      <c r="H14" s="6">
-        <v>4</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="AA14" s="29"/>
-    </row>
-    <row r="15" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="6">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20">
+        <v>10</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="AA18" s="24"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+    </row>
+    <row r="19" spans="1:65" ht="19" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="20">
+        <v>10</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20">
+        <v>10</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="AA19" s="24"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="51"/>
+      <c r="BK19" s="51"/>
+      <c r="BL19" s="51"/>
+      <c r="BM19" s="51"/>
+    </row>
+    <row r="20" spans="1:65" ht="19" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="20">
+        <v>11</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20">
+        <v>11</v>
+      </c>
+      <c r="I20" s="20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="AA20" s="24"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="51"/>
+      <c r="BL20" s="51"/>
+      <c r="BM20" s="51"/>
+    </row>
+    <row r="21" spans="1:65" ht="19" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="20">
+        <v>13</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="AA21" s="24"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
+      <c r="BI21" s="51"/>
+      <c r="BJ21" s="51"/>
+      <c r="BK21" s="51"/>
+      <c r="BL21" s="51"/>
+      <c r="BM21" s="51"/>
+    </row>
+    <row r="22" spans="1:65" ht="19" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="20">
+        <v>12</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20">
+        <v>12</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+      <c r="BM22" s="51"/>
+    </row>
+    <row r="23" spans="1:65" ht="19" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="20">
+        <v>14</v>
+      </c>
+      <c r="G23" s="20">
         <v>3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H23" s="20">
+        <v>12</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="51"/>
+      <c r="BL23" s="51"/>
+      <c r="BM23" s="51"/>
+    </row>
+    <row r="24" spans="1:65" ht="19" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="51"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BM24" s="51"/>
+    </row>
+    <row r="25" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="20">
+        <v>6</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20">
+        <v>6</v>
+      </c>
+      <c r="I25" s="20">
+        <v>1</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="22"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="22"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="22"/>
+      <c r="BL25" s="22"/>
+      <c r="BM25" s="22"/>
+    </row>
+    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="C26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="20">
+        <v>6</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20">
+        <v>6</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="BD26" s="22"/>
+      <c r="BE26" s="22"/>
+      <c r="BF26" s="22"/>
+      <c r="BG26" s="22"/>
+      <c r="BH26" s="22"/>
+      <c r="BI26" s="22"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="22"/>
+      <c r="BL26" s="22"/>
+      <c r="BM26" s="22"/>
+    </row>
+    <row r="27" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="C27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="20">
+        <v>10</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20">
+        <v>10</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="22"/>
+      <c r="BF27" s="22"/>
+      <c r="BG27" s="22"/>
+      <c r="BH27" s="22"/>
+      <c r="BI27" s="22"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="22"/>
+      <c r="BM27" s="22"/>
+    </row>
+    <row r="28" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="C28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="20">
+        <v>11</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+    </row>
+    <row r="29" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="C29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="20">
+        <v>12</v>
+      </c>
+      <c r="G29" s="20">
+        <v>2</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="22"/>
+    </row>
+    <row r="30" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="C30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="20">
+        <v>11</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="22"/>
+      <c r="BF30" s="22"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="22"/>
+      <c r="BJ30" s="22"/>
+      <c r="BK30" s="22"/>
+      <c r="BL30" s="22"/>
+      <c r="BM30" s="22"/>
+    </row>
+    <row r="31" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="C31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="20">
+        <v>11</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="22"/>
+      <c r="BF31" s="22"/>
+      <c r="BG31" s="22"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="22"/>
+      <c r="BL31" s="22"/>
+      <c r="BM31" s="22"/>
+    </row>
+    <row r="32" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="20">
+        <v>11</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2</v>
+      </c>
+      <c r="H32" s="20">
+        <v>11</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22"/>
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="22"/>
+      <c r="BI32" s="22"/>
+      <c r="BJ32" s="22"/>
+      <c r="BK32" s="22"/>
+      <c r="BL32" s="22"/>
+      <c r="BM32" s="22"/>
+    </row>
+    <row r="33" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="C33" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="20">
+        <v>13</v>
+      </c>
+      <c r="G33" s="20">
+        <v>2</v>
+      </c>
+      <c r="H33" s="20">
+        <v>13</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="BD33" s="22"/>
+      <c r="BE33" s="22"/>
+      <c r="BF33" s="22"/>
+      <c r="BG33" s="22"/>
+      <c r="BH33" s="22"/>
+      <c r="BI33" s="22"/>
+      <c r="BJ33" s="22"/>
+      <c r="BK33" s="22"/>
+      <c r="BL33" s="22"/>
+      <c r="BM33" s="22"/>
+    </row>
+    <row r="34" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="C34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="20">
+        <v>11</v>
+      </c>
+      <c r="G34" s="20">
+        <v>2</v>
+      </c>
+      <c r="H34" s="20">
+        <v>11</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21">
+        <v>0</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="BD34" s="22"/>
+      <c r="BE34" s="22"/>
+      <c r="BF34" s="22"/>
+      <c r="BG34" s="22"/>
+      <c r="BH34" s="22"/>
+      <c r="BI34" s="22"/>
+      <c r="BJ34" s="22"/>
+      <c r="BK34" s="22"/>
+      <c r="BL34" s="22"/>
+      <c r="BM34" s="22"/>
+    </row>
+    <row r="35" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="C35" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="20">
+        <v>13</v>
+      </c>
+      <c r="G35" s="20">
+        <v>1</v>
+      </c>
+      <c r="H35" s="20">
+        <v>13</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21">
+        <v>0</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="BD35" s="22"/>
+      <c r="BE35" s="22"/>
+      <c r="BF35" s="22"/>
+      <c r="BG35" s="22"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35" s="22"/>
+      <c r="BJ35" s="22"/>
+      <c r="BK35" s="22"/>
+      <c r="BL35" s="22"/>
+      <c r="BM35" s="22"/>
+    </row>
+    <row r="36" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="20">
+        <v>15</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1</v>
+      </c>
+      <c r="H36" s="20">
+        <v>15</v>
+      </c>
+      <c r="I36" s="20">
+        <v>1</v>
+      </c>
+      <c r="J36" s="21">
+        <v>1</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="BD36" s="22"/>
+      <c r="BE36" s="22"/>
+      <c r="BF36" s="22"/>
+      <c r="BG36" s="22"/>
+      <c r="BH36" s="22"/>
+      <c r="BI36" s="22"/>
+      <c r="BJ36" s="22"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="22"/>
+      <c r="BM36" s="22"/>
+    </row>
+    <row r="37" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="C37" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="20">
+        <v>15</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1</v>
+      </c>
+      <c r="H37" s="20">
+        <v>15</v>
+      </c>
+      <c r="I37" s="20">
+        <v>1</v>
+      </c>
+      <c r="J37" s="21">
+        <v>1</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="22"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="22"/>
+      <c r="BM37" s="22"/>
+    </row>
+    <row r="38" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="C38" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="20">
+        <v>15</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
+      <c r="H38" s="20">
+        <v>15</v>
+      </c>
+      <c r="I38" s="20">
+        <v>1</v>
+      </c>
+      <c r="J38" s="21">
+        <v>1</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="22"/>
+      <c r="BF38" s="22"/>
+      <c r="BG38" s="22"/>
+      <c r="BH38" s="22"/>
+      <c r="BI38" s="22"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="22"/>
+      <c r="BL38" s="22"/>
+      <c r="BM38" s="22"/>
+    </row>
+    <row r="39" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="C39" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="20">
+        <v>15</v>
+      </c>
+      <c r="G39" s="20">
+        <v>2</v>
+      </c>
+      <c r="H39" s="20">
+        <v>15</v>
+      </c>
+      <c r="I39" s="20">
+        <v>2</v>
+      </c>
+      <c r="J39" s="21">
+        <v>1</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="22"/>
+      <c r="BF39" s="22"/>
+      <c r="BG39" s="22"/>
+      <c r="BH39" s="22"/>
+      <c r="BI39" s="22"/>
+      <c r="BJ39" s="22"/>
+      <c r="BK39" s="22"/>
+      <c r="BL39" s="22"/>
+      <c r="BM39" s="22"/>
+    </row>
+    <row r="40" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="C40" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="20">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20">
+        <v>1</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21">
+        <v>0</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="BD40" s="22"/>
+      <c r="BE40" s="22"/>
+      <c r="BF40" s="22"/>
+      <c r="BG40" s="22"/>
+      <c r="BH40" s="22"/>
+      <c r="BI40" s="22"/>
+      <c r="BJ40" s="22"/>
+      <c r="BK40" s="22"/>
+      <c r="BL40" s="22"/>
+      <c r="BM40" s="22"/>
+    </row>
+    <row r="41" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="C41" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20">
+        <v>2</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21">
+        <v>0</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="BD41" s="22"/>
+      <c r="BE41" s="22"/>
+      <c r="BF41" s="22"/>
+      <c r="BG41" s="22"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41" s="22"/>
+      <c r="BJ41" s="22"/>
+      <c r="BK41" s="22"/>
+      <c r="BL41" s="22"/>
+      <c r="BM41" s="22"/>
+    </row>
+    <row r="42" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="C42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="20">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20">
+        <v>3</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21">
+        <v>0</v>
+      </c>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="BD42" s="22"/>
+      <c r="BE42" s="22"/>
+      <c r="BF42" s="22"/>
+      <c r="BG42" s="22"/>
+      <c r="BH42" s="22"/>
+      <c r="BI42" s="22"/>
+      <c r="BJ42" s="22"/>
+      <c r="BK42" s="22"/>
+      <c r="BL42" s="22"/>
+      <c r="BM42" s="22"/>
+    </row>
+    <row r="43" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A43" s="17"/>
+      <c r="C43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="20">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20">
+        <v>1</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21">
+        <v>0</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="BD43" s="22"/>
+      <c r="BE43" s="22"/>
+      <c r="BF43" s="22"/>
+      <c r="BG43" s="22"/>
+      <c r="BH43" s="22"/>
+      <c r="BI43" s="22"/>
+      <c r="BJ43" s="22"/>
+      <c r="BK43" s="22"/>
+      <c r="BL43" s="22"/>
+      <c r="BM43" s="22"/>
+    </row>
+    <row r="44" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="C44" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="20">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20">
+        <v>3</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21">
+        <v>0</v>
+      </c>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="22"/>
+      <c r="BD44" s="22"/>
+      <c r="BE44" s="22"/>
+      <c r="BF44" s="22"/>
+      <c r="BG44" s="22"/>
+      <c r="BH44" s="22"/>
+      <c r="BI44" s="22"/>
+      <c r="BJ44" s="22"/>
+      <c r="BK44" s="22"/>
+      <c r="BL44" s="22"/>
+      <c r="BM44" s="22"/>
+    </row>
+    <row r="45" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A45" s="17"/>
+      <c r="C45" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="20">
+        <v>15</v>
+      </c>
+      <c r="G45" s="20">
+        <v>2</v>
+      </c>
+      <c r="H45" s="20">
+        <v>15</v>
+      </c>
+      <c r="I45" s="20">
+        <v>2</v>
+      </c>
+      <c r="J45" s="21">
+        <v>1</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="BD45" s="22"/>
+      <c r="BE45" s="22"/>
+      <c r="BF45" s="22"/>
+      <c r="BG45" s="22"/>
+      <c r="BH45" s="22"/>
+      <c r="BI45" s="22"/>
+      <c r="BJ45" s="22"/>
+      <c r="BK45" s="22"/>
+      <c r="BL45" s="22"/>
+      <c r="BM45" s="22"/>
+    </row>
+    <row r="46" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A46" s="17"/>
+      <c r="C46" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="20">
         <v>14</v>
       </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="29"/>
-    </row>
-    <row r="16" spans="1:57" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="6">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="G46" s="20">
         <v>3</v>
       </c>
-      <c r="H16" s="6">
-        <v>15</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="H46" s="20">
+        <v>14</v>
+      </c>
+      <c r="I46" s="20">
+        <v>3</v>
+      </c>
+      <c r="J46" s="21">
+        <v>1</v>
+      </c>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="BD46" s="22"/>
+      <c r="BE46" s="22"/>
+      <c r="BF46" s="22"/>
+      <c r="BG46" s="22"/>
+      <c r="BH46" s="22"/>
+      <c r="BI46" s="22"/>
+      <c r="BJ46" s="22"/>
+      <c r="BK46" s="22"/>
+      <c r="BL46" s="22"/>
+      <c r="BM46" s="22"/>
+    </row>
+    <row r="47" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A47" s="17"/>
+      <c r="C47" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20">
         <v>2</v>
       </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="29"/>
-    </row>
-    <row r="17" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="6">
-        <v>13</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21">
+        <v>0</v>
+      </c>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22"/>
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22"/>
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+    </row>
+    <row r="48" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A48" s="17"/>
+      <c r="C48" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="20">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20">
         <v>3</v>
       </c>
-      <c r="H17" s="6">
-        <v>15</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="29"/>
-    </row>
-    <row r="18" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11">
-        <v>4</v>
-      </c>
-      <c r="I18" s="11">
-        <v>2</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="AA18" s="29"/>
-    </row>
-    <row r="19" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>3</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="29"/>
-    </row>
-    <row r="20" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6">
-        <v>3</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2</v>
-      </c>
-      <c r="H20" s="6">
-        <v>3</v>
-      </c>
-      <c r="I20" s="6">
-        <v>2</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="29"/>
-    </row>
-    <row r="21" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="6">
-        <v>3</v>
-      </c>
-      <c r="G21" s="6">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6">
-        <v>3</v>
-      </c>
-      <c r="I21" s="6">
-        <v>2</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="29"/>
-    </row>
-    <row r="22" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>11</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="29"/>
-    </row>
-    <row r="23" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="6">
-        <v>3</v>
-      </c>
-      <c r="G23" s="6">
-        <v>2</v>
-      </c>
-      <c r="H23" s="6">
-        <v>3</v>
-      </c>
-      <c r="I23" s="6">
-        <v>2</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-    </row>
-    <row r="24" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>11</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="29"/>
-    </row>
-    <row r="25" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19">
-        <v>5</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="20">
-        <v>1</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="AA25" s="29"/>
-    </row>
-    <row r="26" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>3</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="29"/>
-    </row>
-    <row r="27" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>3</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-    </row>
-    <row r="28" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="6">
-        <v>4</v>
-      </c>
-      <c r="G28" s="6">
-        <v>2</v>
-      </c>
-      <c r="H28" s="6">
-        <v>4</v>
-      </c>
-      <c r="I28" s="6">
-        <v>2</v>
-      </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-    </row>
-    <row r="29" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="11">
-        <v>5</v>
-      </c>
-      <c r="G29" s="11">
-        <v>2</v>
-      </c>
-      <c r="H29" s="11">
-        <v>5</v>
-      </c>
-      <c r="I29" s="11">
-        <v>2</v>
-      </c>
-      <c r="J29" s="12">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="AA29" s="29"/>
-    </row>
-    <row r="30" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="25">
-        <v>5</v>
-      </c>
-      <c r="G30" s="25">
-        <v>1</v>
-      </c>
-      <c r="H30" s="25">
-        <v>5</v>
-      </c>
-      <c r="I30" s="25">
-        <v>1</v>
-      </c>
-      <c r="J30" s="26">
-        <v>1</v>
-      </c>
-      <c r="K30" s="27"/>
-      <c r="AA30" s="29"/>
-    </row>
-    <row r="31" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="25">
-        <v>5</v>
-      </c>
-      <c r="G31" s="25">
-        <v>1</v>
-      </c>
-      <c r="H31" s="25">
-        <v>5</v>
-      </c>
-      <c r="I31" s="25">
-        <v>1</v>
-      </c>
-      <c r="J31" s="26">
-        <v>1</v>
-      </c>
-      <c r="K31" s="27"/>
-      <c r="AA31" s="29"/>
-    </row>
-    <row r="32" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="25">
-        <v>5</v>
-      </c>
-      <c r="G32" s="25">
-        <v>1</v>
-      </c>
-      <c r="H32" s="25">
-        <v>5</v>
-      </c>
-      <c r="I32" s="25">
-        <v>1</v>
-      </c>
-      <c r="J32" s="26">
-        <v>1</v>
-      </c>
-      <c r="K32" s="27"/>
-      <c r="AA32" s="29"/>
-    </row>
-    <row r="33" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="19">
-        <v>10</v>
-      </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="19">
-        <v>10</v>
-      </c>
-      <c r="I33" s="19">
-        <v>1</v>
-      </c>
-      <c r="J33" s="20">
-        <v>1</v>
-      </c>
-      <c r="K33" s="21"/>
-      <c r="AA33" s="29"/>
-    </row>
-    <row r="34" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="25">
-        <v>10</v>
-      </c>
-      <c r="G34" s="25">
-        <v>1</v>
-      </c>
-      <c r="H34" s="25">
-        <v>10</v>
-      </c>
-      <c r="I34" s="25">
-        <v>1</v>
-      </c>
-      <c r="J34" s="26">
-        <v>1</v>
-      </c>
-      <c r="K34" s="27"/>
-      <c r="AA34" s="29"/>
-    </row>
-    <row r="35" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="25">
-        <v>11</v>
-      </c>
-      <c r="G35" s="25">
-        <v>1</v>
-      </c>
-      <c r="H35" s="25">
-        <v>11</v>
-      </c>
-      <c r="I35" s="25">
-        <v>1</v>
-      </c>
-      <c r="J35" s="26">
-        <v>1</v>
-      </c>
-      <c r="K35" s="27"/>
-      <c r="AA35" s="29"/>
-    </row>
-    <row r="36" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="25">
-        <v>13</v>
-      </c>
-      <c r="G36" s="25">
-        <v>1</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26">
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21">
         <v>0</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="AA36" s="29"/>
-    </row>
-    <row r="37" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="25">
-        <v>12</v>
-      </c>
-      <c r="G37" s="25">
-        <v>1</v>
-      </c>
-      <c r="H37" s="25">
-        <v>12</v>
-      </c>
-      <c r="I37" s="25">
-        <v>1</v>
-      </c>
-      <c r="J37" s="26">
-        <v>1</v>
-      </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-    </row>
-    <row r="38" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="25">
-        <v>14</v>
-      </c>
-      <c r="G38" s="25">
-        <v>3</v>
-      </c>
-      <c r="H38" s="25">
-        <v>12</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26">
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="BD48" s="22"/>
+      <c r="BE48" s="22"/>
+      <c r="BF48" s="22"/>
+      <c r="BG48" s="22"/>
+      <c r="BH48" s="22"/>
+      <c r="BI48" s="22"/>
+      <c r="BJ48" s="22"/>
+      <c r="BK48" s="22"/>
+      <c r="BL48" s="22"/>
+      <c r="BM48" s="22"/>
+    </row>
+    <row r="49" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A49" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="20">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20">
+        <v>1</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21">
         <v>0</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-    </row>
-    <row r="39" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="25">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26">
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="22"/>
+      <c r="BF49" s="22"/>
+      <c r="BG49" s="22"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="22"/>
+      <c r="BJ49" s="22"/>
+      <c r="BK49" s="22"/>
+      <c r="BL49" s="22"/>
+      <c r="BM49" s="22"/>
+    </row>
+    <row r="50" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A50" s="17"/>
+      <c r="C50" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="20">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20">
+        <v>1</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21">
         <v>0</v>
       </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="55"/>
-      <c r="AE39" s="55"/>
-    </row>
-    <row r="40" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="19">
-        <v>6</v>
-      </c>
-      <c r="G40" s="19">
-        <v>1</v>
-      </c>
-      <c r="H40" s="19">
-        <v>6</v>
-      </c>
-      <c r="I40" s="19">
-        <v>1</v>
-      </c>
-      <c r="J40" s="20">
-        <v>1</v>
-      </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-    </row>
-    <row r="41" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="C41" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="25">
-        <v>6</v>
-      </c>
-      <c r="G41" s="25">
-        <v>1</v>
-      </c>
-      <c r="H41" s="25">
-        <v>6</v>
-      </c>
-      <c r="I41" s="25">
-        <v>1</v>
-      </c>
-      <c r="J41" s="26">
-        <v>1</v>
-      </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-    </row>
-    <row r="42" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="C42" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="25">
-        <v>10</v>
-      </c>
-      <c r="G42" s="25">
-        <v>1</v>
-      </c>
-      <c r="H42" s="25">
-        <v>10</v>
-      </c>
-      <c r="I42" s="25">
-        <v>1</v>
-      </c>
-      <c r="J42" s="26">
-        <v>1</v>
-      </c>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-    </row>
-    <row r="43" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="C43" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="25">
-        <v>11</v>
-      </c>
-      <c r="G43" s="25">
-        <v>1</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26">
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="BD50" s="22"/>
+      <c r="BE50" s="22"/>
+      <c r="BF50" s="22"/>
+      <c r="BG50" s="22"/>
+      <c r="BH50" s="22"/>
+      <c r="BI50" s="22"/>
+      <c r="BJ50" s="22"/>
+      <c r="BK50" s="22"/>
+      <c r="BL50" s="22"/>
+      <c r="BM50" s="22"/>
+    </row>
+    <row r="51" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A51" s="17"/>
+      <c r="C51" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="20">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21">
         <v>0</v>
       </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-    </row>
-    <row r="44" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="C44" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="25">
-        <v>12</v>
-      </c>
-      <c r="G44" s="25">
-        <v>2</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26">
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="BD51" s="22"/>
+      <c r="BE51" s="22"/>
+      <c r="BF51" s="22"/>
+      <c r="BG51" s="22"/>
+      <c r="BH51" s="22"/>
+      <c r="BI51" s="22"/>
+      <c r="BJ51" s="22"/>
+      <c r="BK51" s="22"/>
+      <c r="BL51" s="22"/>
+      <c r="BM51" s="22"/>
+    </row>
+    <row r="52" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A52" s="17"/>
+      <c r="C52" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="20">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20">
+        <v>1</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21">
         <v>0</v>
       </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-    </row>
-    <row r="45" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="C45" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="25">
-        <v>11</v>
-      </c>
-      <c r="G45" s="25">
-        <v>1</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26">
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="BD52" s="22"/>
+      <c r="BE52" s="22"/>
+      <c r="BF52" s="22"/>
+      <c r="BG52" s="22"/>
+      <c r="BH52" s="22"/>
+      <c r="BI52" s="22"/>
+      <c r="BJ52" s="22"/>
+      <c r="BK52" s="22"/>
+      <c r="BL52" s="22"/>
+      <c r="BM52" s="22"/>
+    </row>
+    <row r="53" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A53" s="17"/>
+      <c r="C53" s="19"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="20">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <v>1</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21">
         <v>0</v>
       </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-    </row>
-    <row r="46" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="C46" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="25">
-        <v>11</v>
-      </c>
-      <c r="G46" s="25">
-        <v>1</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26">
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="BD53" s="22"/>
+      <c r="BE53" s="22"/>
+      <c r="BF53" s="22"/>
+      <c r="BG53" s="22"/>
+      <c r="BH53" s="22"/>
+      <c r="BI53" s="22"/>
+      <c r="BJ53" s="22"/>
+      <c r="BK53" s="22"/>
+      <c r="BL53" s="22"/>
+      <c r="BM53" s="22"/>
+    </row>
+    <row r="54" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A54" s="17"/>
+      <c r="C54" s="19"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="20">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21">
         <v>0</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-    </row>
-    <row r="47" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="19">
-        <v>11</v>
-      </c>
-      <c r="G47" s="19">
-        <v>2</v>
-      </c>
-      <c r="H47" s="19">
-        <v>11</v>
-      </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-    </row>
-    <row r="48" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="C48" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="25">
-        <v>13</v>
-      </c>
-      <c r="G48" s="25">
-        <v>2</v>
-      </c>
-      <c r="H48" s="25">
-        <v>13</v>
-      </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26">
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
+      <c r="AE54" s="22"/>
+      <c r="BD54" s="22"/>
+      <c r="BE54" s="22"/>
+      <c r="BF54" s="22"/>
+      <c r="BG54" s="22"/>
+      <c r="BH54" s="22"/>
+      <c r="BI54" s="22"/>
+      <c r="BJ54" s="22"/>
+      <c r="BK54" s="22"/>
+      <c r="BL54" s="22"/>
+      <c r="BM54" s="22"/>
+    </row>
+    <row r="55" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A55" s="17"/>
+      <c r="C55" s="19"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="20">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20">
+        <v>1</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21">
         <v>0</v>
       </c>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
-    </row>
-    <row r="49" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="C49" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="25">
-        <v>11</v>
-      </c>
-      <c r="G49" s="25">
-        <v>2</v>
-      </c>
-      <c r="H49" s="25">
-        <v>11</v>
-      </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26">
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22"/>
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="22"/>
+      <c r="BL55" s="22"/>
+      <c r="BM55" s="22"/>
+    </row>
+    <row r="56" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A56" s="17"/>
+      <c r="C56" s="19"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="20">
+        <v>1</v>
+      </c>
+      <c r="G56" s="20">
+        <v>1</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21">
         <v>0</v>
       </c>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-    </row>
-    <row r="50" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="C50" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="25">
-        <v>13</v>
-      </c>
-      <c r="G50" s="25">
-        <v>1</v>
-      </c>
-      <c r="H50" s="25">
-        <v>13</v>
-      </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26">
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="BD56" s="22"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="22"/>
+      <c r="BG56" s="22"/>
+      <c r="BH56" s="22"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="22"/>
+      <c r="BK56" s="22"/>
+      <c r="BL56" s="22"/>
+      <c r="BM56" s="22"/>
+    </row>
+    <row r="57" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A57" s="17"/>
+      <c r="C57" s="19"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="20">
+        <v>1</v>
+      </c>
+      <c r="G57" s="20">
+        <v>1</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21">
         <v>0</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-    </row>
-    <row r="51" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="19">
-        <v>15</v>
-      </c>
-      <c r="G51" s="19">
-        <v>1</v>
-      </c>
-      <c r="H51" s="19">
-        <v>15</v>
-      </c>
-      <c r="I51" s="19">
-        <v>1</v>
-      </c>
-      <c r="J51" s="20">
-        <v>1</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-    </row>
-    <row r="52" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="C52" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="25">
-        <v>15</v>
-      </c>
-      <c r="G52" s="25">
-        <v>1</v>
-      </c>
-      <c r="H52" s="25">
-        <v>15</v>
-      </c>
-      <c r="I52" s="25">
-        <v>1</v>
-      </c>
-      <c r="J52" s="26">
-        <v>1</v>
-      </c>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-    </row>
-    <row r="53" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="C53" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="25">
-        <v>15</v>
-      </c>
-      <c r="G53" s="25">
-        <v>1</v>
-      </c>
-      <c r="H53" s="25">
-        <v>15</v>
-      </c>
-      <c r="I53" s="25">
-        <v>1</v>
-      </c>
-      <c r="J53" s="26">
-        <v>1</v>
-      </c>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-    </row>
-    <row r="54" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="C54" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="25">
-        <v>15</v>
-      </c>
-      <c r="G54" s="25">
-        <v>2</v>
-      </c>
-      <c r="H54" s="25">
-        <v>15</v>
-      </c>
-      <c r="I54" s="25">
-        <v>2</v>
-      </c>
-      <c r="J54" s="26">
-        <v>1</v>
-      </c>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-    </row>
-    <row r="55" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="C55" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="25">
-        <v>1</v>
-      </c>
-      <c r="G55" s="25">
-        <v>1</v>
-      </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26">
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="BD57" s="22"/>
+      <c r="BE57" s="22"/>
+      <c r="BF57" s="22"/>
+      <c r="BG57" s="22"/>
+      <c r="BH57" s="22"/>
+      <c r="BI57" s="22"/>
+      <c r="BJ57" s="22"/>
+      <c r="BK57" s="22"/>
+      <c r="BL57" s="22"/>
+      <c r="BM57" s="22"/>
+    </row>
+    <row r="58" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="C58" s="19"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="20">
+        <v>1</v>
+      </c>
+      <c r="G58" s="20">
+        <v>1</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21">
         <v>0</v>
       </c>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
-    </row>
-    <row r="56" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="C56" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="25">
-        <v>1</v>
-      </c>
-      <c r="G56" s="25">
-        <v>2</v>
-      </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26">
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="BD58" s="22"/>
+      <c r="BE58" s="22"/>
+      <c r="BF58" s="22"/>
+      <c r="BG58" s="22"/>
+      <c r="BH58" s="22"/>
+      <c r="BI58" s="22"/>
+      <c r="BJ58" s="22"/>
+      <c r="BK58" s="22"/>
+      <c r="BL58" s="22"/>
+      <c r="BM58" s="22"/>
+    </row>
+    <row r="59" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="C59" s="19"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="20">
+        <v>1</v>
+      </c>
+      <c r="G59" s="20">
+        <v>1</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21">
         <v>0</v>
       </c>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-    </row>
-    <row r="57" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="C57" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="25">
-        <v>1</v>
-      </c>
-      <c r="G57" s="25">
-        <v>3</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26">
-        <v>0</v>
-      </c>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
-    </row>
-    <row r="58" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="C58" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="25">
-        <v>1</v>
-      </c>
-      <c r="G58" s="25">
-        <v>1</v>
-      </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26">
-        <v>0</v>
-      </c>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-    </row>
-    <row r="59" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="C59" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="25">
-        <v>1</v>
-      </c>
-      <c r="G59" s="25">
-        <v>3</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26">
-        <v>0</v>
-      </c>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27"/>
-    </row>
-    <row r="60" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="C60" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="25">
-        <v>15</v>
-      </c>
-      <c r="G60" s="25">
-        <v>2</v>
-      </c>
-      <c r="H60" s="25">
-        <v>15</v>
-      </c>
-      <c r="I60" s="25">
-        <v>2</v>
-      </c>
-      <c r="J60" s="26">
-        <v>1</v>
-      </c>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="27"/>
-    </row>
-    <row r="61" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="C61" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="25">
-        <v>14</v>
-      </c>
-      <c r="G61" s="25">
-        <v>3</v>
-      </c>
-      <c r="H61" s="25">
-        <v>14</v>
-      </c>
-      <c r="I61" s="25">
-        <v>3</v>
-      </c>
-      <c r="J61" s="26">
-        <v>1</v>
-      </c>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="31"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="27"/>
-    </row>
-    <row r="62" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="C62" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="25">
-        <v>1</v>
-      </c>
-      <c r="G62" s="25">
-        <v>2</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26">
-        <v>0</v>
-      </c>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="31"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="27"/>
-    </row>
-    <row r="63" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="C63" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="38"/>
-      <c r="F63" s="25">
-        <v>1</v>
-      </c>
-      <c r="G63" s="25">
-        <v>3</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26">
-        <v>0</v>
-      </c>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="27"/>
-    </row>
-    <row r="64" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="19">
-        <v>1</v>
-      </c>
-      <c r="G64" s="19">
-        <v>1</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20">
-        <v>0</v>
-      </c>
-      <c r="K64" s="21"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="31"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="27"/>
-    </row>
-    <row r="65" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="C65" s="24"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="25">
-        <v>1</v>
-      </c>
-      <c r="G65" s="25">
-        <v>1</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26">
-        <v>0</v>
-      </c>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-    </row>
-    <row r="66" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="C66" s="24"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="25">
-        <v>1</v>
-      </c>
-      <c r="G66" s="25">
-        <v>1</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26">
-        <v>0</v>
-      </c>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="27"/>
-    </row>
-    <row r="67" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="C67" s="24"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="25">
-        <v>1</v>
-      </c>
-      <c r="G67" s="25">
-        <v>1</v>
-      </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26">
-        <v>0</v>
-      </c>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="31"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="27"/>
-    </row>
-    <row r="68" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="C68" s="24"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="25">
-        <v>1</v>
-      </c>
-      <c r="G68" s="25">
-        <v>1</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26">
-        <v>0</v>
-      </c>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="31"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="27"/>
-      <c r="AE68" s="27"/>
-    </row>
-    <row r="69" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="C69" s="24"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="25">
-        <v>1</v>
-      </c>
-      <c r="G69" s="25">
-        <v>1</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26">
-        <v>0</v>
-      </c>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="27"/>
-    </row>
-    <row r="70" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="C70" s="24"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="25">
-        <v>1</v>
-      </c>
-      <c r="G70" s="25">
-        <v>1</v>
-      </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26">
-        <v>0</v>
-      </c>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="31"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="27"/>
-      <c r="AE70" s="27"/>
-    </row>
-    <row r="71" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="C71" s="24"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="25">
-        <v>1</v>
-      </c>
-      <c r="G71" s="25">
-        <v>1</v>
-      </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="26">
-        <v>0</v>
-      </c>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="31"/>
-      <c r="AB71" s="27"/>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="27"/>
-      <c r="AE71" s="27"/>
-    </row>
-    <row r="72" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="C72" s="24"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="25">
-        <v>1</v>
-      </c>
-      <c r="G72" s="25">
-        <v>1</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26">
-        <v>0</v>
-      </c>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="31"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="27"/>
-      <c r="AE72" s="27"/>
-    </row>
-    <row r="73" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="C73" s="24"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="25">
-        <v>1</v>
-      </c>
-      <c r="G73" s="25">
-        <v>1</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26">
-        <v>0</v>
-      </c>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="31"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="27"/>
-      <c r="AE73" s="27"/>
-    </row>
-    <row r="74" spans="1:31" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="C74" s="24"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="25">
-        <v>1</v>
-      </c>
-      <c r="G74" s="25">
-        <v>1</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="26">
-        <v>0</v>
-      </c>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="31"/>
-      <c r="AB74" s="27"/>
-      <c r="AC74" s="27"/>
-      <c r="AD74" s="27"/>
-      <c r="AE74" s="27"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="BD59" s="22"/>
+      <c r="BE59" s="22"/>
+      <c r="BF59" s="22"/>
+      <c r="BG59" s="22"/>
+      <c r="BH59" s="22"/>
+      <c r="BI59" s="22"/>
+      <c r="BJ59" s="22"/>
+      <c r="BK59" s="22"/>
+      <c r="BL59" s="22"/>
+      <c r="BM59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="AA4:AD4"/>
@@ -4516,39 +4966,39 @@
     <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="L10:BD74">
-    <cfRule type="expression" dxfId="9" priority="50">
+  <conditionalFormatting sqref="L10:BL23 L25:BL59 L24:BK24 BM10:BM59">
+    <cfRule type="expression" dxfId="19" priority="50">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="52">
+    <cfRule type="expression" dxfId="18" priority="52">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="53">
+    <cfRule type="expression" dxfId="17" priority="53">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="16" priority="54">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="55">
+    <cfRule type="expression" dxfId="15" priority="55">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="56">
+    <cfRule type="expression" dxfId="14" priority="56">
       <formula>L$9=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="13" priority="60">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="12" priority="61">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:Z9 AB9:BD9">
-    <cfRule type="expression" dxfId="1" priority="57">
+  <conditionalFormatting sqref="L9:Z9 AB9:BM9">
+    <cfRule type="expression" dxfId="11" priority="57">
       <formula>L$9=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>AA$9=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4566,23 +5016,1999 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:BM45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="51" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="51" customWidth="1"/>
+    <col min="12" max="16" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="51" customWidth="1"/>
+    <col min="18" max="27" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="2.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:65" ht="19" customHeight="1">
+      <c r="C2" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="L2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="49">
+        <f ca="1">DAYS360(P4 - 1,today) + 1</f>
+        <v>25</v>
+      </c>
+      <c r="R2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="27" customHeight="1">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:65" ht="18.75" customHeight="1">
+      <c r="C4" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="L4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="55">
+        <v>42660</v>
+      </c>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="1"/>
+      <c r="AA4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="55">
+        <v>42688</v>
+      </c>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AN4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" s="52">
+        <f ca="1">TODAY()</f>
+        <v>42684</v>
+      </c>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+    </row>
+    <row r="5" spans="1:65">
+      <c r="G5" s="1"/>
+      <c r="L5" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55">
+        <v>42675</v>
+      </c>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="AA5" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="55">
+        <v>42712</v>
+      </c>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="G6" s="1"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+    </row>
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="13.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="2">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18</v>
+      </c>
+      <c r="N8" s="2">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>22</v>
+      </c>
+      <c r="R8" s="2">
+        <v>23</v>
+      </c>
+      <c r="S8" s="2">
+        <v>24</v>
+      </c>
+      <c r="T8" s="2">
+        <v>25</v>
+      </c>
+      <c r="U8" s="2">
+        <v>26</v>
+      </c>
+      <c r="V8" s="2">
+        <v>27</v>
+      </c>
+      <c r="W8" s="2">
+        <v>28</v>
+      </c>
+      <c r="X8" s="2">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>11</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>16</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>17</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>19</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>21</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>22</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>23</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>24</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>25</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>26</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>27</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>28</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>29</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>30</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>3</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>6</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>7</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>8</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2">
+        <v>7</v>
+      </c>
+      <c r="S9" s="2">
+        <v>8</v>
+      </c>
+      <c r="T9" s="2">
+        <v>9</v>
+      </c>
+      <c r="U9" s="2">
+        <v>10</v>
+      </c>
+      <c r="V9" s="2">
+        <v>11</v>
+      </c>
+      <c r="W9" s="2">
+        <v>12</v>
+      </c>
+      <c r="X9" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="23">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>22</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>23</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>24</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>25</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>26</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>27</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>28</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>29</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>31</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>32</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>33</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>35</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>36</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>37</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>38</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>39</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>40</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>41</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>42</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>43</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>44</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>45</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>46</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>47</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>48</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>49</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>50</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>51</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>52</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>53</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" ht="19" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="AA10" s="24"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="51"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="51"/>
+    </row>
+    <row r="11" spans="1:65" ht="18.75" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="AA11" s="24"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="51"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="51"/>
+    </row>
+    <row r="12" spans="1:65" ht="19" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>15</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="AA12" s="24"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+    </row>
+    <row r="13" spans="1:65" ht="19" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>10</v>
+      </c>
+      <c r="H13" s="20">
+        <v>4</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="AA13" s="24"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
+    </row>
+    <row r="14" spans="1:65" ht="19" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>10</v>
+      </c>
+      <c r="H14" s="20">
+        <v>4</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="AA14" s="24"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+    </row>
+    <row r="15" spans="1:65" ht="19" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="20">
+        <v>9</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="20">
+        <v>14</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="AA15" s="24"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="51"/>
+      <c r="BL15" s="51"/>
+      <c r="BM15" s="51"/>
+    </row>
+    <row r="16" spans="1:65" ht="19" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="20">
+        <v>11</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20">
+        <v>15</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="AA16" s="24"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="51"/>
+      <c r="BL16" s="51"/>
+      <c r="BM16" s="51"/>
+    </row>
+    <row r="17" spans="1:65" ht="19" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="20">
+        <v>13</v>
+      </c>
+      <c r="G17" s="20">
+        <v>3</v>
+      </c>
+      <c r="H17" s="20">
+        <v>15</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="AA17" s="24"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+    </row>
+    <row r="18" spans="1:65" ht="19" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="20">
+        <v>4</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20">
+        <v>4</v>
+      </c>
+      <c r="I18" s="20">
+        <v>2</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="AA18" s="24"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+    </row>
+    <row r="19" spans="1:65" ht="19" customHeight="1">
+      <c r="A19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="20">
+        <v>3</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20">
+        <v>3</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="AA19" s="24"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="51"/>
+      <c r="BK19" s="51"/>
+      <c r="BL19" s="51"/>
+      <c r="BM19" s="51"/>
+    </row>
+    <row r="20" spans="1:65" ht="19" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="AA20" s="24"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="51"/>
+      <c r="BL20" s="51"/>
+      <c r="BM20" s="51"/>
+    </row>
+    <row r="21" spans="1:65" ht="19" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="20">
+        <v>3</v>
+      </c>
+      <c r="G21" s="20">
+        <v>2</v>
+      </c>
+      <c r="H21" s="20">
+        <v>3</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="AA21" s="24"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
+      <c r="BI21" s="51"/>
+      <c r="BJ21" s="51"/>
+      <c r="BK21" s="51"/>
+      <c r="BL21" s="51"/>
+      <c r="BM21" s="51"/>
+    </row>
+    <row r="22" spans="1:65" ht="19" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="20">
+        <v>10</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20">
+        <v>11</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="AA22" s="24"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+      <c r="BM22" s="51"/>
+    </row>
+    <row r="23" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="20">
+        <v>3</v>
+      </c>
+      <c r="G23" s="20">
+        <v>2</v>
+      </c>
+      <c r="H23" s="20">
+        <v>3</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1</v>
+      </c>
+      <c r="K23" s="60"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10"/>
+      <c r="BL23" s="10"/>
+      <c r="BM23" s="10"/>
+    </row>
+    <row r="24" spans="1:65" ht="19" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="20">
+        <v>10</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20">
+        <v>11</v>
+      </c>
+      <c r="I24" s="20">
+        <v>1</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="AA24" s="24"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="51"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+      <c r="BM24" s="51"/>
+    </row>
+    <row r="25" spans="1:65">
+      <c r="A25" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="AA25" s="24"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+      <c r="BM25" s="51"/>
+    </row>
+    <row r="26" spans="1:65">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="20">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="AA26" s="24"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+      <c r="BM26" s="51"/>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="AA27" s="24"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="51"/>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="51"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27" s="51"/>
+      <c r="BM27" s="51"/>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="AA28" s="24"/>
+      <c r="BD28" s="51"/>
+      <c r="BE28" s="51"/>
+      <c r="BF28" s="51"/>
+      <c r="BG28" s="51"/>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="51"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="51"/>
+      <c r="BL28" s="51"/>
+      <c r="BM28" s="51"/>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="AA29" s="24"/>
+      <c r="BD29" s="51"/>
+      <c r="BE29" s="51"/>
+      <c r="BF29" s="51"/>
+      <c r="BG29" s="51"/>
+      <c r="BH29" s="51"/>
+      <c r="BI29" s="51"/>
+      <c r="BJ29" s="51"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+      <c r="BM29" s="51"/>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="A30" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="AA30" s="24"/>
+      <c r="BD30" s="51"/>
+      <c r="BE30" s="51"/>
+      <c r="BF30" s="51"/>
+      <c r="BG30" s="51"/>
+      <c r="BH30" s="51"/>
+      <c r="BI30" s="51"/>
+      <c r="BJ30" s="51"/>
+      <c r="BK30" s="51"/>
+      <c r="BL30" s="51"/>
+      <c r="BM30" s="51"/>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="AA31" s="24"/>
+      <c r="BD31" s="51"/>
+      <c r="BE31" s="51"/>
+      <c r="BF31" s="51"/>
+      <c r="BG31" s="51"/>
+      <c r="BH31" s="51"/>
+      <c r="BI31" s="51"/>
+      <c r="BJ31" s="51"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
+    </row>
+    <row r="32" spans="1:65">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="20">
+        <v>1</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21">
+        <v>0</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="AA32" s="24"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="51"/>
+      <c r="BH32" s="51"/>
+      <c r="BI32" s="51"/>
+      <c r="BJ32" s="51"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+      <c r="BM32" s="51"/>
+    </row>
+    <row r="33" spans="1:65">
+      <c r="A33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="AA33" s="24"/>
+      <c r="BD33" s="51"/>
+      <c r="BE33" s="51"/>
+      <c r="BF33" s="51"/>
+      <c r="BG33" s="51"/>
+      <c r="BH33" s="51"/>
+      <c r="BI33" s="51"/>
+      <c r="BJ33" s="51"/>
+      <c r="BK33" s="51"/>
+      <c r="BL33" s="51"/>
+      <c r="BM33" s="51"/>
+    </row>
+    <row r="34" spans="1:65">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+      <c r="AA34" s="24"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="51"/>
+      <c r="BG34" s="51"/>
+      <c r="BH34" s="51"/>
+      <c r="BI34" s="51"/>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51"/>
+    </row>
+    <row r="35" spans="1:65">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="20">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21">
+        <v>0</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="AA35" s="24"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+      <c r="BI35" s="51"/>
+      <c r="BJ35" s="51"/>
+      <c r="BK35" s="51"/>
+      <c r="BL35" s="51"/>
+      <c r="BM35" s="51"/>
+    </row>
+    <row r="36" spans="1:65">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="20">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21">
+        <v>0</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="AA36" s="24"/>
+      <c r="BD36" s="51"/>
+      <c r="BE36" s="51"/>
+      <c r="BF36" s="51"/>
+      <c r="BG36" s="51"/>
+      <c r="BH36" s="51"/>
+      <c r="BI36" s="51"/>
+      <c r="BJ36" s="51"/>
+      <c r="BK36" s="51"/>
+      <c r="BL36" s="51"/>
+      <c r="BM36" s="51"/>
+    </row>
+    <row r="37" spans="1:65">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="20">
+        <v>1</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21">
+        <v>0</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="AA37" s="24"/>
+      <c r="BD37" s="51"/>
+      <c r="BE37" s="51"/>
+      <c r="BF37" s="51"/>
+      <c r="BG37" s="51"/>
+      <c r="BH37" s="51"/>
+      <c r="BI37" s="51"/>
+      <c r="BJ37" s="51"/>
+      <c r="BK37" s="51"/>
+      <c r="BL37" s="51"/>
+      <c r="BM37" s="51"/>
+    </row>
+    <row r="38" spans="1:65">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="20">
+        <v>1</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21">
+        <v>0</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="AA38" s="24"/>
+      <c r="BD38" s="51"/>
+      <c r="BE38" s="51"/>
+      <c r="BF38" s="51"/>
+      <c r="BG38" s="51"/>
+      <c r="BH38" s="51"/>
+      <c r="BI38" s="51"/>
+      <c r="BJ38" s="51"/>
+      <c r="BK38" s="51"/>
+      <c r="BL38" s="51"/>
+      <c r="BM38" s="51"/>
+    </row>
+    <row r="39" spans="1:65">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="20">
+        <v>1</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21">
+        <v>0</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="AA39" s="24"/>
+      <c r="BD39" s="51"/>
+      <c r="BE39" s="51"/>
+      <c r="BF39" s="51"/>
+      <c r="BG39" s="51"/>
+      <c r="BH39" s="51"/>
+      <c r="BI39" s="51"/>
+      <c r="BJ39" s="51"/>
+      <c r="BK39" s="51"/>
+      <c r="BL39" s="51"/>
+      <c r="BM39" s="51"/>
+    </row>
+    <row r="40" spans="1:65">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="20">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21">
+        <v>0</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="AA40" s="24"/>
+      <c r="BD40" s="51"/>
+      <c r="BE40" s="51"/>
+      <c r="BF40" s="51"/>
+      <c r="BG40" s="51"/>
+      <c r="BH40" s="51"/>
+      <c r="BI40" s="51"/>
+      <c r="BJ40" s="51"/>
+      <c r="BK40" s="51"/>
+      <c r="BL40" s="51"/>
+      <c r="BM40" s="51"/>
+    </row>
+    <row r="41" spans="1:65">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21">
+        <v>0</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="AA41" s="24"/>
+      <c r="BD41" s="51"/>
+      <c r="BE41" s="51"/>
+      <c r="BF41" s="51"/>
+      <c r="BG41" s="51"/>
+      <c r="BH41" s="51"/>
+      <c r="BI41" s="51"/>
+      <c r="BJ41" s="51"/>
+      <c r="BK41" s="51"/>
+      <c r="BL41" s="51"/>
+      <c r="BM41" s="51"/>
+    </row>
+    <row r="42" spans="1:65">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="20">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21">
+        <v>0</v>
+      </c>
+      <c r="K42" s="22"/>
+      <c r="AA42" s="24"/>
+      <c r="BD42" s="51"/>
+      <c r="BE42" s="51"/>
+      <c r="BF42" s="51"/>
+      <c r="BG42" s="51"/>
+      <c r="BH42" s="51"/>
+      <c r="BI42" s="51"/>
+      <c r="BJ42" s="51"/>
+      <c r="BK42" s="51"/>
+      <c r="BL42" s="51"/>
+      <c r="BM42" s="51"/>
+    </row>
+    <row r="43" spans="1:65">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="20">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21">
+        <v>0</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="AA43" s="24"/>
+      <c r="BD43" s="51"/>
+      <c r="BE43" s="51"/>
+      <c r="BF43" s="51"/>
+      <c r="BG43" s="51"/>
+      <c r="BH43" s="51"/>
+      <c r="BI43" s="51"/>
+      <c r="BJ43" s="51"/>
+      <c r="BK43" s="51"/>
+      <c r="BL43" s="51"/>
+      <c r="BM43" s="51"/>
+    </row>
+    <row r="44" spans="1:65">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="20">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21">
+        <v>0</v>
+      </c>
+      <c r="K44" s="22"/>
+      <c r="AA44" s="24"/>
+      <c r="BD44" s="51"/>
+      <c r="BE44" s="51"/>
+      <c r="BF44" s="51"/>
+      <c r="BG44" s="51"/>
+      <c r="BH44" s="51"/>
+      <c r="BI44" s="51"/>
+      <c r="BJ44" s="51"/>
+      <c r="BK44" s="51"/>
+      <c r="BL44" s="51"/>
+      <c r="BM44" s="51"/>
+    </row>
+    <row r="45" spans="1:65" s="9" customFormat="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="20">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21">
+        <v>0</v>
+      </c>
+      <c r="K45" s="60"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="BD45" s="10"/>
+      <c r="BE45" s="10"/>
+      <c r="BF45" s="10"/>
+      <c r="BG45" s="10"/>
+      <c r="BH45" s="10"/>
+      <c r="BI45" s="10"/>
+      <c r="BJ45" s="10"/>
+      <c r="BK45" s="10"/>
+      <c r="BL45" s="10"/>
+      <c r="BM45" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L10:BM45">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>L$9=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:Z9 AB9:BM9">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>L$9=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AA$9=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="43" fitToHeight="0" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Spinner 1">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918"/>
   </bookViews>
   <sheets>
     <sheet name="engineering" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="today" localSheetId="1">business!$AR$4</definedName>
     <definedName name="today">engineering!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>Plan</t>
   </si>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1094,38 +1094,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -1533,7 +1533,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="25"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="40"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1547,28 +1547,31 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>61913</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>23813</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1576,6 +1579,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1593,28 +1602,31 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>61913</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>23813</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
+            <xdr:cNvPr id="2049" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1622,6 +1634,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1859,56 +1877,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="28" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="28" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="28" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" style="28" customWidth="1"/>
+    <col min="12" max="16" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.46484375" style="28" customWidth="1"/>
+    <col min="18" max="27" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19" customHeight="1">
-      <c r="B2" s="57"/>
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="52"/>
+      <c r="C2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="36"/>
       <c r="L2" s="37" t="s">
         <v>11</v>
@@ -1919,7 +1937,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -1947,117 +1965,117 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1">
-      <c r="B4" s="58"/>
-      <c r="C4" s="54" t="s">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="53"/>
+      <c r="C4" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="55">
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="61">
         <v>42660</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="55">
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="61">
         <v>42688</v>
       </c>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
       <c r="AI4" s="28"/>
       <c r="AJ4" s="28"/>
       <c r="AK4" s="28"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="52">
+      <c r="AR4" s="60">
         <f ca="1">TODAY()</f>
-        <v>42684</v>
-      </c>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
+        <v>42699</v>
+      </c>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
       <c r="AY4" s="28"/>
       <c r="AZ4" s="28"/>
       <c r="BA4" s="28"/>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="55">
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61">
         <v>42675</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="56" t="s">
+      <c r="AA5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="55">
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="61">
         <v>42712</v>
       </c>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56" t="s">
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
       <c r="AW5" s="28"/>
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -2076,7 +2094,7 @@
       <c r="AX6" s="28"/>
       <c r="AY6" s="28"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -2153,7 +2171,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -2344,7 +2362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="35"/>
@@ -2519,7 +2537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19" customHeight="1">
+    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
@@ -2559,7 +2577,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="19" customHeight="1">
+    <row r="11" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -2594,7 +2612,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="12" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -2649,7 +2667,7 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
     </row>
-    <row r="13" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="13" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -2704,7 +2722,7 @@
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
     </row>
-    <row r="14" spans="1:65" ht="19" customHeight="1">
+    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -2742,7 +2760,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19" customHeight="1">
+    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
@@ -2782,7 +2800,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19" customHeight="1">
+    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -2820,7 +2838,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19" customHeight="1">
+    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -2858,7 +2876,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19" customHeight="1">
+    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>65</v>
       </c>
@@ -2898,7 +2916,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19" customHeight="1">
+    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
@@ -2936,7 +2954,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19" customHeight="1">
+    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -2974,7 +2992,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19" customHeight="1">
+    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -3006,7 +3024,7 @@
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
     </row>
-    <row r="22" spans="1:65" ht="19" customHeight="1">
+    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -3063,7 +3081,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" ht="19" customHeight="1">
+    <row r="23" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
@@ -3118,7 +3136,7 @@
       <c r="BL23" s="51"/>
       <c r="BM23" s="51"/>
     </row>
-    <row r="24" spans="1:65" ht="19" customHeight="1">
+    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -3166,7 +3184,7 @@
       <c r="BK24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="25" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
         <v>74</v>
       </c>
@@ -3223,7 +3241,7 @@
       <c r="BL25" s="22"/>
       <c r="BM25" s="22"/>
     </row>
-    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="26" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="C26" s="19" t="s">
         <v>51</v>
@@ -3278,7 +3296,7 @@
       <c r="BL26" s="22"/>
       <c r="BM26" s="22"/>
     </row>
-    <row r="27" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="27" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="C27" s="19" t="s">
         <v>59</v>
@@ -3333,7 +3351,7 @@
       <c r="BL27" s="22"/>
       <c r="BM27" s="22"/>
     </row>
-    <row r="28" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="28" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="C28" s="19" t="s">
         <v>52</v>
@@ -3384,7 +3402,7 @@
       <c r="BL28" s="22"/>
       <c r="BM28" s="22"/>
     </row>
-    <row r="29" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="29" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="C29" s="19" t="s">
         <v>69</v>
@@ -3433,7 +3451,7 @@
       <c r="BL29" s="22"/>
       <c r="BM29" s="22"/>
     </row>
-    <row r="30" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="30" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="C30" s="19" t="s">
         <v>53</v>
@@ -3484,7 +3502,7 @@
       <c r="BL30" s="22"/>
       <c r="BM30" s="22"/>
     </row>
-    <row r="31" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="31" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="C31" s="19" t="s">
         <v>66</v>
@@ -3533,7 +3551,7 @@
       <c r="BL31" s="22"/>
       <c r="BM31" s="22"/>
     </row>
-    <row r="32" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="32" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>75</v>
       </c>
@@ -3588,7 +3606,7 @@
       <c r="BL32" s="22"/>
       <c r="BM32" s="22"/>
     </row>
-    <row r="33" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="33" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
       <c r="C33" s="19" t="s">
         <v>71</v>
@@ -3641,7 +3659,7 @@
       <c r="BL33" s="22"/>
       <c r="BM33" s="22"/>
     </row>
-    <row r="34" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="34" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="C34" s="19" t="s">
         <v>68</v>
@@ -3694,7 +3712,7 @@
       <c r="BL34" s="22"/>
       <c r="BM34" s="22"/>
     </row>
-    <row r="35" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="35" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="C35" s="19" t="s">
         <v>70</v>
@@ -3747,7 +3765,7 @@
       <c r="BL35" s="22"/>
       <c r="BM35" s="22"/>
     </row>
-    <row r="36" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="36" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>72</v>
       </c>
@@ -3804,7 +3822,7 @@
       <c r="BL36" s="22"/>
       <c r="BM36" s="22"/>
     </row>
-    <row r="37" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="37" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="C37" s="19" t="s">
         <v>76</v>
@@ -3859,7 +3877,7 @@
       <c r="BL37" s="22"/>
       <c r="BM37" s="22"/>
     </row>
-    <row r="38" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="38" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
       <c r="C38" s="19" t="s">
         <v>77</v>
@@ -3914,7 +3932,7 @@
       <c r="BL38" s="22"/>
       <c r="BM38" s="22"/>
     </row>
-    <row r="39" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="39" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="C39" s="19" t="s">
         <v>90</v>
@@ -3969,7 +3987,7 @@
       <c r="BL39" s="22"/>
       <c r="BM39" s="22"/>
     </row>
-    <row r="40" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="40" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="C40" s="19" t="s">
         <v>55</v>
@@ -4018,7 +4036,7 @@
       <c r="BL40" s="22"/>
       <c r="BM40" s="22"/>
     </row>
-    <row r="41" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="41" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="C41" s="19" t="s">
         <v>60</v>
@@ -4067,7 +4085,7 @@
       <c r="BL41" s="22"/>
       <c r="BM41" s="22"/>
     </row>
-    <row r="42" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="42" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="C42" s="19" t="s">
         <v>78</v>
@@ -4116,22 +4134,28 @@
       <c r="BL42" s="22"/>
       <c r="BM42" s="22"/>
     </row>
-    <row r="43" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="43" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="C43" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="32"/>
+      <c r="E43" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F43" s="20">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="H43" s="20">
+        <v>38</v>
+      </c>
+      <c r="I43" s="20">
+        <v>1</v>
+      </c>
       <c r="J43" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -4165,22 +4189,28 @@
       <c r="BL43" s="22"/>
       <c r="BM43" s="22"/>
     </row>
-    <row r="44" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="44" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="C44" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="32"/>
+      <c r="E44" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F44" s="20">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G44" s="20">
-        <v>3</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="20">
+        <v>38</v>
+      </c>
+      <c r="I44" s="20">
+        <v>2</v>
+      </c>
       <c r="J44" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -4214,7 +4244,7 @@
       <c r="BL44" s="22"/>
       <c r="BM44" s="22"/>
     </row>
-    <row r="45" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="45" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
       <c r="C45" s="19" t="s">
         <v>80</v>
@@ -4269,7 +4299,7 @@
       <c r="BL45" s="22"/>
       <c r="BM45" s="22"/>
     </row>
-    <row r="46" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="46" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="C46" s="19" t="s">
         <v>81</v>
@@ -4324,7 +4354,7 @@
       <c r="BL46" s="22"/>
       <c r="BM46" s="22"/>
     </row>
-    <row r="47" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="47" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="17"/>
       <c r="C47" s="19" t="s">
         <v>57</v>
@@ -4373,7 +4403,7 @@
       <c r="BL47" s="22"/>
       <c r="BM47" s="22"/>
     </row>
-    <row r="48" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="48" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="17"/>
       <c r="C48" s="19" t="s">
         <v>82</v>
@@ -4422,7 +4452,7 @@
       <c r="BL48" s="22"/>
       <c r="BM48" s="22"/>
     </row>
-    <row r="49" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="49" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="17" t="s">
         <v>108</v>
       </c>
@@ -4473,7 +4503,7 @@
       <c r="BL49" s="22"/>
       <c r="BM49" s="22"/>
     </row>
-    <row r="50" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="50" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="17"/>
       <c r="C50" s="19" t="s">
         <v>110</v>
@@ -4522,7 +4552,7 @@
       <c r="BL50" s="22"/>
       <c r="BM50" s="22"/>
     </row>
-    <row r="51" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="51" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="17"/>
       <c r="C51" s="19" t="s">
         <v>111</v>
@@ -4571,7 +4601,7 @@
       <c r="BL51" s="22"/>
       <c r="BM51" s="22"/>
     </row>
-    <row r="52" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="52" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="17"/>
       <c r="C52" s="19" t="s">
         <v>112</v>
@@ -4620,7 +4650,7 @@
       <c r="BL52" s="22"/>
       <c r="BM52" s="22"/>
     </row>
-    <row r="53" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="53" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="17"/>
       <c r="C53" s="19"/>
       <c r="E53" s="32"/>
@@ -4667,7 +4697,7 @@
       <c r="BL53" s="22"/>
       <c r="BM53" s="22"/>
     </row>
-    <row r="54" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="54" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="17"/>
       <c r="C54" s="19"/>
       <c r="E54" s="32"/>
@@ -4714,7 +4744,7 @@
       <c r="BL54" s="22"/>
       <c r="BM54" s="22"/>
     </row>
-    <row r="55" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="55" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17"/>
       <c r="C55" s="19"/>
       <c r="E55" s="32"/>
@@ -4761,7 +4791,7 @@
       <c r="BL55" s="22"/>
       <c r="BM55" s="22"/>
     </row>
-    <row r="56" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="56" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="17"/>
       <c r="C56" s="19"/>
       <c r="E56" s="32"/>
@@ -4808,7 +4838,7 @@
       <c r="BL56" s="22"/>
       <c r="BM56" s="22"/>
     </row>
-    <row r="57" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="57" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="17"/>
       <c r="C57" s="19"/>
       <c r="E57" s="32"/>
@@ -4855,7 +4885,7 @@
       <c r="BL57" s="22"/>
       <c r="BM57" s="22"/>
     </row>
-    <row r="58" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="58" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17"/>
       <c r="C58" s="19"/>
       <c r="E58" s="32"/>
@@ -4902,7 +4932,7 @@
       <c r="BL58" s="22"/>
       <c r="BM58" s="22"/>
     </row>
-    <row r="59" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="59" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="17"/>
       <c r="C59" s="19"/>
       <c r="E59" s="32"/>
@@ -5016,25 +5046,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>61913</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>23813</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5046,7 +5074,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM45"/>
@@ -5055,45 +5083,45 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="51" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="51" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="51" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" style="51" customWidth="1"/>
+    <col min="12" max="16" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.46484375" style="51" customWidth="1"/>
+    <col min="18" max="27" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19" customHeight="1">
-      <c r="C2" s="53" t="s">
+    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="L2" s="37" t="s">
@@ -5105,7 +5133,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5133,114 +5161,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1">
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1">
-      <c r="C4" s="54" t="s">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="55">
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="61">
         <v>42660</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="55">
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="61">
         <v>42688</v>
       </c>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
       <c r="AI4" s="51"/>
       <c r="AJ4" s="51"/>
       <c r="AK4" s="51"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="52">
+      <c r="AR4" s="60">
         <f ca="1">TODAY()</f>
-        <v>42684</v>
-      </c>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
+        <v>42699</v>
+      </c>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
       <c r="AW4" s="51"/>
       <c r="AX4" s="51"/>
       <c r="AY4" s="51"/>
       <c r="AZ4" s="51"/>
       <c r="BA4" s="51"/>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="55">
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61">
         <v>42675</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="56" t="s">
+      <c r="AA5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="55">
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="61">
         <v>42712</v>
       </c>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56" t="s">
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
       <c r="AW5" s="51"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
@@ -5259,7 +5287,7 @@
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -5336,7 +5364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -5527,18 +5555,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="61"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="2">
         <v>1</v>
       </c>
@@ -5702,12 +5730,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19" customHeight="1">
+    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="12"/>
@@ -5742,7 +5770,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="18.75" customHeight="1">
+    <row r="11" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
@@ -5782,7 +5810,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" ht="19" customHeight="1">
+    <row r="12" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
@@ -5820,7 +5848,7 @@
       <c r="BL12" s="51"/>
       <c r="BM12" s="51"/>
     </row>
-    <row r="13" spans="1:65" ht="19" customHeight="1">
+    <row r="13" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
@@ -5856,7 +5884,7 @@
       <c r="BL13" s="51"/>
       <c r="BM13" s="51"/>
     </row>
-    <row r="14" spans="1:65" ht="19" customHeight="1">
+    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -5892,7 +5920,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19" customHeight="1">
+    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
@@ -5930,7 +5958,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19" customHeight="1">
+    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -5968,7 +5996,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19" customHeight="1">
+    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -6006,7 +6034,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19" customHeight="1">
+    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
@@ -6044,7 +6072,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19" customHeight="1">
+    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -6084,7 +6112,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19" customHeight="1">
+    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -6122,7 +6150,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19" customHeight="1">
+    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -6160,7 +6188,7 @@
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
     </row>
-    <row r="22" spans="1:65" ht="19" customHeight="1">
+    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -6198,13 +6226,13 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="23" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
-      <c r="B23" s="59"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="32" t="s">
         <v>30</v>
       </c>
@@ -6223,7 +6251,7 @@
       <c r="J23" s="21">
         <v>1</v>
       </c>
-      <c r="K23" s="60"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -6255,7 +6283,7 @@
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
     </row>
-    <row r="24" spans="1:65" ht="19" customHeight="1">
+    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -6293,7 +6321,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
@@ -6325,7 +6353,7 @@
       <c r="BL25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
@@ -6355,7 +6383,7 @@
       <c r="BL26" s="51"/>
       <c r="BM26" s="51"/>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
@@ -6385,7 +6413,7 @@
       <c r="BL27" s="51"/>
       <c r="BM27" s="51"/>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
@@ -6415,7 +6443,7 @@
       <c r="BL28" s="51"/>
       <c r="BM28" s="51"/>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
@@ -6445,7 +6473,7 @@
       <c r="BL29" s="51"/>
       <c r="BM29" s="51"/>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>101</v>
       </c>
@@ -6477,7 +6505,7 @@
       <c r="BL30" s="51"/>
       <c r="BM30" s="51"/>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
@@ -6507,7 +6535,7 @@
       <c r="BL31" s="51"/>
       <c r="BM31" s="51"/>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
@@ -6537,7 +6565,7 @@
       <c r="BL32" s="51"/>
       <c r="BM32" s="51"/>
     </row>
-    <row r="33" spans="1:65">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A33" s="17" t="s">
         <v>102</v>
       </c>
@@ -6569,7 +6597,7 @@
       <c r="BL33" s="51"/>
       <c r="BM33" s="51"/>
     </row>
-    <row r="34" spans="1:65">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
@@ -6595,7 +6623,7 @@
       <c r="BL34" s="51"/>
       <c r="BM34" s="51"/>
     </row>
-    <row r="35" spans="1:65">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
@@ -6625,7 +6653,7 @@
       <c r="BL35" s="51"/>
       <c r="BM35" s="51"/>
     </row>
-    <row r="36" spans="1:65">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -6653,7 +6681,7 @@
       <c r="BL36" s="51"/>
       <c r="BM36" s="51"/>
     </row>
-    <row r="37" spans="1:65">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -6681,7 +6709,7 @@
       <c r="BL37" s="51"/>
       <c r="BM37" s="51"/>
     </row>
-    <row r="38" spans="1:65">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -6709,7 +6737,7 @@
       <c r="BL38" s="51"/>
       <c r="BM38" s="51"/>
     </row>
-    <row r="39" spans="1:65">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -6737,7 +6765,7 @@
       <c r="BL39" s="51"/>
       <c r="BM39" s="51"/>
     </row>
-    <row r="40" spans="1:65">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -6765,7 +6793,7 @@
       <c r="BL40" s="51"/>
       <c r="BM40" s="51"/>
     </row>
-    <row r="41" spans="1:65">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -6793,7 +6821,7 @@
       <c r="BL41" s="51"/>
       <c r="BM41" s="51"/>
     </row>
-    <row r="42" spans="1:65">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -6821,7 +6849,7 @@
       <c r="BL42" s="51"/>
       <c r="BM42" s="51"/>
     </row>
-    <row r="43" spans="1:65">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -6849,7 +6877,7 @@
       <c r="BL43" s="51"/>
       <c r="BM43" s="51"/>
     </row>
-    <row r="44" spans="1:65">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -6877,11 +6905,11 @@
       <c r="BL44" s="51"/>
       <c r="BM44" s="51"/>
     </row>
-    <row r="45" spans="1:65" s="9" customFormat="1">
+    <row r="45" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
-      <c r="B45" s="59"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="59"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="32"/>
       <c r="F45" s="20">
         <v>1</v>
@@ -6892,7 +6920,7 @@
       <c r="J45" s="21">
         <v>0</v>
       </c>
-      <c r="K45" s="60"/>
+      <c r="K45" s="55"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -6926,6 +6954,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -6933,11 +6966,6 @@
     <mergeCell ref="AA5:AD5"/>
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AE4:AH4"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:BM45">
@@ -6990,25 +7018,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>61913</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>23813</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7019,6 +7045,141 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1560899</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName>REDMOND\v-soujap</DisplayName>
+        <AccountId>1954</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -8058,155 +8219,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1560899</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName>REDMOND\v-soujap</DisplayName>
-        <AccountId>1954</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8228,9 +8244,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="engineering" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t>Plan</t>
   </si>
@@ -1533,7 +1533,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="40"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="41"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1882,7 +1882,7 @@
   </sheetPr>
   <dimension ref="A2:BM59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -1937,7 +1937,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="AR4" s="60">
         <f ca="1">TODAY()</f>
-        <v>42699</v>
+        <v>42700</v>
       </c>
       <c r="AS4" s="60"/>
       <c r="AT4" s="60"/>
@@ -5079,8 +5079,8 @@
   </sheetPr>
   <dimension ref="A2:BM45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
@@ -5133,7 +5133,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="AR4" s="60">
         <f ca="1">TODAY()</f>
-        <v>42699</v>
+        <v>42700</v>
       </c>
       <c r="AS4" s="60"/>
       <c r="AT4" s="60"/>
@@ -6330,11 +6330,15 @@
         <v>96</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="32"/>
+      <c r="E25" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21">
@@ -6360,11 +6364,15 @@
         <v>97</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21">
@@ -6390,11 +6398,15 @@
         <v>100</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="32"/>
+      <c r="E27" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21">
@@ -6420,11 +6432,15 @@
         <v>98</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21">
@@ -6450,15 +6466,23 @@
         <v>99</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="32"/>
+      <c r="E29" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20">
+        <v>40</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
       <c r="J29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="22"/>
       <c r="AA29" s="24"/>
@@ -6954,11 +6978,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -6967,6 +6986,11 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:BM45">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -7045,141 +7069,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1560899</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName>REDMOND\v-soujap</DisplayName>
-        <AccountId>1954</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -8219,31 +8108,142 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1560899</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName>REDMOND\v-soujap</DisplayName>
+        <AccountId>1954</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8259,4 +8259,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918"/>
   </bookViews>
   <sheets>
     <sheet name="engineering" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
   <si>
     <t>Plan</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t xml:space="preserve">Research costs to hire business type peeps </t>
+  </si>
+  <si>
+    <t>Create descriptions of building rating categories</t>
+  </si>
+  <si>
+    <t>Create descriptions of classroom rating categories</t>
+  </si>
+  <si>
+    <t>Add a FAQ page</t>
   </si>
 </sst>
 </file>
@@ -937,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1120,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1882,7 +1894,7 @@
   </sheetPr>
   <dimension ref="A2:BM59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -1918,13 +1930,13 @@
   <sheetData>
     <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="52"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="36"/>
@@ -1968,65 +1980,65 @@
     <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="53"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="61">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="62">
         <v>42660</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="62" t="s">
+      <c r="AA4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="61">
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="62">
         <v>42688</v>
       </c>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
       <c r="AI4" s="28"/>
       <c r="AJ4" s="28"/>
       <c r="AK4" s="28"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="60">
+      <c r="AR4" s="61">
         <f ca="1">TODAY()</f>
         <v>42700</v>
       </c>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
       <c r="AY4" s="28"/>
@@ -2035,42 +2047,42 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61">
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="62">
         <v>42675</v>
       </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="62" t="s">
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="62" t="s">
+      <c r="AA5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="61">
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="62">
         <v>42712</v>
       </c>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62" t="s">
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
       <c r="AW5" s="28"/>
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
@@ -5077,10 +5089,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BM45"/>
+  <dimension ref="A2:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
@@ -5114,14 +5126,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="L2" s="37" t="s">
@@ -5162,64 +5174,64 @@
       </c>
     </row>
     <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="61">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="62">
         <v>42660</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="62" t="s">
+      <c r="AA4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="61">
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="62">
         <v>42688</v>
       </c>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
       <c r="AI4" s="51"/>
       <c r="AJ4" s="51"/>
       <c r="AK4" s="51"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="60">
+      <c r="AR4" s="61">
         <f ca="1">TODAY()</f>
         <v>42700</v>
       </c>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
       <c r="AW4" s="51"/>
       <c r="AX4" s="51"/>
       <c r="AY4" s="51"/>
@@ -5228,42 +5240,42 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="61">
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="62">
         <v>42675</v>
       </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="62" t="s">
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="62" t="s">
+      <c r="AA5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="61">
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="62">
         <v>42712</v>
       </c>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62" t="s">
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
       <c r="AW5" s="51"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
@@ -6368,15 +6380,19 @@
         <v>61</v>
       </c>
       <c r="F26" s="20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" s="20">
         <v>1</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="H26" s="20">
+        <v>41</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
       <c r="J26" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="22"/>
       <c r="AA26" s="24"/>
@@ -6402,15 +6418,19 @@
         <v>61</v>
       </c>
       <c r="F27" s="20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G27" s="20">
         <v>1</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="H27" s="20">
+        <v>41</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1</v>
+      </c>
       <c r="J27" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="22"/>
       <c r="AA27" s="24"/>
@@ -6436,15 +6456,19 @@
         <v>61</v>
       </c>
       <c r="F28" s="20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28" s="20">
         <v>1</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="20">
+        <v>41</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1</v>
+      </c>
       <c r="J28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="22"/>
       <c r="AA28" s="24"/>
@@ -6463,20 +6487,20 @@
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="32" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G29" s="20">
         <v>1</v>
       </c>
       <c r="H29" s="20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I29" s="20">
         <v>1</v>
@@ -6485,96 +6509,175 @@
         <v>1</v>
       </c>
       <c r="K29" s="22"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
       <c r="AA29" s="24"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="51"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="51"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-      <c r="BM29" s="51"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="58"/>
+      <c r="BD29" s="58"/>
+      <c r="BE29" s="58"/>
+      <c r="BF29" s="58"/>
+      <c r="BG29" s="58"/>
+      <c r="BH29" s="58"/>
+      <c r="BI29" s="58"/>
+      <c r="BJ29" s="58"/>
+      <c r="BK29" s="58"/>
+      <c r="BL29" s="58"/>
+      <c r="BM29" s="58"/>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A30" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="32"/>
+      <c r="E30" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="20">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20">
+        <v>41</v>
+      </c>
+      <c r="I30" s="20">
+        <v>1</v>
+      </c>
       <c r="J30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="22"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
       <c r="AA30" s="24"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="51"/>
-      <c r="BF30" s="51"/>
-      <c r="BG30" s="51"/>
-      <c r="BH30" s="51"/>
-      <c r="BI30" s="51"/>
-      <c r="BJ30" s="51"/>
-      <c r="BK30" s="51"/>
-      <c r="BL30" s="51"/>
-      <c r="BM30" s="51"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="BD30" s="58"/>
+      <c r="BE30" s="58"/>
+      <c r="BF30" s="58"/>
+      <c r="BG30" s="58"/>
+      <c r="BH30" s="58"/>
+      <c r="BI30" s="58"/>
+      <c r="BJ30" s="58"/>
+      <c r="BK30" s="58"/>
+      <c r="BL30" s="58"/>
+      <c r="BM30" s="58"/>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20">
+        <v>41</v>
+      </c>
+      <c r="I31" s="20">
+        <v>1</v>
+      </c>
       <c r="J31" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="22"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
       <c r="AA31" s="24"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="51"/>
-      <c r="BI31" s="51"/>
-      <c r="BJ31" s="51"/>
-      <c r="BK31" s="51"/>
-      <c r="BL31" s="51"/>
-      <c r="BM31" s="51"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="58"/>
+      <c r="BD31" s="58"/>
+      <c r="BE31" s="58"/>
+      <c r="BF31" s="58"/>
+      <c r="BG31" s="58"/>
+      <c r="BH31" s="58"/>
+      <c r="BI31" s="58"/>
+      <c r="BJ31" s="58"/>
+      <c r="BK31" s="58"/>
+      <c r="BL31" s="58"/>
+      <c r="BM31" s="58"/>
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F32" s="20">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="G32" s="20">
+        <v>1</v>
+      </c>
+      <c r="H32" s="20">
+        <v>40</v>
+      </c>
+      <c r="I32" s="20">
+        <v>1</v>
+      </c>
       <c r="J32" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="22"/>
       <c r="AA32" s="24"/>
@@ -6591,11 +6694,11 @@
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A33" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="32"/>
@@ -6625,15 +6728,19 @@
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="20">
+        <v>1</v>
+      </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
+      <c r="J34" s="21">
+        <v>0</v>
+      </c>
       <c r="K34" s="22"/>
       <c r="AA34" s="24"/>
       <c r="BD34" s="51"/>
@@ -6651,7 +6758,7 @@
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="32"/>
@@ -6678,9 +6785,13 @@
       <c r="BM35" s="51"/>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.45">
-      <c r="A36" s="17"/>
+      <c r="A36" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="D36" s="18"/>
       <c r="E36" s="32"/>
       <c r="F36" s="20">
@@ -6708,18 +6819,16 @@
     <row r="37" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="D37" s="18"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="20">
-        <v>1</v>
-      </c>
+      <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="21">
-        <v>0</v>
-      </c>
+      <c r="J37" s="21"/>
       <c r="K37" s="22"/>
       <c r="AA37" s="24"/>
       <c r="BD37" s="51"/>
@@ -6736,7 +6845,9 @@
     <row r="38" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="D38" s="18"/>
       <c r="E38" s="32"/>
       <c r="F38" s="20">
@@ -6929,11 +7040,11 @@
       <c r="BL44" s="51"/>
       <c r="BM44" s="51"/>
     </row>
-    <row r="45" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="32"/>
       <c r="F45" s="20">
         <v>1</v>
@@ -6944,40 +7055,129 @@
       <c r="J45" s="21">
         <v>0</v>
       </c>
-      <c r="K45" s="55"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="BD45" s="10"/>
-      <c r="BE45" s="10"/>
-      <c r="BF45" s="10"/>
-      <c r="BG45" s="10"/>
-      <c r="BH45" s="10"/>
-      <c r="BI45" s="10"/>
-      <c r="BJ45" s="10"/>
-      <c r="BK45" s="10"/>
-      <c r="BL45" s="10"/>
-      <c r="BM45" s="10"/>
+      <c r="K45" s="22"/>
+      <c r="AA45" s="24"/>
+      <c r="BD45" s="51"/>
+      <c r="BE45" s="51"/>
+      <c r="BF45" s="51"/>
+      <c r="BG45" s="51"/>
+      <c r="BH45" s="51"/>
+      <c r="BI45" s="51"/>
+      <c r="BJ45" s="51"/>
+      <c r="BK45" s="51"/>
+      <c r="BL45" s="51"/>
+      <c r="BM45" s="51"/>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.45">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="20">
+        <v>1</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21">
+        <v>0</v>
+      </c>
+      <c r="K46" s="22"/>
+      <c r="AA46" s="24"/>
+      <c r="BD46" s="51"/>
+      <c r="BE46" s="51"/>
+      <c r="BF46" s="51"/>
+      <c r="BG46" s="51"/>
+      <c r="BH46" s="51"/>
+      <c r="BI46" s="51"/>
+      <c r="BJ46" s="51"/>
+      <c r="BK46" s="51"/>
+      <c r="BL46" s="51"/>
+      <c r="BM46" s="51"/>
+    </row>
+    <row r="47" spans="1:65" x14ac:dyDescent="0.45">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21">
+        <v>0</v>
+      </c>
+      <c r="K47" s="22"/>
+      <c r="AA47" s="24"/>
+      <c r="BD47" s="51"/>
+      <c r="BE47" s="51"/>
+      <c r="BF47" s="51"/>
+      <c r="BG47" s="51"/>
+      <c r="BH47" s="51"/>
+      <c r="BI47" s="51"/>
+      <c r="BJ47" s="51"/>
+      <c r="BK47" s="51"/>
+      <c r="BL47" s="51"/>
+      <c r="BM47" s="51"/>
+    </row>
+    <row r="48" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="17"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="20">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21">
+        <v>0</v>
+      </c>
+      <c r="K48" s="55"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="10"/>
+      <c r="BF48" s="10"/>
+      <c r="BG48" s="10"/>
+      <c r="BH48" s="10"/>
+      <c r="BI48" s="10"/>
+      <c r="BJ48" s="10"/>
+      <c r="BK48" s="10"/>
+      <c r="BL48" s="10"/>
+      <c r="BM48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -6986,13 +7186,8 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
-  <conditionalFormatting sqref="L10:BM45">
+  <conditionalFormatting sqref="L10:BM48">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -7069,6 +7264,141 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1560899</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName>REDMOND\v-soujap</DisplayName>
+        <AccountId>1954</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -8108,142 +8438,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1560899</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName>REDMOND\v-soujap</DisplayName>
-        <AccountId>1954</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8259,28 +8478,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
   </bookViews>
   <sheets>
     <sheet name="engineering" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="today" localSheetId="1">business!$AR$4</definedName>
     <definedName name="today">engineering!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="118">
   <si>
     <t>Plan</t>
   </si>
@@ -459,11 +459,14 @@
   <si>
     <t>Add a FAQ page</t>
   </si>
+  <si>
+    <t>Get recent ratings data from the backend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1545,7 +1548,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="41"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="43"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1559,31 +1562,28 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>61913</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>23813</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>204788</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>14288</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1591,12 +1591,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1614,31 +1608,28 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>61913</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>23813</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>204788</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>14288</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1646,12 +1637,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1889,46 +1874,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BM59"/>
+  <dimension ref="A2:BM60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1328125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="28" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.796875" style="28" customWidth="1"/>
-    <col min="12" max="16" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.46484375" style="28" customWidth="1"/>
-    <col min="18" max="27" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="28" customWidth="1"/>
+    <col min="12" max="16" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="28" customWidth="1"/>
+    <col min="18" max="27" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="2.6640625" style="1"/>
+    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.6640625" style="1"/>
+    <col min="59" max="60" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:65" ht="19" customHeight="1">
       <c r="B2" s="52"/>
       <c r="C2" s="59" t="s">
         <v>27</v>
@@ -1949,7 +1937,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -1977,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" ht="27" customHeight="1">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="59"/>
@@ -1989,7 +1977,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1">
       <c r="B4" s="53"/>
       <c r="C4" s="60" t="s">
         <v>92</v>
@@ -2034,7 +2022,7 @@
       </c>
       <c r="AR4" s="61">
         <f ca="1">TODAY()</f>
-        <v>42700</v>
+        <v>42702</v>
       </c>
       <c r="AS4" s="61"/>
       <c r="AT4" s="61"/>
@@ -2045,7 +2033,7 @@
       <c r="AZ4" s="28"/>
       <c r="BA4" s="28"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65">
       <c r="G5" s="1"/>
       <c r="L5" s="63" t="s">
         <v>13</v>
@@ -2087,7 +2075,7 @@
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65">
       <c r="G6" s="1"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -2106,7 +2094,7 @@
       <c r="AX6" s="28"/>
       <c r="AY6" s="28"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -2183,7 +2171,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -2374,7 +2362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="35"/>
@@ -2549,7 +2537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" ht="19" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
@@ -2589,7 +2577,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" ht="19" customHeight="1">
       <c r="A11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -2624,7 +2612,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -2679,7 +2667,7 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
     </row>
-    <row r="13" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -2734,7 +2722,7 @@
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
     </row>
-    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" ht="19" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -2772,7 +2760,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" ht="19" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
@@ -2812,7 +2800,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" ht="19" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -2850,7 +2838,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:65" ht="19" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -2888,7 +2876,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:65" ht="19" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>65</v>
       </c>
@@ -2928,7 +2916,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:65" ht="19" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
@@ -2966,7 +2954,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:65" ht="19" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -3004,7 +2992,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:65" ht="19" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -3036,7 +3024,7 @@
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
     </row>
-    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:65" ht="19" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -3093,7 +3081,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:65" ht="19" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
@@ -3148,7 +3136,7 @@
       <c r="BL23" s="51"/>
       <c r="BM23" s="51"/>
     </row>
-    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:65" ht="19" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -3196,7 +3184,7 @@
       <c r="BK24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>74</v>
       </c>
@@ -3253,7 +3241,7 @@
       <c r="BL25" s="22"/>
       <c r="BM25" s="22"/>
     </row>
-    <row r="26" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="17"/>
       <c r="C26" s="19" t="s">
         <v>51</v>
@@ -3308,7 +3296,7 @@
       <c r="BL26" s="22"/>
       <c r="BM26" s="22"/>
     </row>
-    <row r="27" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="17"/>
       <c r="C27" s="19" t="s">
         <v>59</v>
@@ -3363,7 +3351,7 @@
       <c r="BL27" s="22"/>
       <c r="BM27" s="22"/>
     </row>
-    <row r="28" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A28" s="17"/>
       <c r="C28" s="19" t="s">
         <v>52</v>
@@ -3414,7 +3402,7 @@
       <c r="BL28" s="22"/>
       <c r="BM28" s="22"/>
     </row>
-    <row r="29" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A29" s="17"/>
       <c r="C29" s="19" t="s">
         <v>69</v>
@@ -3463,24 +3451,28 @@
       <c r="BL29" s="22"/>
       <c r="BM29" s="22"/>
     </row>
-    <row r="30" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A30" s="17"/>
       <c r="C30" s="19" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F30" s="20">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G30" s="20">
-        <v>1</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="20">
+        <v>31</v>
+      </c>
+      <c r="I30" s="20">
+        <v>2</v>
+      </c>
       <c r="J30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -3514,12 +3506,14 @@
       <c r="BL30" s="22"/>
       <c r="BM30" s="22"/>
     </row>
-    <row r="31" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A31" s="17"/>
       <c r="C31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F31" s="20">
         <v>11</v>
       </c>
@@ -3563,28 +3557,22 @@
       <c r="BL31" s="22"/>
       <c r="BM31" s="22"/>
     </row>
-    <row r="32" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="17" t="s">
-        <v>75</v>
-      </c>
+    <row r="32" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A32" s="17"/>
       <c r="C32" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>36</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E32" s="32"/>
       <c r="F32" s="20">
         <v>11</v>
       </c>
       <c r="G32" s="20">
-        <v>2</v>
-      </c>
-      <c r="H32" s="20">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -3618,26 +3606,28 @@
       <c r="BL32" s="22"/>
       <c r="BM32" s="22"/>
     </row>
-    <row r="33" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="C33" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" s="20">
         <v>2</v>
       </c>
       <c r="H33" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -3671,22 +3661,22 @@
       <c r="BL33" s="22"/>
       <c r="BM33" s="22"/>
     </row>
-    <row r="34" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A34" s="17"/>
       <c r="C34" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G34" s="20">
         <v>2</v>
       </c>
       <c r="H34" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="21">
@@ -3724,22 +3714,22 @@
       <c r="BL34" s="22"/>
       <c r="BM34" s="22"/>
     </row>
-    <row r="35" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="C35" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="21">
@@ -3777,30 +3767,26 @@
       <c r="BL35" s="22"/>
       <c r="BM35" s="22"/>
     </row>
-    <row r="36" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="17" t="s">
-        <v>72</v>
-      </c>
+    <row r="36" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A36" s="17"/>
       <c r="C36" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F36" s="20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" s="20">
         <v>1</v>
       </c>
       <c r="H36" s="20">
-        <v>15</v>
-      </c>
-      <c r="I36" s="20">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I36" s="20"/>
       <c r="J36" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
@@ -3834,10 +3820,12 @@
       <c r="BL36" s="22"/>
       <c r="BM36" s="22"/>
     </row>
-    <row r="37" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>30</v>
@@ -3889,10 +3877,10 @@
       <c r="BL37" s="22"/>
       <c r="BM37" s="22"/>
     </row>
-    <row r="38" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A38" s="17"/>
       <c r="C38" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>30</v>
@@ -3944,10 +3932,10 @@
       <c r="BL38" s="22"/>
       <c r="BM38" s="22"/>
     </row>
-    <row r="39" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A39" s="17"/>
       <c r="C39" s="19" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>30</v>
@@ -3956,13 +3944,13 @@
         <v>15</v>
       </c>
       <c r="G39" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="20">
         <v>15</v>
       </c>
       <c r="I39" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="21">
         <v>1</v>
@@ -3999,22 +3987,28 @@
       <c r="BL39" s="22"/>
       <c r="BM39" s="22"/>
     </row>
-    <row r="40" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A40" s="17"/>
       <c r="C40" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F40" s="20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G40" s="20">
-        <v>1</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="20">
+        <v>15</v>
+      </c>
+      <c r="I40" s="20">
+        <v>2</v>
+      </c>
       <c r="J40" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
@@ -4048,17 +4042,17 @@
       <c r="BL40" s="22"/>
       <c r="BM40" s="22"/>
     </row>
-    <row r="41" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A41" s="17"/>
       <c r="C41" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="20">
         <v>1</v>
       </c>
       <c r="G41" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -4097,17 +4091,17 @@
       <c r="BL41" s="22"/>
       <c r="BM41" s="22"/>
     </row>
-    <row r="42" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A42" s="17"/>
       <c r="C42" s="19" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="20">
         <v>1</v>
       </c>
       <c r="G42" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -4146,28 +4140,22 @@
       <c r="BL42" s="22"/>
       <c r="BM42" s="22"/>
     </row>
-    <row r="43" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A43" s="17"/>
       <c r="C43" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>61</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E43" s="32"/>
       <c r="F43" s="20">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G43" s="20">
-        <v>1</v>
-      </c>
-      <c r="H43" s="20">
-        <v>38</v>
-      </c>
-      <c r="I43" s="20">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
       <c r="J43" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -4201,10 +4189,10 @@
       <c r="BL43" s="22"/>
       <c r="BM43" s="22"/>
     </row>
-    <row r="44" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A44" s="17"/>
       <c r="C44" s="19" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>61</v>
@@ -4213,13 +4201,13 @@
         <v>38</v>
       </c>
       <c r="G44" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="20">
         <v>38</v>
       </c>
       <c r="I44" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="21">
         <v>1</v>
@@ -4256,22 +4244,22 @@
       <c r="BL44" s="22"/>
       <c r="BM44" s="22"/>
     </row>
-    <row r="45" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A45" s="17"/>
       <c r="C45" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F45" s="20">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G45" s="20">
         <v>2</v>
       </c>
       <c r="H45" s="20">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I45" s="20">
         <v>2</v>
@@ -4311,25 +4299,25 @@
       <c r="BL45" s="22"/>
       <c r="BM45" s="22"/>
     </row>
-    <row r="46" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A46" s="17"/>
       <c r="C46" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" s="21">
         <v>1</v>
@@ -4366,22 +4354,28 @@
       <c r="BL46" s="22"/>
       <c r="BM46" s="22"/>
     </row>
-    <row r="47" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A47" s="17"/>
       <c r="C47" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F47" s="20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G47" s="20">
-        <v>2</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="H47" s="20">
+        <v>14</v>
+      </c>
+      <c r="I47" s="20">
+        <v>3</v>
+      </c>
       <c r="J47" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -4415,22 +4409,26 @@
       <c r="BL47" s="22"/>
       <c r="BM47" s="22"/>
     </row>
-    <row r="48" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A48" s="17"/>
       <c r="C48" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F48" s="20">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G48" s="20">
-        <v>3</v>
-      </c>
-      <c r="H48" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H48" s="20">
+        <v>43</v>
+      </c>
       <c r="I48" s="20"/>
       <c r="J48" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -4464,24 +4462,28 @@
       <c r="BL48" s="22"/>
       <c r="BM48" s="22"/>
     </row>
-    <row r="49" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="17" t="s">
-        <v>108</v>
-      </c>
+    <row r="49" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A49" s="17"/>
       <c r="C49" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F49" s="20">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G49" s="20">
-        <v>1</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="20">
+        <v>43</v>
+      </c>
+      <c r="I49" s="20">
+        <v>2</v>
+      </c>
       <c r="J49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -4515,22 +4517,30 @@
       <c r="BL49" s="22"/>
       <c r="BM49" s="22"/>
     </row>
-    <row r="50" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A50" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="C50" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="32"/>
+        <v>109</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F50" s="20">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G50" s="20">
         <v>1</v>
       </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="H50" s="20">
+        <v>28</v>
+      </c>
+      <c r="I50" s="20">
+        <v>1</v>
+      </c>
       <c r="J50" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -4564,22 +4574,28 @@
       <c r="BL50" s="22"/>
       <c r="BM50" s="22"/>
     </row>
-    <row r="51" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A51" s="17"/>
       <c r="C51" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="32"/>
+        <v>110</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F51" s="20">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="H51" s="20">
+        <v>28</v>
+      </c>
+      <c r="I51" s="20">
+        <v>1</v>
+      </c>
       <c r="J51" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -4613,10 +4629,10 @@
       <c r="BL51" s="22"/>
       <c r="BM51" s="22"/>
     </row>
-    <row r="52" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A52" s="17"/>
       <c r="C52" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="20">
@@ -4662,9 +4678,11 @@
       <c r="BL52" s="22"/>
       <c r="BM52" s="22"/>
     </row>
-    <row r="53" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A53" s="17"/>
-      <c r="C53" s="19"/>
+      <c r="C53" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="E53" s="32"/>
       <c r="F53" s="20">
         <v>1</v>
@@ -4709,7 +4727,7 @@
       <c r="BL53" s="22"/>
       <c r="BM53" s="22"/>
     </row>
-    <row r="54" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="17"/>
       <c r="C54" s="19"/>
       <c r="E54" s="32"/>
@@ -4756,7 +4774,7 @@
       <c r="BL54" s="22"/>
       <c r="BM54" s="22"/>
     </row>
-    <row r="55" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A55" s="17"/>
       <c r="C55" s="19"/>
       <c r="E55" s="32"/>
@@ -4803,7 +4821,7 @@
       <c r="BL55" s="22"/>
       <c r="BM55" s="22"/>
     </row>
-    <row r="56" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A56" s="17"/>
       <c r="C56" s="19"/>
       <c r="E56" s="32"/>
@@ -4850,7 +4868,7 @@
       <c r="BL56" s="22"/>
       <c r="BM56" s="22"/>
     </row>
-    <row r="57" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A57" s="17"/>
       <c r="C57" s="19"/>
       <c r="E57" s="32"/>
@@ -4897,7 +4915,7 @@
       <c r="BL57" s="22"/>
       <c r="BM57" s="22"/>
     </row>
-    <row r="58" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A58" s="17"/>
       <c r="C58" s="19"/>
       <c r="E58" s="32"/>
@@ -4944,7 +4962,7 @@
       <c r="BL58" s="22"/>
       <c r="BM58" s="22"/>
     </row>
-    <row r="59" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A59" s="17"/>
       <c r="C59" s="19"/>
       <c r="E59" s="32"/>
@@ -4991,6 +5009,53 @@
       <c r="BL59" s="22"/>
       <c r="BM59" s="22"/>
     </row>
+    <row r="60" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A60" s="17"/>
+      <c r="C60" s="19"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="20">
+        <v>1</v>
+      </c>
+      <c r="G60" s="20">
+        <v>1</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21">
+        <v>0</v>
+      </c>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="BD60" s="22"/>
+      <c r="BE60" s="22"/>
+      <c r="BF60" s="22"/>
+      <c r="BG60" s="22"/>
+      <c r="BH60" s="22"/>
+      <c r="BI60" s="22"/>
+      <c r="BJ60" s="22"/>
+      <c r="BK60" s="22"/>
+      <c r="BL60" s="22"/>
+      <c r="BM60" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C2:G3"/>
@@ -5008,7 +5073,7 @@
     <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="L10:BL23 L25:BL59 L24:BK24 BM10:BM59">
+  <conditionalFormatting sqref="L10:BL23 L25:BL60 L24:BK24 BM10:BM60">
     <cfRule type="expression" dxfId="19" priority="50">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -5058,23 +5123,25 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>61913</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>23813</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>204788</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>14288</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5086,7 +5153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM48"/>
@@ -5095,37 +5162,37 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1328125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="51" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.796875" style="51" customWidth="1"/>
-    <col min="12" max="16" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.46484375" style="51" customWidth="1"/>
-    <col min="18" max="27" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="51" customWidth="1"/>
+    <col min="12" max="16" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="51" customWidth="1"/>
+    <col min="18" max="27" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:65" ht="19" customHeight="1">
       <c r="C2" s="59" t="s">
         <v>27</v>
       </c>
@@ -5145,7 +5212,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5173,7 +5240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" ht="27" customHeight="1">
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -5183,7 +5250,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1">
       <c r="C4" s="60" t="s">
         <v>93</v>
       </c>
@@ -5227,7 +5294,7 @@
       </c>
       <c r="AR4" s="61">
         <f ca="1">TODAY()</f>
-        <v>42700</v>
+        <v>42702</v>
       </c>
       <c r="AS4" s="61"/>
       <c r="AT4" s="61"/>
@@ -5238,7 +5305,7 @@
       <c r="AZ4" s="51"/>
       <c r="BA4" s="51"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65">
       <c r="G5" s="1"/>
       <c r="L5" s="63" t="s">
         <v>13</v>
@@ -5280,7 +5347,7 @@
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65">
       <c r="G6" s="1"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
@@ -5299,7 +5366,7 @@
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -5376,7 +5443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -5567,7 +5634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="56"/>
@@ -5742,7 +5809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" ht="19" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -5782,7 +5849,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" ht="18.75" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
@@ -5822,7 +5889,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" ht="19" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
@@ -5860,7 +5927,7 @@
       <c r="BL12" s="51"/>
       <c r="BM12" s="51"/>
     </row>
-    <row r="13" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" ht="19" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
@@ -5896,7 +5963,7 @@
       <c r="BL13" s="51"/>
       <c r="BM13" s="51"/>
     </row>
-    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" ht="19" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -5932,7 +5999,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" ht="19" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
@@ -5970,7 +6037,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" ht="19" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -6008,7 +6075,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:65" ht="19" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -6046,7 +6113,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:65" ht="19" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
@@ -6084,7 +6151,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:65" ht="19" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -6124,7 +6191,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:65" ht="19" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -6162,7 +6229,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:65" ht="19" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -6200,7 +6267,7 @@
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
     </row>
-    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:65" ht="19" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -6238,7 +6305,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="54"/>
       <c r="C23" s="19" t="s">
@@ -6295,7 +6362,7 @@
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
     </row>
-    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:65" ht="19" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -6333,7 +6400,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:65">
       <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
@@ -6369,7 +6436,7 @@
       <c r="BL25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:65">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
@@ -6407,7 +6474,7 @@
       <c r="BL26" s="51"/>
       <c r="BM26" s="51"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:65">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
@@ -6445,7 +6512,7 @@
       <c r="BL27" s="51"/>
       <c r="BM27" s="51"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:65">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
@@ -6483,7 +6550,7 @@
       <c r="BL28" s="51"/>
       <c r="BM28" s="51"/>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:65">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
@@ -6540,7 +6607,7 @@
       <c r="BL29" s="58"/>
       <c r="BM29" s="58"/>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:65">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
@@ -6597,7 +6664,7 @@
       <c r="BL30" s="58"/>
       <c r="BM30" s="58"/>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:65">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
@@ -6654,7 +6721,7 @@
       <c r="BL31" s="58"/>
       <c r="BM31" s="58"/>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:65">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
@@ -6692,7 +6759,7 @@
       <c r="BL32" s="51"/>
       <c r="BM32" s="51"/>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:65">
       <c r="A33" s="17" t="s">
         <v>101</v>
       </c>
@@ -6724,7 +6791,7 @@
       <c r="BL33" s="51"/>
       <c r="BM33" s="51"/>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:65">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
@@ -6754,7 +6821,7 @@
       <c r="BL34" s="51"/>
       <c r="BM34" s="51"/>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:65">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
@@ -6784,7 +6851,7 @@
       <c r="BL35" s="51"/>
       <c r="BM35" s="51"/>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:65">
       <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
@@ -6816,7 +6883,7 @@
       <c r="BL36" s="51"/>
       <c r="BM36" s="51"/>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:65">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19" t="s">
@@ -6842,7 +6909,7 @@
       <c r="BL37" s="51"/>
       <c r="BM37" s="51"/>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:65">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
@@ -6872,7 +6939,7 @@
       <c r="BL38" s="51"/>
       <c r="BM38" s="51"/>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:65">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -6900,7 +6967,7 @@
       <c r="BL39" s="51"/>
       <c r="BM39" s="51"/>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:65">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -6928,7 +6995,7 @@
       <c r="BL40" s="51"/>
       <c r="BM40" s="51"/>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:65">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -6956,7 +7023,7 @@
       <c r="BL41" s="51"/>
       <c r="BM41" s="51"/>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:65">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -6984,7 +7051,7 @@
       <c r="BL42" s="51"/>
       <c r="BM42" s="51"/>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:65">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -7012,7 +7079,7 @@
       <c r="BL43" s="51"/>
       <c r="BM43" s="51"/>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:65">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -7040,7 +7107,7 @@
       <c r="BL44" s="51"/>
       <c r="BM44" s="51"/>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:65">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -7068,7 +7135,7 @@
       <c r="BL45" s="51"/>
       <c r="BM45" s="51"/>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:65">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
@@ -7096,7 +7163,7 @@
       <c r="BL46" s="51"/>
       <c r="BM46" s="51"/>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:65">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
@@ -7124,7 +7191,7 @@
       <c r="BL47" s="51"/>
       <c r="BM47" s="51"/>
     </row>
-    <row r="48" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:65" s="9" customFormat="1">
       <c r="A48" s="17"/>
       <c r="B48" s="54"/>
       <c r="C48" s="19"/>
@@ -7173,11 +7240,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -7186,6 +7248,11 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:BM48">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -7237,23 +7304,25 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>61913</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>23813</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>204788</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>14288</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>Plan</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>Get recent ratings data from the backend</t>
+  </si>
+  <si>
+    <t>Calculate overall quality when reviews are added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate average of each ratings </t>
+  </si>
+  <si>
+    <t>Create collections for rooms and its methods</t>
   </si>
 </sst>
 </file>
@@ -949,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1132,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,7 +1560,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="43"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="44"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1877,10 +1889,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BM60"/>
+  <dimension ref="A2:BM63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1918,13 +1930,13 @@
   <sheetData>
     <row r="2" spans="1:65" ht="19" customHeight="1">
       <c r="B2" s="52"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="36"/>
@@ -1937,7 +1949,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -1968,65 +1980,65 @@
     <row r="3" spans="1:65" ht="27" customHeight="1">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:65" ht="18.75" customHeight="1">
       <c r="B4" s="53"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="62">
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="63">
         <v>42660</v>
       </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="63" t="s">
+      <c r="AA4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="62">
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="63">
         <v>42688</v>
       </c>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
       <c r="AI4" s="28"/>
       <c r="AJ4" s="28"/>
       <c r="AK4" s="28"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="61">
+      <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42702</v>
-      </c>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
+        <v>42703</v>
+      </c>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
       <c r="AY4" s="28"/>
@@ -2035,42 +2047,42 @@
     </row>
     <row r="5" spans="1:65">
       <c r="G5" s="1"/>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62">
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63">
         <v>42675</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="63" t="s">
+      <c r="AA5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="62">
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="63">
         <v>42712</v>
       </c>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63" t="s">
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
       <c r="AW5" s="28"/>
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
@@ -2993,83 +3005,83 @@
       <c r="BM20" s="51"/>
     </row>
     <row r="21" spans="1:65" ht="19" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="20">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G21" s="20">
         <v>1</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="20">
+        <v>44</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1</v>
+      </c>
       <c r="J21" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="22"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
       <c r="AA21" s="24"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="51"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="51"/>
-      <c r="BM21" s="51"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="59"/>
+      <c r="BJ21" s="59"/>
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="59"/>
+      <c r="BM21" s="59"/>
     </row>
     <row r="22" spans="1:65" ht="19" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" s="18"/>
-      <c r="E22" s="32" t="s">
-        <v>61</v>
-      </c>
+      <c r="E22" s="32"/>
       <c r="F22" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="20">
         <v>1</v>
       </c>
-      <c r="H22" s="20">
-        <v>12</v>
-      </c>
-      <c r="I22" s="20">
-        <v>1</v>
-      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="22"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
       <c r="AA22" s="24"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
       <c r="BD22" s="51"/>
       <c r="BE22" s="51"/>
       <c r="BF22" s="51"/>
@@ -3085,24 +3097,26 @@
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="32" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F23" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="20">
         <v>12</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20">
+        <v>1</v>
+      </c>
       <c r="J23" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="29"/>
@@ -3140,40 +3154,46 @@
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="20">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="G24" s="20">
+        <v>3</v>
+      </c>
+      <c r="H24" s="20">
+        <v>12</v>
+      </c>
       <c r="I24" s="20"/>
       <c r="J24" s="21">
         <v>0</v>
       </c>
       <c r="K24" s="22"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
       <c r="AA24" s="24"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
       <c r="BD24" s="51"/>
       <c r="BE24" s="51"/>
       <c r="BF24" s="51"/>
@@ -3182,69 +3202,63 @@
       <c r="BI24" s="51"/>
       <c r="BJ24" s="51"/>
       <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:65" ht="19" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BM25" s="51"/>
+    </row>
+    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A26" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="20">
-        <v>6</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20">
-        <v>6</v>
-      </c>
-      <c r="I25" s="20">
-        <v>1</v>
-      </c>
-      <c r="J25" s="21">
-        <v>1</v>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="BD25" s="22"/>
-      <c r="BE25" s="22"/>
-      <c r="BF25" s="22"/>
-      <c r="BG25" s="22"/>
-      <c r="BH25" s="22"/>
-      <c r="BI25" s="22"/>
-      <c r="BJ25" s="22"/>
-      <c r="BK25" s="22"/>
-      <c r="BL25" s="22"/>
-      <c r="BM25" s="22"/>
-    </row>
-    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="C26" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>30</v>
@@ -3299,19 +3313,19 @@
     <row r="27" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="17"/>
       <c r="C27" s="19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G27" s="20">
         <v>1</v>
       </c>
       <c r="H27" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I27" s="20">
         <v>1</v>
@@ -3354,21 +3368,25 @@
     <row r="28" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A28" s="17"/>
       <c r="C28" s="19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F28" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="20">
         <v>1</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="20">
+        <v>10</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1</v>
+      </c>
       <c r="J28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -3405,14 +3423,16 @@
     <row r="29" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A29" s="17"/>
       <c r="C29" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -3454,25 +3474,19 @@
     <row r="30" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A30" s="17"/>
       <c r="C30" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>30</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E30" s="32"/>
       <c r="F30" s="20">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G30" s="20">
         <v>2</v>
       </c>
-      <c r="H30" s="20">
-        <v>31</v>
-      </c>
-      <c r="I30" s="20">
-        <v>2</v>
-      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -3509,21 +3523,25 @@
     <row r="31" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A31" s="17"/>
       <c r="C31" s="19" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F31" s="20">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>31</v>
+      </c>
+      <c r="I31" s="20">
+        <v>2</v>
+      </c>
       <c r="J31" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -3560,7 +3578,7 @@
     <row r="32" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A32" s="17"/>
       <c r="C32" s="19" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="20">
@@ -3607,27 +3625,21 @@
       <c r="BM32" s="22"/>
     </row>
     <row r="33" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="A33" s="17"/>
       <c r="C33" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>36</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E33" s="32"/>
       <c r="F33" s="20">
         <v>11</v>
       </c>
       <c r="G33" s="20">
-        <v>2</v>
-      </c>
-      <c r="H33" s="20">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -3662,25 +3674,29 @@
       <c r="BM33" s="22"/>
     </row>
     <row r="34" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="C34" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" s="20">
         <v>2</v>
       </c>
       <c r="H34" s="20">
-        <v>13</v>
-      </c>
-      <c r="I34" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="I34" s="20">
+        <v>2</v>
+      </c>
       <c r="J34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -3717,19 +3733,19 @@
     <row r="35" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="C35" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="20">
         <v>2</v>
       </c>
       <c r="H35" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="21">
@@ -3770,19 +3786,19 @@
     <row r="36" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A36" s="17"/>
       <c r="C36" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="21">
@@ -3821,29 +3837,25 @@
       <c r="BM36" s="22"/>
     </row>
     <row r="37" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A37" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="A37" s="17"/>
       <c r="C37" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F37" s="20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G37" s="20">
         <v>1</v>
       </c>
       <c r="H37" s="20">
-        <v>15</v>
-      </c>
-      <c r="I37" s="20">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I37" s="20"/>
       <c r="J37" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -3878,9 +3890,11 @@
       <c r="BM37" s="22"/>
     </row>
     <row r="38" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A38" s="17"/>
+      <c r="A38" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="C38" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>30</v>
@@ -3935,7 +3949,7 @@
     <row r="39" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A39" s="17"/>
       <c r="C39" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>30</v>
@@ -3990,7 +4004,7 @@
     <row r="40" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A40" s="17"/>
       <c r="C40" s="19" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E40" s="32" t="s">
         <v>30</v>
@@ -3999,13 +4013,13 @@
         <v>15</v>
       </c>
       <c r="G40" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="20">
         <v>15</v>
       </c>
       <c r="I40" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="21">
         <v>1</v>
@@ -4045,19 +4059,25 @@
     <row r="41" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A41" s="17"/>
       <c r="C41" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F41" s="20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G41" s="20">
-        <v>1</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="20">
+        <v>15</v>
+      </c>
+      <c r="I41" s="20">
+        <v>2</v>
+      </c>
       <c r="J41" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
@@ -4094,19 +4114,25 @@
     <row r="42" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A42" s="17"/>
       <c r="C42" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F42" s="20">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G42" s="20">
-        <v>2</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="20">
+        <v>35</v>
+      </c>
+      <c r="I42" s="20">
+        <v>1</v>
+      </c>
       <c r="J42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -4143,14 +4169,14 @@
     <row r="43" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A43" s="17"/>
       <c r="C43" s="19" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="20">
         <v>1</v>
       </c>
       <c r="G43" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -4192,25 +4218,19 @@
     <row r="44" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A44" s="17"/>
       <c r="C44" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>61</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E44" s="32"/>
       <c r="F44" s="20">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G44" s="20">
-        <v>1</v>
-      </c>
-      <c r="H44" s="20">
-        <v>38</v>
-      </c>
-      <c r="I44" s="20">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -4247,7 +4267,7 @@
     <row r="45" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A45" s="17"/>
       <c r="C45" s="19" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>61</v>
@@ -4256,13 +4276,13 @@
         <v>38</v>
       </c>
       <c r="G45" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="20">
         <v>38</v>
       </c>
       <c r="I45" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="21">
         <v>1</v>
@@ -4302,19 +4322,19 @@
     <row r="46" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A46" s="17"/>
       <c r="C46" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F46" s="20">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G46" s="20">
         <v>2</v>
       </c>
       <c r="H46" s="20">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I46" s="20">
         <v>2</v>
@@ -4357,22 +4377,22 @@
     <row r="47" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A47" s="17"/>
       <c r="C47" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="21">
         <v>1</v>
@@ -4412,23 +4432,25 @@
     <row r="48" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A48" s="17"/>
       <c r="C48" s="19" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E48" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="20">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G48" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="20">
-        <v>43</v>
-      </c>
-      <c r="I48" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="I48" s="20">
+        <v>3</v>
+      </c>
       <c r="J48" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -4465,7 +4487,7 @@
     <row r="49" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A49" s="17"/>
       <c r="C49" s="19" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E49" s="32" t="s">
         <v>30</v>
@@ -4518,26 +4540,24 @@
       <c r="BM49" s="22"/>
     </row>
     <row r="50" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="A50" s="17"/>
       <c r="C50" s="19" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="20">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G50" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" s="20">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I50" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" s="21">
         <v>1</v>
@@ -4577,19 +4597,19 @@
     <row r="51" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A51" s="17"/>
       <c r="C51" s="19" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="20">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G51" s="20">
         <v>1</v>
       </c>
       <c r="H51" s="20">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I51" s="20">
         <v>1</v>
@@ -4632,11 +4652,13 @@
     <row r="52" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A52" s="17"/>
       <c r="C52" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="32"/>
+        <v>119</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F52" s="20">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G52" s="20">
         <v>1</v>
@@ -4679,21 +4701,29 @@
       <c r="BM52" s="22"/>
     </row>
     <row r="53" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
-      <c r="A53" s="17"/>
+      <c r="A53" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="C53" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="32"/>
+        <v>109</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F53" s="20">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G53" s="20">
         <v>1</v>
       </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="H53" s="20">
+        <v>28</v>
+      </c>
+      <c r="I53" s="20">
+        <v>1</v>
+      </c>
       <c r="J53" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -4729,18 +4759,26 @@
     </row>
     <row r="54" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="17"/>
-      <c r="C54" s="19"/>
-      <c r="E54" s="32"/>
+      <c r="C54" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F54" s="20">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="H54" s="20">
+        <v>28</v>
+      </c>
+      <c r="I54" s="20">
+        <v>1</v>
+      </c>
       <c r="J54" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -4776,7 +4814,9 @@
     </row>
     <row r="55" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A55" s="17"/>
-      <c r="C55" s="19"/>
+      <c r="C55" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="E55" s="32"/>
       <c r="F55" s="20">
         <v>1</v>
@@ -4823,7 +4863,9 @@
     </row>
     <row r="56" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A56" s="17"/>
-      <c r="C56" s="19"/>
+      <c r="C56" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="E56" s="32"/>
       <c r="F56" s="20">
         <v>1</v>
@@ -5056,6 +5098,147 @@
       <c r="BL60" s="22"/>
       <c r="BM60" s="22"/>
     </row>
+    <row r="61" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A61" s="17"/>
+      <c r="C61" s="19"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="20">
+        <v>1</v>
+      </c>
+      <c r="G61" s="20">
+        <v>1</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21">
+        <v>0</v>
+      </c>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="BD61" s="22"/>
+      <c r="BE61" s="22"/>
+      <c r="BF61" s="22"/>
+      <c r="BG61" s="22"/>
+      <c r="BH61" s="22"/>
+      <c r="BI61" s="22"/>
+      <c r="BJ61" s="22"/>
+      <c r="BK61" s="22"/>
+      <c r="BL61" s="22"/>
+      <c r="BM61" s="22"/>
+    </row>
+    <row r="62" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="C62" s="19"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="20">
+        <v>1</v>
+      </c>
+      <c r="G62" s="20">
+        <v>1</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21">
+        <v>0</v>
+      </c>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22"/>
+      <c r="BD62" s="22"/>
+      <c r="BE62" s="22"/>
+      <c r="BF62" s="22"/>
+      <c r="BG62" s="22"/>
+      <c r="BH62" s="22"/>
+      <c r="BI62" s="22"/>
+      <c r="BJ62" s="22"/>
+      <c r="BK62" s="22"/>
+      <c r="BL62" s="22"/>
+      <c r="BM62" s="22"/>
+    </row>
+    <row r="63" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+      <c r="A63" s="17"/>
+      <c r="C63" s="19"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="20">
+        <v>1</v>
+      </c>
+      <c r="G63" s="20">
+        <v>1</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21">
+        <v>0</v>
+      </c>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="BD63" s="22"/>
+      <c r="BE63" s="22"/>
+      <c r="BF63" s="22"/>
+      <c r="BG63" s="22"/>
+      <c r="BH63" s="22"/>
+      <c r="BI63" s="22"/>
+      <c r="BJ63" s="22"/>
+      <c r="BK63" s="22"/>
+      <c r="BL63" s="22"/>
+      <c r="BM63" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C2:G3"/>
@@ -5073,7 +5256,7 @@
     <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="L10:BL23 L25:BL60 L24:BK24 BM10:BM60">
+  <conditionalFormatting sqref="L10:BL24 L26:BL63 L25:BK25 BM10:BM63">
     <cfRule type="expression" dxfId="19" priority="50">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -5193,14 +5376,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:65" ht="19" customHeight="1">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="L2" s="37" t="s">
@@ -5212,7 +5395,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5241,64 +5424,64 @@
       </c>
     </row>
     <row r="3" spans="1:65" ht="27" customHeight="1">
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:65" ht="18.75" customHeight="1">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="62">
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="63">
         <v>42660</v>
       </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="63" t="s">
+      <c r="AA4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="62">
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="63">
         <v>42688</v>
       </c>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
       <c r="AI4" s="51"/>
       <c r="AJ4" s="51"/>
       <c r="AK4" s="51"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="61">
+      <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42702</v>
-      </c>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
+        <v>42703</v>
+      </c>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
       <c r="AW4" s="51"/>
       <c r="AX4" s="51"/>
       <c r="AY4" s="51"/>
@@ -5307,42 +5490,42 @@
     </row>
     <row r="5" spans="1:65">
       <c r="G5" s="1"/>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62">
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63">
         <v>42675</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="63" t="s">
+      <c r="AA5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="62">
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="63">
         <v>42712</v>
       </c>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63" t="s">
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
       <c r="AW5" s="51"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
@@ -7240,6 +7423,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -7248,11 +7436,6 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:BM48">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1560,7 +1560,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="44"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="45"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1891,8 +1891,8 @@
   </sheetPr>
   <dimension ref="A2:BM63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1949,7 +1949,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42703</v>
+        <v>42704</v>
       </c>
       <c r="AS4" s="62"/>
       <c r="AT4" s="62"/>
@@ -5395,7 +5395,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42703</v>
+        <v>42704</v>
       </c>
       <c r="AS4" s="62"/>
       <c r="AT4" s="62"/>
@@ -7423,11 +7423,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -7436,6 +7431,11 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:BM48">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918"/>
   </bookViews>
   <sheets>
     <sheet name="engineering" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="today" localSheetId="1">business!$AR$4</definedName>
     <definedName name="today">engineering!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>Plan</t>
   </si>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1560,7 +1560,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="45"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="50"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1574,28 +1574,31 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>61913</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>23813</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1603,6 +1606,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1620,28 +1629,31 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>61913</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>23813</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
+            <xdr:cNvPr id="2049" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1649,6 +1661,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1886,49 +1904,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="28" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="28" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="28" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" style="28" customWidth="1"/>
+    <col min="12" max="16" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.46484375" style="28" customWidth="1"/>
+    <col min="18" max="27" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="2.6640625" style="1"/>
-    <col min="59" max="60" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19" customHeight="1">
+    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="52"/>
       <c r="C2" s="60" t="s">
         <v>27</v>
@@ -1949,7 +1967,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -1977,7 +1995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1">
+    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="60"/>
@@ -1989,7 +2007,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="53"/>
       <c r="C4" s="61" t="s">
         <v>92</v>
@@ -2034,7 +2052,7 @@
       </c>
       <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42704</v>
+        <v>42709</v>
       </c>
       <c r="AS4" s="62"/>
       <c r="AT4" s="62"/>
@@ -2045,7 +2063,7 @@
       <c r="AZ4" s="28"/>
       <c r="BA4" s="28"/>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
       <c r="L5" s="64" t="s">
         <v>13</v>
@@ -2087,7 +2105,7 @@
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -2106,7 +2124,7 @@
       <c r="AX6" s="28"/>
       <c r="AY6" s="28"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -2183,7 +2201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="35"/>
@@ -2549,7 +2567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19" customHeight="1">
+    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
@@ -2589,7 +2607,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="19" customHeight="1">
+    <row r="11" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -2624,7 +2642,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="12" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -2679,7 +2697,7 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
     </row>
-    <row r="13" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="13" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -2734,7 +2752,7 @@
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
     </row>
-    <row r="14" spans="1:65" ht="19" customHeight="1">
+    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -2772,7 +2790,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19" customHeight="1">
+    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
@@ -2812,7 +2830,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19" customHeight="1">
+    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -2850,7 +2868,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19" customHeight="1">
+    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -2888,7 +2906,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19" customHeight="1">
+    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>65</v>
       </c>
@@ -2928,7 +2946,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19" customHeight="1">
+    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
@@ -2966,7 +2984,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19" customHeight="1">
+    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -3004,7 +3022,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19" customHeight="1">
+    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -3061,7 +3079,7 @@
       <c r="BL21" s="59"/>
       <c r="BM21" s="59"/>
     </row>
-    <row r="22" spans="1:65" ht="19" customHeight="1">
+    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -3093,7 +3111,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" ht="19" customHeight="1">
+    <row r="23" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
@@ -3150,7 +3168,7 @@
       <c r="BL23" s="51"/>
       <c r="BM23" s="51"/>
     </row>
-    <row r="24" spans="1:65" ht="19" customHeight="1">
+    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -3205,7 +3223,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" ht="19" customHeight="1">
+    <row r="25" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
@@ -3253,7 +3271,7 @@
       <c r="BK25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="26" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>74</v>
       </c>
@@ -3310,7 +3328,7 @@
       <c r="BL26" s="22"/>
       <c r="BM26" s="22"/>
     </row>
-    <row r="27" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="27" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="C27" s="19" t="s">
         <v>51</v>
@@ -3365,7 +3383,7 @@
       <c r="BL27" s="22"/>
       <c r="BM27" s="22"/>
     </row>
-    <row r="28" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="28" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="C28" s="19" t="s">
         <v>59</v>
@@ -3420,7 +3438,7 @@
       <c r="BL28" s="22"/>
       <c r="BM28" s="22"/>
     </row>
-    <row r="29" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="29" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="C29" s="19" t="s">
         <v>52</v>
@@ -3471,7 +3489,7 @@
       <c r="BL29" s="22"/>
       <c r="BM29" s="22"/>
     </row>
-    <row r="30" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="30" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="C30" s="19" t="s">
         <v>69</v>
@@ -3520,7 +3538,7 @@
       <c r="BL30" s="22"/>
       <c r="BM30" s="22"/>
     </row>
-    <row r="31" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="31" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="C31" s="19" t="s">
         <v>117</v>
@@ -3575,7 +3593,7 @@
       <c r="BL31" s="22"/>
       <c r="BM31" s="22"/>
     </row>
-    <row r="32" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="32" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="C32" s="19" t="s">
         <v>53</v>
@@ -3624,7 +3642,7 @@
       <c r="BL32" s="22"/>
       <c r="BM32" s="22"/>
     </row>
-    <row r="33" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="33" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
       <c r="C33" s="19" t="s">
         <v>66</v>
@@ -3673,7 +3691,7 @@
       <c r="BL33" s="22"/>
       <c r="BM33" s="22"/>
     </row>
-    <row r="34" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="34" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>75</v>
       </c>
@@ -3730,7 +3748,7 @@
       <c r="BL34" s="22"/>
       <c r="BM34" s="22"/>
     </row>
-    <row r="35" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="35" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="C35" s="19" t="s">
         <v>71</v>
@@ -3783,7 +3801,7 @@
       <c r="BL35" s="22"/>
       <c r="BM35" s="22"/>
     </row>
-    <row r="36" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="36" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
       <c r="C36" s="19" t="s">
         <v>68</v>
@@ -3836,7 +3854,7 @@
       <c r="BL36" s="22"/>
       <c r="BM36" s="22"/>
     </row>
-    <row r="37" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="37" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="C37" s="19" t="s">
         <v>70</v>
@@ -3889,7 +3907,7 @@
       <c r="BL37" s="22"/>
       <c r="BM37" s="22"/>
     </row>
-    <row r="38" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="38" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>72</v>
       </c>
@@ -3946,7 +3964,7 @@
       <c r="BL38" s="22"/>
       <c r="BM38" s="22"/>
     </row>
-    <row r="39" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="39" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="C39" s="19" t="s">
         <v>76</v>
@@ -4001,7 +4019,7 @@
       <c r="BL39" s="22"/>
       <c r="BM39" s="22"/>
     </row>
-    <row r="40" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="40" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="C40" s="19" t="s">
         <v>77</v>
@@ -4056,7 +4074,7 @@
       <c r="BL40" s="22"/>
       <c r="BM40" s="22"/>
     </row>
-    <row r="41" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="41" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="C41" s="19" t="s">
         <v>90</v>
@@ -4111,7 +4129,7 @@
       <c r="BL41" s="22"/>
       <c r="BM41" s="22"/>
     </row>
-    <row r="42" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="42" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="C42" s="19" t="s">
         <v>55</v>
@@ -4166,22 +4184,28 @@
       <c r="BL42" s="22"/>
       <c r="BM42" s="22"/>
     </row>
-    <row r="43" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="43" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="C43" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="32"/>
+      <c r="E43" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F43" s="20">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G43" s="20">
-        <v>2</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="H43" s="20">
+        <v>45</v>
+      </c>
+      <c r="I43" s="20">
+        <v>5</v>
+      </c>
       <c r="J43" s="21">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -4215,7 +4239,7 @@
       <c r="BL43" s="22"/>
       <c r="BM43" s="22"/>
     </row>
-    <row r="44" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="44" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="C44" s="19" t="s">
         <v>78</v>
@@ -4264,7 +4288,7 @@
       <c r="BL44" s="22"/>
       <c r="BM44" s="22"/>
     </row>
-    <row r="45" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="45" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
       <c r="C45" s="19" t="s">
         <v>56</v>
@@ -4319,7 +4343,7 @@
       <c r="BL45" s="22"/>
       <c r="BM45" s="22"/>
     </row>
-    <row r="46" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="46" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="C46" s="19" t="s">
         <v>79</v>
@@ -4374,7 +4398,7 @@
       <c r="BL46" s="22"/>
       <c r="BM46" s="22"/>
     </row>
-    <row r="47" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="47" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="17"/>
       <c r="C47" s="19" t="s">
         <v>80</v>
@@ -4429,7 +4453,7 @@
       <c r="BL47" s="22"/>
       <c r="BM47" s="22"/>
     </row>
-    <row r="48" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="48" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="17"/>
       <c r="C48" s="19" t="s">
         <v>81</v>
@@ -4484,7 +4508,7 @@
       <c r="BL48" s="22"/>
       <c r="BM48" s="22"/>
     </row>
-    <row r="49" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="49" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="17"/>
       <c r="C49" s="19" t="s">
         <v>57</v>
@@ -4539,7 +4563,7 @@
       <c r="BL49" s="22"/>
       <c r="BM49" s="22"/>
     </row>
-    <row r="50" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="50" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="17"/>
       <c r="C50" s="19" t="s">
         <v>82</v>
@@ -4594,7 +4618,7 @@
       <c r="BL50" s="22"/>
       <c r="BM50" s="22"/>
     </row>
-    <row r="51" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="51" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="17"/>
       <c r="C51" s="19" t="s">
         <v>118</v>
@@ -4649,7 +4673,7 @@
       <c r="BL51" s="22"/>
       <c r="BM51" s="22"/>
     </row>
-    <row r="52" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="52" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="17"/>
       <c r="C52" s="19" t="s">
         <v>119</v>
@@ -4700,7 +4724,7 @@
       <c r="BL52" s="22"/>
       <c r="BM52" s="22"/>
     </row>
-    <row r="53" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="53" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="17" t="s">
         <v>108</v>
       </c>
@@ -4757,7 +4781,7 @@
       <c r="BL53" s="22"/>
       <c r="BM53" s="22"/>
     </row>
-    <row r="54" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="54" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="17"/>
       <c r="C54" s="19" t="s">
         <v>110</v>
@@ -4812,7 +4836,7 @@
       <c r="BL54" s="22"/>
       <c r="BM54" s="22"/>
     </row>
-    <row r="55" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="55" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
         <v>111</v>
@@ -4861,7 +4885,7 @@
       <c r="BL55" s="22"/>
       <c r="BM55" s="22"/>
     </row>
-    <row r="56" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="56" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="17"/>
       <c r="C56" s="19" t="s">
         <v>112</v>
@@ -4910,7 +4934,7 @@
       <c r="BL56" s="22"/>
       <c r="BM56" s="22"/>
     </row>
-    <row r="57" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="57" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="17"/>
       <c r="C57" s="19"/>
       <c r="E57" s="32"/>
@@ -4957,7 +4981,7 @@
       <c r="BL57" s="22"/>
       <c r="BM57" s="22"/>
     </row>
-    <row r="58" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="58" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17"/>
       <c r="C58" s="19"/>
       <c r="E58" s="32"/>
@@ -5004,7 +5028,7 @@
       <c r="BL58" s="22"/>
       <c r="BM58" s="22"/>
     </row>
-    <row r="59" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="59" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="17"/>
       <c r="C59" s="19"/>
       <c r="E59" s="32"/>
@@ -5051,7 +5075,7 @@
       <c r="BL59" s="22"/>
       <c r="BM59" s="22"/>
     </row>
-    <row r="60" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="60" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="17"/>
       <c r="C60" s="19"/>
       <c r="E60" s="32"/>
@@ -5098,7 +5122,7 @@
       <c r="BL60" s="22"/>
       <c r="BM60" s="22"/>
     </row>
-    <row r="61" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="61" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="17"/>
       <c r="C61" s="19"/>
       <c r="E61" s="32"/>
@@ -5145,7 +5169,7 @@
       <c r="BL61" s="22"/>
       <c r="BM61" s="22"/>
     </row>
-    <row r="62" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="62" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="17"/>
       <c r="C62" s="19"/>
       <c r="E62" s="32"/>
@@ -5192,7 +5216,7 @@
       <c r="BL62" s="22"/>
       <c r="BM62" s="22"/>
     </row>
-    <row r="63" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="63" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="17"/>
       <c r="C63" s="19"/>
       <c r="E63" s="32"/>
@@ -5306,25 +5330,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>61913</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>23813</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5336,7 +5358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM48"/>
@@ -5345,37 +5367,37 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="51" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="51" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="51" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" style="51" customWidth="1"/>
+    <col min="12" max="16" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.46484375" style="51" customWidth="1"/>
+    <col min="18" max="27" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19" customHeight="1">
+    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C2" s="60" t="s">
         <v>27</v>
       </c>
@@ -5395,7 +5417,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5423,7 +5445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1">
+    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
@@ -5433,7 +5455,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="61" t="s">
         <v>93</v>
       </c>
@@ -5477,7 +5499,7 @@
       </c>
       <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42704</v>
+        <v>42709</v>
       </c>
       <c r="AS4" s="62"/>
       <c r="AT4" s="62"/>
@@ -5488,7 +5510,7 @@
       <c r="AZ4" s="51"/>
       <c r="BA4" s="51"/>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
       <c r="L5" s="64" t="s">
         <v>13</v>
@@ -5530,7 +5552,7 @@
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
@@ -5549,7 +5571,7 @@
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -5626,7 +5648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -5817,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="56"/>
@@ -5992,7 +6014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19" customHeight="1">
+    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -6032,7 +6054,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="18.75" customHeight="1">
+    <row r="11" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
@@ -6072,7 +6094,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" ht="19" customHeight="1">
+    <row r="12" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
@@ -6110,7 +6132,7 @@
       <c r="BL12" s="51"/>
       <c r="BM12" s="51"/>
     </row>
-    <row r="13" spans="1:65" ht="19" customHeight="1">
+    <row r="13" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
@@ -6146,7 +6168,7 @@
       <c r="BL13" s="51"/>
       <c r="BM13" s="51"/>
     </row>
-    <row r="14" spans="1:65" ht="19" customHeight="1">
+    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -6182,7 +6204,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19" customHeight="1">
+    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
@@ -6220,7 +6242,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19" customHeight="1">
+    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -6258,7 +6280,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19" customHeight="1">
+    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -6296,7 +6318,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19" customHeight="1">
+    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
@@ -6334,7 +6356,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19" customHeight="1">
+    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -6374,7 +6396,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19" customHeight="1">
+    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -6412,7 +6434,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19" customHeight="1">
+    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -6450,7 +6472,7 @@
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
     </row>
-    <row r="22" spans="1:65" ht="19" customHeight="1">
+    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -6488,7 +6510,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="23" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="54"/>
       <c r="C23" s="19" t="s">
@@ -6545,7 +6567,7 @@
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
     </row>
-    <row r="24" spans="1:65" ht="19" customHeight="1">
+    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -6583,7 +6605,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
@@ -6619,7 +6641,7 @@
       <c r="BL25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
@@ -6657,7 +6679,7 @@
       <c r="BL26" s="51"/>
       <c r="BM26" s="51"/>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
@@ -6695,7 +6717,7 @@
       <c r="BL27" s="51"/>
       <c r="BM27" s="51"/>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
@@ -6733,7 +6755,7 @@
       <c r="BL28" s="51"/>
       <c r="BM28" s="51"/>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
@@ -6790,7 +6812,7 @@
       <c r="BL29" s="58"/>
       <c r="BM29" s="58"/>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
@@ -6847,7 +6869,7 @@
       <c r="BL30" s="58"/>
       <c r="BM30" s="58"/>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
@@ -6904,7 +6926,7 @@
       <c r="BL31" s="58"/>
       <c r="BM31" s="58"/>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
@@ -6942,7 +6964,7 @@
       <c r="BL32" s="51"/>
       <c r="BM32" s="51"/>
     </row>
-    <row r="33" spans="1:65">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A33" s="17" t="s">
         <v>101</v>
       </c>
@@ -6974,7 +6996,7 @@
       <c r="BL33" s="51"/>
       <c r="BM33" s="51"/>
     </row>
-    <row r="34" spans="1:65">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
@@ -7004,7 +7026,7 @@
       <c r="BL34" s="51"/>
       <c r="BM34" s="51"/>
     </row>
-    <row r="35" spans="1:65">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
@@ -7034,7 +7056,7 @@
       <c r="BL35" s="51"/>
       <c r="BM35" s="51"/>
     </row>
-    <row r="36" spans="1:65">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
@@ -7066,7 +7088,7 @@
       <c r="BL36" s="51"/>
       <c r="BM36" s="51"/>
     </row>
-    <row r="37" spans="1:65">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19" t="s">
@@ -7092,7 +7114,7 @@
       <c r="BL37" s="51"/>
       <c r="BM37" s="51"/>
     </row>
-    <row r="38" spans="1:65">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
@@ -7122,7 +7144,7 @@
       <c r="BL38" s="51"/>
       <c r="BM38" s="51"/>
     </row>
-    <row r="39" spans="1:65">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -7150,7 +7172,7 @@
       <c r="BL39" s="51"/>
       <c r="BM39" s="51"/>
     </row>
-    <row r="40" spans="1:65">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -7178,7 +7200,7 @@
       <c r="BL40" s="51"/>
       <c r="BM40" s="51"/>
     </row>
-    <row r="41" spans="1:65">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -7206,7 +7228,7 @@
       <c r="BL41" s="51"/>
       <c r="BM41" s="51"/>
     </row>
-    <row r="42" spans="1:65">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -7234,7 +7256,7 @@
       <c r="BL42" s="51"/>
       <c r="BM42" s="51"/>
     </row>
-    <row r="43" spans="1:65">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -7262,7 +7284,7 @@
       <c r="BL43" s="51"/>
       <c r="BM43" s="51"/>
     </row>
-    <row r="44" spans="1:65">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -7290,7 +7312,7 @@
       <c r="BL44" s="51"/>
       <c r="BM44" s="51"/>
     </row>
-    <row r="45" spans="1:65">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -7318,7 +7340,7 @@
       <c r="BL45" s="51"/>
       <c r="BM45" s="51"/>
     </row>
-    <row r="46" spans="1:65">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
@@ -7346,7 +7368,7 @@
       <c r="BL46" s="51"/>
       <c r="BM46" s="51"/>
     </row>
-    <row r="47" spans="1:65">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
@@ -7374,7 +7396,7 @@
       <c r="BL47" s="51"/>
       <c r="BM47" s="51"/>
     </row>
-    <row r="48" spans="1:65" s="9" customFormat="1">
+    <row r="48" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="17"/>
       <c r="B48" s="54"/>
       <c r="C48" s="19"/>
@@ -7423,6 +7445,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -7431,11 +7458,6 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:BM48">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -7487,25 +7509,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>61913</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>23813</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7516,141 +7536,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1560899</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName>REDMOND\v-soujap</DisplayName>
-        <AccountId>1954</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -8690,31 +8575,142 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1560899</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName>REDMOND\v-soujap</DisplayName>
+        <AccountId>1954</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8730,4 +8726,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="engineering" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="today" localSheetId="1">business!$AR$4</definedName>
     <definedName name="today">engineering!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
   <si>
     <t>Plan</t>
   </si>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1560,7 +1560,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="50"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="51"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1574,31 +1574,28 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>61913</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>23813</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>204788</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>14288</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1606,12 +1603,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1629,31 +1620,28 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>61913</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>23813</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>204788</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>14288</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1661,12 +1649,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1904,49 +1886,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1328125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="28" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.796875" style="28" customWidth="1"/>
-    <col min="12" max="16" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.46484375" style="28" customWidth="1"/>
-    <col min="18" max="27" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="28" customWidth="1"/>
+    <col min="12" max="16" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="28" customWidth="1"/>
+    <col min="18" max="27" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="2.6640625" style="1"/>
-    <col min="59" max="60" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:65" ht="19" customHeight="1">
       <c r="B2" s="52"/>
       <c r="C2" s="60" t="s">
         <v>27</v>
@@ -1967,7 +1949,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -1995,7 +1977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" ht="27" customHeight="1">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="60"/>
@@ -2007,7 +1989,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1">
       <c r="B4" s="53"/>
       <c r="C4" s="61" t="s">
         <v>92</v>
@@ -2052,7 +2034,7 @@
       </c>
       <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="AS4" s="62"/>
       <c r="AT4" s="62"/>
@@ -2063,7 +2045,7 @@
       <c r="AZ4" s="28"/>
       <c r="BA4" s="28"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65">
       <c r="G5" s="1"/>
       <c r="L5" s="64" t="s">
         <v>13</v>
@@ -2105,7 +2087,7 @@
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65">
       <c r="G6" s="1"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -2124,7 +2106,7 @@
       <c r="AX6" s="28"/>
       <c r="AY6" s="28"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -2201,7 +2183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -2392,7 +2374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="35"/>
@@ -2567,7 +2549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" ht="19" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
@@ -2607,7 +2589,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" ht="19" customHeight="1">
       <c r="A11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -2642,7 +2624,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -2697,7 +2679,7 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
     </row>
-    <row r="13" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -2752,7 +2734,7 @@
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
     </row>
-    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" ht="19" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -2790,7 +2772,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" ht="19" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
@@ -2830,7 +2812,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" ht="19" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -2868,7 +2850,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:65" ht="19" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -2906,7 +2888,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:65" ht="19" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +2928,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:65" ht="19" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
@@ -2984,7 +2966,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:65" ht="19" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -3022,7 +3004,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:65" ht="19" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -3079,7 +3061,7 @@
       <c r="BL21" s="59"/>
       <c r="BM21" s="59"/>
     </row>
-    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:65" ht="19" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -3111,7 +3093,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:65" ht="19" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
@@ -3168,7 +3150,7 @@
       <c r="BL23" s="51"/>
       <c r="BM23" s="51"/>
     </row>
-    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:65" ht="19" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -3223,7 +3205,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:65" ht="19" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
@@ -3271,7 +3253,7 @@
       <c r="BK25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>74</v>
       </c>
@@ -3328,7 +3310,7 @@
       <c r="BL26" s="22"/>
       <c r="BM26" s="22"/>
     </row>
-    <row r="27" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="17"/>
       <c r="C27" s="19" t="s">
         <v>51</v>
@@ -3383,7 +3365,7 @@
       <c r="BL27" s="22"/>
       <c r="BM27" s="22"/>
     </row>
-    <row r="28" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A28" s="17"/>
       <c r="C28" s="19" t="s">
         <v>59</v>
@@ -3438,7 +3420,7 @@
       <c r="BL28" s="22"/>
       <c r="BM28" s="22"/>
     </row>
-    <row r="29" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A29" s="17"/>
       <c r="C29" s="19" t="s">
         <v>52</v>
@@ -3489,22 +3471,28 @@
       <c r="BL29" s="22"/>
       <c r="BM29" s="22"/>
     </row>
-    <row r="30" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A30" s="17"/>
       <c r="C30" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F30" s="20">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G30" s="20">
         <v>2</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="20">
+        <v>48</v>
+      </c>
+      <c r="I30" s="20">
+        <v>2</v>
+      </c>
       <c r="J30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -3538,7 +3526,7 @@
       <c r="BL30" s="22"/>
       <c r="BM30" s="22"/>
     </row>
-    <row r="31" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A31" s="17"/>
       <c r="C31" s="19" t="s">
         <v>117</v>
@@ -3593,7 +3581,7 @@
       <c r="BL31" s="22"/>
       <c r="BM31" s="22"/>
     </row>
-    <row r="32" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A32" s="17"/>
       <c r="C32" s="19" t="s">
         <v>53</v>
@@ -3642,7 +3630,7 @@
       <c r="BL32" s="22"/>
       <c r="BM32" s="22"/>
     </row>
-    <row r="33" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A33" s="17"/>
       <c r="C33" s="19" t="s">
         <v>66</v>
@@ -3691,7 +3679,7 @@
       <c r="BL33" s="22"/>
       <c r="BM33" s="22"/>
     </row>
-    <row r="34" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>75</v>
       </c>
@@ -3748,7 +3736,7 @@
       <c r="BL34" s="22"/>
       <c r="BM34" s="22"/>
     </row>
-    <row r="35" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="C35" s="19" t="s">
         <v>71</v>
@@ -3801,7 +3789,7 @@
       <c r="BL35" s="22"/>
       <c r="BM35" s="22"/>
     </row>
-    <row r="36" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A36" s="17"/>
       <c r="C36" s="19" t="s">
         <v>68</v>
@@ -3854,7 +3842,7 @@
       <c r="BL36" s="22"/>
       <c r="BM36" s="22"/>
     </row>
-    <row r="37" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A37" s="17"/>
       <c r="C37" s="19" t="s">
         <v>70</v>
@@ -3907,7 +3895,7 @@
       <c r="BL37" s="22"/>
       <c r="BM37" s="22"/>
     </row>
-    <row r="38" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>72</v>
       </c>
@@ -3964,7 +3952,7 @@
       <c r="BL38" s="22"/>
       <c r="BM38" s="22"/>
     </row>
-    <row r="39" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A39" s="17"/>
       <c r="C39" s="19" t="s">
         <v>76</v>
@@ -4019,7 +4007,7 @@
       <c r="BL39" s="22"/>
       <c r="BM39" s="22"/>
     </row>
-    <row r="40" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A40" s="17"/>
       <c r="C40" s="19" t="s">
         <v>77</v>
@@ -4074,7 +4062,7 @@
       <c r="BL40" s="22"/>
       <c r="BM40" s="22"/>
     </row>
-    <row r="41" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A41" s="17"/>
       <c r="C41" s="19" t="s">
         <v>90</v>
@@ -4129,7 +4117,7 @@
       <c r="BL41" s="22"/>
       <c r="BM41" s="22"/>
     </row>
-    <row r="42" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A42" s="17"/>
       <c r="C42" s="19" t="s">
         <v>55</v>
@@ -4184,7 +4172,7 @@
       <c r="BL42" s="22"/>
       <c r="BM42" s="22"/>
     </row>
-    <row r="43" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A43" s="17"/>
       <c r="C43" s="19" t="s">
         <v>60</v>
@@ -4239,7 +4227,7 @@
       <c r="BL43" s="22"/>
       <c r="BM43" s="22"/>
     </row>
-    <row r="44" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A44" s="17"/>
       <c r="C44" s="19" t="s">
         <v>78</v>
@@ -4288,7 +4276,7 @@
       <c r="BL44" s="22"/>
       <c r="BM44" s="22"/>
     </row>
-    <row r="45" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A45" s="17"/>
       <c r="C45" s="19" t="s">
         <v>56</v>
@@ -4343,7 +4331,7 @@
       <c r="BL45" s="22"/>
       <c r="BM45" s="22"/>
     </row>
-    <row r="46" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A46" s="17"/>
       <c r="C46" s="19" t="s">
         <v>79</v>
@@ -4398,7 +4386,7 @@
       <c r="BL46" s="22"/>
       <c r="BM46" s="22"/>
     </row>
-    <row r="47" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A47" s="17"/>
       <c r="C47" s="19" t="s">
         <v>80</v>
@@ -4453,7 +4441,7 @@
       <c r="BL47" s="22"/>
       <c r="BM47" s="22"/>
     </row>
-    <row r="48" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A48" s="17"/>
       <c r="C48" s="19" t="s">
         <v>81</v>
@@ -4508,7 +4496,7 @@
       <c r="BL48" s="22"/>
       <c r="BM48" s="22"/>
     </row>
-    <row r="49" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A49" s="17"/>
       <c r="C49" s="19" t="s">
         <v>57</v>
@@ -4563,7 +4551,7 @@
       <c r="BL49" s="22"/>
       <c r="BM49" s="22"/>
     </row>
-    <row r="50" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A50" s="17"/>
       <c r="C50" s="19" t="s">
         <v>82</v>
@@ -4618,7 +4606,7 @@
       <c r="BL50" s="22"/>
       <c r="BM50" s="22"/>
     </row>
-    <row r="51" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A51" s="17"/>
       <c r="C51" s="19" t="s">
         <v>118</v>
@@ -4673,7 +4661,7 @@
       <c r="BL51" s="22"/>
       <c r="BM51" s="22"/>
     </row>
-    <row r="52" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A52" s="17"/>
       <c r="C52" s="19" t="s">
         <v>119</v>
@@ -4687,10 +4675,14 @@
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="H52" s="20">
+        <v>50</v>
+      </c>
+      <c r="I52" s="20">
+        <v>2</v>
+      </c>
       <c r="J52" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -4724,7 +4716,7 @@
       <c r="BL52" s="22"/>
       <c r="BM52" s="22"/>
     </row>
-    <row r="53" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>108</v>
       </c>
@@ -4781,7 +4773,7 @@
       <c r="BL53" s="22"/>
       <c r="BM53" s="22"/>
     </row>
-    <row r="54" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="17"/>
       <c r="C54" s="19" t="s">
         <v>110</v>
@@ -4836,7 +4828,7 @@
       <c r="BL54" s="22"/>
       <c r="BM54" s="22"/>
     </row>
-    <row r="55" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
         <v>111</v>
@@ -4885,7 +4877,7 @@
       <c r="BL55" s="22"/>
       <c r="BM55" s="22"/>
     </row>
-    <row r="56" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A56" s="17"/>
       <c r="C56" s="19" t="s">
         <v>112</v>
@@ -4934,7 +4926,7 @@
       <c r="BL56" s="22"/>
       <c r="BM56" s="22"/>
     </row>
-    <row r="57" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A57" s="17"/>
       <c r="C57" s="19"/>
       <c r="E57" s="32"/>
@@ -4981,7 +4973,7 @@
       <c r="BL57" s="22"/>
       <c r="BM57" s="22"/>
     </row>
-    <row r="58" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A58" s="17"/>
       <c r="C58" s="19"/>
       <c r="E58" s="32"/>
@@ -5028,7 +5020,7 @@
       <c r="BL58" s="22"/>
       <c r="BM58" s="22"/>
     </row>
-    <row r="59" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A59" s="17"/>
       <c r="C59" s="19"/>
       <c r="E59" s="32"/>
@@ -5075,7 +5067,7 @@
       <c r="BL59" s="22"/>
       <c r="BM59" s="22"/>
     </row>
-    <row r="60" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A60" s="17"/>
       <c r="C60" s="19"/>
       <c r="E60" s="32"/>
@@ -5122,7 +5114,7 @@
       <c r="BL60" s="22"/>
       <c r="BM60" s="22"/>
     </row>
-    <row r="61" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A61" s="17"/>
       <c r="C61" s="19"/>
       <c r="E61" s="32"/>
@@ -5169,7 +5161,7 @@
       <c r="BL61" s="22"/>
       <c r="BM61" s="22"/>
     </row>
-    <row r="62" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="17"/>
       <c r="C62" s="19"/>
       <c r="E62" s="32"/>
@@ -5216,7 +5208,7 @@
       <c r="BL62" s="22"/>
       <c r="BM62" s="22"/>
     </row>
-    <row r="63" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
       <c r="A63" s="17"/>
       <c r="C63" s="19"/>
       <c r="E63" s="32"/>
@@ -5330,23 +5322,25 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>61913</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>23813</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>204788</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>14288</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5358,46 +5352,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1328125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="51" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.796875" style="51" customWidth="1"/>
-    <col min="12" max="16" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.46484375" style="51" customWidth="1"/>
-    <col min="18" max="27" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="51" customWidth="1"/>
+    <col min="12" max="16" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="51" customWidth="1"/>
+    <col min="18" max="27" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:65" ht="19" customHeight="1">
       <c r="C2" s="60" t="s">
         <v>27</v>
       </c>
@@ -5417,7 +5411,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5445,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" ht="27" customHeight="1">
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
@@ -5455,7 +5449,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1">
       <c r="C4" s="61" t="s">
         <v>93</v>
       </c>
@@ -5499,7 +5493,7 @@
       </c>
       <c r="AR4" s="62">
         <f ca="1">TODAY()</f>
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="AS4" s="62"/>
       <c r="AT4" s="62"/>
@@ -5510,7 +5504,7 @@
       <c r="AZ4" s="51"/>
       <c r="BA4" s="51"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65">
       <c r="G5" s="1"/>
       <c r="L5" s="64" t="s">
         <v>13</v>
@@ -5552,7 +5546,7 @@
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65">
       <c r="G6" s="1"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
@@ -5571,7 +5565,7 @@
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -5648,7 +5642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -5839,7 +5833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="56"/>
@@ -6014,7 +6008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" ht="19" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -6054,7 +6048,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" ht="18.75" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
@@ -6094,7 +6088,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" ht="19" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
@@ -6132,7 +6126,7 @@
       <c r="BL12" s="51"/>
       <c r="BM12" s="51"/>
     </row>
-    <row r="13" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" ht="19" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
@@ -6168,7 +6162,7 @@
       <c r="BL13" s="51"/>
       <c r="BM13" s="51"/>
     </row>
-    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" ht="19" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -6204,7 +6198,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" ht="19" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
@@ -6242,7 +6236,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" ht="19" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -6280,7 +6274,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:65" ht="19" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -6318,7 +6312,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:65" ht="19" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
@@ -6356,7 +6350,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:65" ht="19" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -6396,7 +6390,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:65" ht="19" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -6434,7 +6428,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:65" ht="19" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -6472,7 +6466,7 @@
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
     </row>
-    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:65" ht="19" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -6510,7 +6504,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="54"/>
       <c r="C23" s="19" t="s">
@@ -6567,7 +6561,7 @@
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
     </row>
-    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:65" ht="19" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -6605,7 +6599,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:65">
       <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
@@ -6641,7 +6635,7 @@
       <c r="BL25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:65">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
@@ -6679,7 +6673,7 @@
       <c r="BL26" s="51"/>
       <c r="BM26" s="51"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:65">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
@@ -6717,7 +6711,7 @@
       <c r="BL27" s="51"/>
       <c r="BM27" s="51"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:65">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
@@ -6755,7 +6749,7 @@
       <c r="BL28" s="51"/>
       <c r="BM28" s="51"/>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:65">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
@@ -6812,7 +6806,7 @@
       <c r="BL29" s="58"/>
       <c r="BM29" s="58"/>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:65">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
@@ -6869,7 +6863,7 @@
       <c r="BL30" s="58"/>
       <c r="BM30" s="58"/>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:65">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
@@ -6926,7 +6920,7 @@
       <c r="BL31" s="58"/>
       <c r="BM31" s="58"/>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:65">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
@@ -6964,7 +6958,7 @@
       <c r="BL32" s="51"/>
       <c r="BM32" s="51"/>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:65">
       <c r="A33" s="17" t="s">
         <v>101</v>
       </c>
@@ -6996,7 +6990,7 @@
       <c r="BL33" s="51"/>
       <c r="BM33" s="51"/>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:65">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
@@ -7026,7 +7020,7 @@
       <c r="BL34" s="51"/>
       <c r="BM34" s="51"/>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:65">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
@@ -7056,7 +7050,7 @@
       <c r="BL35" s="51"/>
       <c r="BM35" s="51"/>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:65">
       <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
@@ -7088,7 +7082,7 @@
       <c r="BL36" s="51"/>
       <c r="BM36" s="51"/>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:65">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19" t="s">
@@ -7114,7 +7108,7 @@
       <c r="BL37" s="51"/>
       <c r="BM37" s="51"/>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:65">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
@@ -7144,7 +7138,7 @@
       <c r="BL38" s="51"/>
       <c r="BM38" s="51"/>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:65">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -7172,7 +7166,7 @@
       <c r="BL39" s="51"/>
       <c r="BM39" s="51"/>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:65">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -7200,7 +7194,7 @@
       <c r="BL40" s="51"/>
       <c r="BM40" s="51"/>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:65">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -7228,7 +7222,7 @@
       <c r="BL41" s="51"/>
       <c r="BM41" s="51"/>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:65">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -7256,7 +7250,7 @@
       <c r="BL42" s="51"/>
       <c r="BM42" s="51"/>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:65">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -7284,7 +7278,7 @@
       <c r="BL43" s="51"/>
       <c r="BM43" s="51"/>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:65">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -7312,7 +7306,7 @@
       <c r="BL44" s="51"/>
       <c r="BM44" s="51"/>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:65">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -7340,7 +7334,7 @@
       <c r="BL45" s="51"/>
       <c r="BM45" s="51"/>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:65">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
@@ -7368,7 +7362,7 @@
       <c r="BL46" s="51"/>
       <c r="BM46" s="51"/>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:65">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
@@ -7396,7 +7390,7 @@
       <c r="BL47" s="51"/>
       <c r="BM47" s="51"/>
     </row>
-    <row r="48" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:65" s="9" customFormat="1">
       <c r="A48" s="17"/>
       <c r="B48" s="54"/>
       <c r="C48" s="19"/>
@@ -7445,11 +7439,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -7458,6 +7447,11 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:BM48">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -7509,23 +7503,25 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>61913</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>23813</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>204788</xdr:colOff>
+                    <xdr:colOff>203200</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>14288</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/documentation/ESAP_Gantt_Chart.xlsx
+++ b/documentation/ESAP_Gantt_Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23918"/>
   </bookViews>
   <sheets>
     <sheet name="engineering" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="today" localSheetId="1">business!$AR$4</definedName>
     <definedName name="today">engineering!$AR$4</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>Plan</t>
   </si>
@@ -457,9 +457,6 @@
     <t>Create descriptions of classroom rating categories</t>
   </si>
   <si>
-    <t>Add a FAQ page</t>
-  </si>
-  <si>
     <t>Get recent ratings data from the backend</t>
   </si>
   <si>
@@ -470,12 +467,18 @@
   </si>
   <si>
     <t>Create collections for rooms and its methods</t>
+  </si>
+  <si>
+    <t>Add an upcoming features page</t>
+  </si>
+  <si>
+    <t>Add a Frequently Asked Questions page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1560,7 +1566,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="51"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="53"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1574,28 +1580,31 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>61913</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>23813</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+            <xdr:cNvPr id="1029" name="Spinner 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1603,6 +1612,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1620,28 +1635,31 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>61913</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>23813</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
+            <xdr:cNvPr id="2049" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1649,6 +1667,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1886,57 +1910,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:BM63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="28" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="28" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="28" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" style="28" customWidth="1"/>
+    <col min="12" max="16" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.46484375" style="28" customWidth="1"/>
+    <col min="18" max="27" width="3.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="2.6640625" style="1"/>
-    <col min="59" max="60" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19" customHeight="1">
+    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="52"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="36"/>
@@ -1949,7 +1973,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -1977,117 +2001,117 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1">
+    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="53"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="63">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="64">
         <v>42660</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="64" t="s">
+      <c r="AA4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="63">
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="64">
         <v>42688</v>
       </c>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
       <c r="AI4" s="28"/>
       <c r="AJ4" s="28"/>
       <c r="AK4" s="28"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="62">
+      <c r="AR4" s="63">
         <f ca="1">TODAY()</f>
-        <v>42710</v>
-      </c>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
+        <v>42712</v>
+      </c>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
       <c r="AY4" s="28"/>
       <c r="AZ4" s="28"/>
       <c r="BA4" s="28"/>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63">
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64">
         <v>42675</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="64" t="s">
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="64" t="s">
+      <c r="AA5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="63">
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="64">
         <v>42712</v>
       </c>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64" t="s">
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="65"/>
       <c r="AW5" s="28"/>
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -2106,7 +2130,7 @@
       <c r="AX6" s="28"/>
       <c r="AY6" s="28"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -2183,7 +2207,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -2374,7 +2398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="35"/>
@@ -2549,7 +2573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19" customHeight="1">
+    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
@@ -2589,7 +2613,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="19" customHeight="1">
+    <row r="11" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -2624,7 +2648,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="12" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -2679,7 +2703,7 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
     </row>
-    <row r="13" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="13" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -2734,7 +2758,7 @@
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
     </row>
-    <row r="14" spans="1:65" ht="19" customHeight="1">
+    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -2772,7 +2796,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19" customHeight="1">
+    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
@@ -2812,7 +2836,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19" customHeight="1">
+    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -2850,7 +2874,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19" customHeight="1">
+    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -2888,7 +2912,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19" customHeight="1">
+    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>65</v>
       </c>
@@ -2928,7 +2952,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19" customHeight="1">
+    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
@@ -2966,7 +2990,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19" customHeight="1">
+    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -3004,11 +3028,11 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19" customHeight="1">
+    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="32" t="s">
@@ -3061,7 +3085,7 @@
       <c r="BL21" s="59"/>
       <c r="BM21" s="59"/>
     </row>
-    <row r="22" spans="1:65" ht="19" customHeight="1">
+    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -3093,7 +3117,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" ht="19" customHeight="1">
+    <row r="23" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
@@ -3150,7 +3174,7 @@
       <c r="BL23" s="51"/>
       <c r="BM23" s="51"/>
     </row>
-    <row r="24" spans="1:65" ht="19" customHeight="1">
+    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -3205,7 +3229,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65" ht="19" customHeight="1">
+    <row r="25" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
@@ -3253,7 +3277,7 @@
       <c r="BK25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="26" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>74</v>
       </c>
@@ -3310,7 +3334,7 @@
       <c r="BL26" s="22"/>
       <c r="BM26" s="22"/>
     </row>
-    <row r="27" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="27" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="C27" s="19" t="s">
         <v>51</v>
@@ -3365,7 +3389,7 @@
       <c r="BL27" s="22"/>
       <c r="BM27" s="22"/>
     </row>
-    <row r="28" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="28" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="C28" s="19" t="s">
         <v>59</v>
@@ -3420,7 +3444,7 @@
       <c r="BL28" s="22"/>
       <c r="BM28" s="22"/>
     </row>
-    <row r="29" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="29" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="C29" s="19" t="s">
         <v>52</v>
@@ -3471,7 +3495,7 @@
       <c r="BL29" s="22"/>
       <c r="BM29" s="22"/>
     </row>
-    <row r="30" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="30" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="C30" s="19" t="s">
         <v>69</v>
@@ -3526,10 +3550,10 @@
       <c r="BL30" s="22"/>
       <c r="BM30" s="22"/>
     </row>
-    <row r="31" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="31" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="C31" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>30</v>
@@ -3581,7 +3605,7 @@
       <c r="BL31" s="22"/>
       <c r="BM31" s="22"/>
     </row>
-    <row r="32" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="32" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="C32" s="19" t="s">
         <v>53</v>
@@ -3630,7 +3654,7 @@
       <c r="BL32" s="22"/>
       <c r="BM32" s="22"/>
     </row>
-    <row r="33" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="33" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
       <c r="C33" s="19" t="s">
         <v>66</v>
@@ -3679,7 +3703,7 @@
       <c r="BL33" s="22"/>
       <c r="BM33" s="22"/>
     </row>
-    <row r="34" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="34" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>75</v>
       </c>
@@ -3736,7 +3760,7 @@
       <c r="BL34" s="22"/>
       <c r="BM34" s="22"/>
     </row>
-    <row r="35" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="35" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="C35" s="19" t="s">
         <v>71</v>
@@ -3789,7 +3813,7 @@
       <c r="BL35" s="22"/>
       <c r="BM35" s="22"/>
     </row>
-    <row r="36" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="36" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
       <c r="C36" s="19" t="s">
         <v>68</v>
@@ -3842,7 +3866,7 @@
       <c r="BL36" s="22"/>
       <c r="BM36" s="22"/>
     </row>
-    <row r="37" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="37" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="C37" s="19" t="s">
         <v>70</v>
@@ -3895,7 +3919,7 @@
       <c r="BL37" s="22"/>
       <c r="BM37" s="22"/>
     </row>
-    <row r="38" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="38" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>72</v>
       </c>
@@ -3952,7 +3976,7 @@
       <c r="BL38" s="22"/>
       <c r="BM38" s="22"/>
     </row>
-    <row r="39" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="39" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="C39" s="19" t="s">
         <v>76</v>
@@ -4007,7 +4031,7 @@
       <c r="BL39" s="22"/>
       <c r="BM39" s="22"/>
     </row>
-    <row r="40" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="40" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="C40" s="19" t="s">
         <v>77</v>
@@ -4062,7 +4086,7 @@
       <c r="BL40" s="22"/>
       <c r="BM40" s="22"/>
     </row>
-    <row r="41" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="41" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="C41" s="19" t="s">
         <v>90</v>
@@ -4117,7 +4141,7 @@
       <c r="BL41" s="22"/>
       <c r="BM41" s="22"/>
     </row>
-    <row r="42" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="42" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="C42" s="19" t="s">
         <v>55</v>
@@ -4172,7 +4196,7 @@
       <c r="BL42" s="22"/>
       <c r="BM42" s="22"/>
     </row>
-    <row r="43" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="43" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="C43" s="19" t="s">
         <v>60</v>
@@ -4227,7 +4251,7 @@
       <c r="BL43" s="22"/>
       <c r="BM43" s="22"/>
     </row>
-    <row r="44" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="44" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="C44" s="19" t="s">
         <v>78</v>
@@ -4276,7 +4300,7 @@
       <c r="BL44" s="22"/>
       <c r="BM44" s="22"/>
     </row>
-    <row r="45" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="45" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
       <c r="C45" s="19" t="s">
         <v>56</v>
@@ -4331,7 +4355,7 @@
       <c r="BL45" s="22"/>
       <c r="BM45" s="22"/>
     </row>
-    <row r="46" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="46" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="C46" s="19" t="s">
         <v>79</v>
@@ -4386,7 +4410,7 @@
       <c r="BL46" s="22"/>
       <c r="BM46" s="22"/>
     </row>
-    <row r="47" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="47" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="17"/>
       <c r="C47" s="19" t="s">
         <v>80</v>
@@ -4441,7 +4465,7 @@
       <c r="BL47" s="22"/>
       <c r="BM47" s="22"/>
     </row>
-    <row r="48" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="48" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="17"/>
       <c r="C48" s="19" t="s">
         <v>81</v>
@@ -4496,7 +4520,7 @@
       <c r="BL48" s="22"/>
       <c r="BM48" s="22"/>
     </row>
-    <row r="49" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="49" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="17"/>
       <c r="C49" s="19" t="s">
         <v>57</v>
@@ -4551,7 +4575,7 @@
       <c r="BL49" s="22"/>
       <c r="BM49" s="22"/>
     </row>
-    <row r="50" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="50" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="17"/>
       <c r="C50" s="19" t="s">
         <v>82</v>
@@ -4606,10 +4630,10 @@
       <c r="BL50" s="22"/>
       <c r="BM50" s="22"/>
     </row>
-    <row r="51" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="51" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="17"/>
       <c r="C51" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>30</v>
@@ -4661,10 +4685,10 @@
       <c r="BL51" s="22"/>
       <c r="BM51" s="22"/>
     </row>
-    <row r="52" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="52" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="17"/>
       <c r="C52" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E52" s="32" t="s">
         <v>30</v>
@@ -4716,7 +4740,7 @@
       <c r="BL52" s="22"/>
       <c r="BM52" s="22"/>
     </row>
-    <row r="53" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="53" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="17" t="s">
         <v>108</v>
       </c>
@@ -4773,7 +4797,7 @@
       <c r="BL53" s="22"/>
       <c r="BM53" s="22"/>
     </row>
-    <row r="54" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="54" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="17"/>
       <c r="C54" s="19" t="s">
         <v>110</v>
@@ -4828,7 +4852,7 @@
       <c r="BL54" s="22"/>
       <c r="BM54" s="22"/>
     </row>
-    <row r="55" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="55" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
         <v>111</v>
@@ -4877,7 +4901,7 @@
       <c r="BL55" s="22"/>
       <c r="BM55" s="22"/>
     </row>
-    <row r="56" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="56" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="17"/>
       <c r="C56" s="19" t="s">
         <v>112</v>
@@ -4926,7 +4950,7 @@
       <c r="BL56" s="22"/>
       <c r="BM56" s="22"/>
     </row>
-    <row r="57" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="57" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="17"/>
       <c r="C57" s="19"/>
       <c r="E57" s="32"/>
@@ -4973,7 +4997,7 @@
       <c r="BL57" s="22"/>
       <c r="BM57" s="22"/>
     </row>
-    <row r="58" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="58" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="17"/>
       <c r="C58" s="19"/>
       <c r="E58" s="32"/>
@@ -5020,7 +5044,7 @@
       <c r="BL58" s="22"/>
       <c r="BM58" s="22"/>
     </row>
-    <row r="59" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="59" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="17"/>
       <c r="C59" s="19"/>
       <c r="E59" s="32"/>
@@ -5067,7 +5091,7 @@
       <c r="BL59" s="22"/>
       <c r="BM59" s="22"/>
     </row>
-    <row r="60" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="60" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="17"/>
       <c r="C60" s="19"/>
       <c r="E60" s="32"/>
@@ -5114,7 +5138,7 @@
       <c r="BL60" s="22"/>
       <c r="BM60" s="22"/>
     </row>
-    <row r="61" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="61" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="17"/>
       <c r="C61" s="19"/>
       <c r="E61" s="32"/>
@@ -5161,7 +5185,7 @@
       <c r="BL61" s="22"/>
       <c r="BM61" s="22"/>
     </row>
-    <row r="62" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="62" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="17"/>
       <c r="C62" s="19"/>
       <c r="E62" s="32"/>
@@ -5208,7 +5232,7 @@
       <c r="BL62" s="22"/>
       <c r="BM62" s="22"/>
     </row>
-    <row r="63" spans="1:65" s="18" customFormat="1" ht="19" customHeight="1">
+    <row r="63" spans="1:65" s="18" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="17"/>
       <c r="C63" s="19"/>
       <c r="E63" s="32"/>
@@ -5322,25 +5346,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>61913</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>23813</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5352,54 +5374,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BM48"/>
+  <dimension ref="A2:BM49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="51" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="51" customWidth="1"/>
-    <col min="12" max="16" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="51" customWidth="1"/>
-    <col min="18" max="27" width="3.1640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="2.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" style="51" customWidth="1"/>
+    <col min="12" max="16" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.46484375" style="51" customWidth="1"/>
+    <col min="18" max="27" width="3.1328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="2.796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="2.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="3.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" ht="19" customHeight="1">
-      <c r="C2" s="60" t="s">
+    <row r="2" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="L2" s="37" t="s">
@@ -5411,7 +5433,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="49">
         <f ca="1">DAYS360(P4 - 1,today) + 1</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R2" s="37"/>
       <c r="T2" s="38"/>
@@ -5439,114 +5461,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="27" customHeight="1">
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+    <row r="3" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:65" ht="18.75" customHeight="1">
-      <c r="C4" s="61" t="s">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="63">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="64">
         <v>42660</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="1"/>
-      <c r="AA4" s="64" t="s">
+      <c r="AA4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="63">
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="64">
         <v>42688</v>
       </c>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
       <c r="AI4" s="51"/>
       <c r="AJ4" s="51"/>
       <c r="AK4" s="51"/>
       <c r="AN4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AR4" s="62">
+      <c r="AR4" s="63">
         <f ca="1">TODAY()</f>
-        <v>42710</v>
-      </c>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
+        <v>42712</v>
+      </c>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
       <c r="AW4" s="51"/>
       <c r="AX4" s="51"/>
       <c r="AY4" s="51"/>
       <c r="AZ4" s="51"/>
       <c r="BA4" s="51"/>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63">
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64">
         <v>42675</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="64" t="s">
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="AA5" s="64" t="s">
+      <c r="AA5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="63">
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="64">
         <v>42712</v>
       </c>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64" t="s">
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="65"/>
       <c r="AW5" s="51"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="G6" s="1"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
@@ -5565,7 +5587,7 @@
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="34"/>
@@ -5642,7 +5664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="13.5" customHeight="1">
+    <row r="8" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -5833,7 +5855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="15.75" customHeight="1">
+    <row r="9" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="56"/>
@@ -6008,7 +6030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="19" customHeight="1">
+    <row r="10" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -6048,7 +6070,7 @@
       <c r="BL10" s="51"/>
       <c r="BM10" s="51"/>
     </row>
-    <row r="11" spans="1:65" ht="18.75" customHeight="1">
+    <row r="11" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
@@ -6088,7 +6110,7 @@
       <c r="BL11" s="51"/>
       <c r="BM11" s="51"/>
     </row>
-    <row r="12" spans="1:65" ht="19" customHeight="1">
+    <row r="12" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
@@ -6126,7 +6148,7 @@
       <c r="BL12" s="51"/>
       <c r="BM12" s="51"/>
     </row>
-    <row r="13" spans="1:65" ht="19" customHeight="1">
+    <row r="13" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
@@ -6162,7 +6184,7 @@
       <c r="BL13" s="51"/>
       <c r="BM13" s="51"/>
     </row>
-    <row r="14" spans="1:65" ht="19" customHeight="1">
+    <row r="14" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19" t="s">
@@ -6198,7 +6220,7 @@
       <c r="BL14" s="51"/>
       <c r="BM14" s="51"/>
     </row>
-    <row r="15" spans="1:65" ht="19" customHeight="1">
+    <row r="15" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="s">
@@ -6236,7 +6258,7 @@
       <c r="BL15" s="51"/>
       <c r="BM15" s="51"/>
     </row>
-    <row r="16" spans="1:65" ht="19" customHeight="1">
+    <row r="16" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
@@ -6274,7 +6296,7 @@
       <c r="BL16" s="51"/>
       <c r="BM16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="19" customHeight="1">
+    <row r="17" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -6312,7 +6334,7 @@
       <c r="BL17" s="51"/>
       <c r="BM17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="19" customHeight="1">
+    <row r="18" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
@@ -6350,7 +6372,7 @@
       <c r="BL18" s="51"/>
       <c r="BM18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="19" customHeight="1">
+    <row r="19" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
@@ -6390,7 +6412,7 @@
       <c r="BL19" s="51"/>
       <c r="BM19" s="51"/>
     </row>
-    <row r="20" spans="1:65" ht="19" customHeight="1">
+    <row r="20" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -6428,7 +6450,7 @@
       <c r="BL20" s="51"/>
       <c r="BM20" s="51"/>
     </row>
-    <row r="21" spans="1:65" ht="19" customHeight="1">
+    <row r="21" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
@@ -6466,7 +6488,7 @@
       <c r="BL21" s="51"/>
       <c r="BM21" s="51"/>
     </row>
-    <row r="22" spans="1:65" ht="19" customHeight="1">
+    <row r="22" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
@@ -6504,7 +6526,7 @@
       <c r="BL22" s="51"/>
       <c r="BM22" s="51"/>
     </row>
-    <row r="23" spans="1:65" s="9" customFormat="1" ht="19" customHeight="1">
+    <row r="23" spans="1:65" s="9" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="54"/>
       <c r="C23" s="19" t="s">
@@ -6561,7 +6583,7 @@
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
     </row>
-    <row r="24" spans="1:65" ht="19" customHeight="1">
+    <row r="24" spans="1:65" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
@@ -6599,7 +6621,7 @@
       <c r="BL24" s="51"/>
       <c r="BM24" s="51"/>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
@@ -6635,7 +6657,7 @@
       <c r="BL25" s="51"/>
       <c r="BM25" s="51"/>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
@@ -6673,7 +6695,7 @@
       <c r="BL26" s="51"/>
       <c r="BM26" s="51"/>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
@@ -6711,7 +6733,7 @@
       <c r="BL27" s="51"/>
       <c r="BM27" s="51"/>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
@@ -6749,7 +6771,7 @@
       <c r="BL28" s="51"/>
       <c r="BM28" s="51"/>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
@@ -6806,7 +6828,7 @@
       <c r="BL29" s="58"/>
       <c r="BM29" s="58"/>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
@@ -6863,11 +6885,11 @@
       <c r="BL30" s="58"/>
       <c r="BM30" s="58"/>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="32" t="s">
@@ -6920,24 +6942,24 @@
       <c r="BL31" s="58"/>
       <c r="BM31" s="58"/>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="32" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G32" s="20">
         <v>1</v>
       </c>
       <c r="H32" s="20">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I32" s="20">
         <v>1</v>
@@ -6946,36 +6968,61 @@
         <v>1</v>
       </c>
       <c r="K32" s="22"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
       <c r="AA32" s="24"/>
-      <c r="BD32" s="51"/>
-      <c r="BE32" s="51"/>
-      <c r="BF32" s="51"/>
-      <c r="BG32" s="51"/>
-      <c r="BH32" s="51"/>
-      <c r="BI32" s="51"/>
-      <c r="BJ32" s="51"/>
-      <c r="BK32" s="51"/>
-      <c r="BL32" s="51"/>
-      <c r="BM32" s="51"/>
-    </row>
-    <row r="33" spans="1:65">
-      <c r="A33" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="BD32" s="60"/>
+      <c r="BE32" s="60"/>
+      <c r="BF32" s="60"/>
+      <c r="BG32" s="60"/>
+      <c r="BH32" s="60"/>
+      <c r="BI32" s="60"/>
+      <c r="BJ32" s="60"/>
+      <c r="BK32" s="60"/>
+      <c r="BL32" s="60"/>
+      <c r="BM32" s="60"/>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.45">
+      <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="32"/>
+      <c r="E33" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F33" s="20">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>40</v>
+      </c>
+      <c r="I33" s="20">
+        <v>1</v>
+      </c>
       <c r="J33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="22"/>
       <c r="AA33" s="24"/>
@@ -6990,11 +7037,13 @@
       <c r="BL33" s="51"/>
       <c r="BM33" s="51"/>
     </row>
-    <row r="34" spans="1:65">
-      <c r="A34" s="17"/>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.45">
+      <c r="A34" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="32"/>
@@ -7020,11 +7069,11 @@
       <c r="BL34" s="51"/>
       <c r="BM34" s="51"/>
     </row>
-    <row r="35" spans="1:65">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="32"/>
@@ -7050,13 +7099,11 @@
       <c r="BL35" s="51"/>
       <c r="BM35" s="51"/>
     </row>
-    <row r="36" spans="1:65">
-      <c r="A36" s="17" t="s">
-        <v>102</v>
-      </c>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.45">
+      <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="32"/>
@@ -7082,19 +7129,25 @@
       <c r="BL36" s="51"/>
       <c r="BM36" s="51"/>
     </row>
-    <row r="37" spans="1:65">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.45">
+      <c r="A37" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="B37" s="18"/>
       <c r="C37" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="20">
+        <v>1</v>
+      </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
+      <c r="J37" s="21">
+        <v>0</v>
+      </c>
       <c r="K37" s="22"/>
       <c r="AA37" s="24"/>
       <c r="BD37" s="51"/>
@@ -7108,23 +7161,19 @@
       <c r="BL37" s="51"/>
       <c r="BM37" s="51"/>
     </row>
-    <row r="38" spans="1:65">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="20">
-        <v>1</v>
-      </c>
+      <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="21">
-        <v>0</v>
-      </c>
+      <c r="J38" s="21"/>
       <c r="K38" s="22"/>
       <c r="AA38" s="24"/>
       <c r="BD38" s="51"/>
@@ -7138,10 +7187,12 @@
       <c r="BL38" s="51"/>
       <c r="BM38" s="51"/>
     </row>
-    <row r="39" spans="1:65">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
+      <c r="C39" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="D39" s="18"/>
       <c r="E39" s="32"/>
       <c r="F39" s="20">
@@ -7166,7 +7217,7 @@
       <c r="BL39" s="51"/>
       <c r="BM39" s="51"/>
     </row>
-    <row r="40" spans="1:65">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -7194,7 +7245,7 @@
       <c r="BL40" s="51"/>
       <c r="BM40" s="51"/>
     </row>
-    <row r="41" spans="1:65">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -7222,7 +7273,7 @@
       <c r="BL41" s="51"/>
       <c r="BM41" s="51"/>
     </row>
-    <row r="42" spans="1:65">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -7250,7 +7301,7 @@
       <c r="BL42" s="51"/>
       <c r="BM42" s="51"/>
     </row>
-    <row r="43" spans="1:65">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -7278,7 +7329,7 @@
       <c r="BL43" s="51"/>
       <c r="BM43" s="51"/>
     </row>
-    <row r="44" spans="1:65">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -7306,7 +7357,7 @@
       <c r="BL44" s="51"/>
       <c r="BM44" s="51"/>
     </row>
-    <row r="45" spans="1:65">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -7334,7 +7385,7 @@
       <c r="BL45" s="51"/>
       <c r="BM45" s="51"/>
     </row>
-    <row r="46" spans="1:65">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
@@ -7362,7 +7413,7 @@
       <c r="BL46" s="51"/>
       <c r="BM46" s="51"/>
     </row>
-    <row r="47" spans="1:65">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
@@ -7390,11 +7441,11 @@
       <c r="BL47" s="51"/>
       <c r="BM47" s="51"/>
     </row>
-    <row r="48" spans="1:65" s="9" customFormat="1">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A48" s="17"/>
-      <c r="B48" s="54"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="54"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="32"/>
       <c r="F48" s="20">
         <v>1</v>
@@ -7405,40 +7456,73 @@
       <c r="J48" s="21">
         <v>0</v>
       </c>
-      <c r="K48" s="55"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="10"/>
-      <c r="BF48" s="10"/>
-      <c r="BG48" s="10"/>
-      <c r="BH48" s="10"/>
-      <c r="BI48" s="10"/>
-      <c r="BJ48" s="10"/>
-      <c r="BK48" s="10"/>
-      <c r="BL48" s="10"/>
-      <c r="BM48" s="10"/>
+      <c r="K48" s="22"/>
+      <c r="AA48" s="24"/>
+      <c r="BD48" s="51"/>
+      <c r="BE48" s="51"/>
+      <c r="BF48" s="51"/>
+      <c r="BG48" s="51"/>
+      <c r="BH48" s="51"/>
+      <c r="BI48" s="51"/>
+      <c r="BJ48" s="51"/>
+      <c r="BK48" s="51"/>
+      <c r="BL48" s="51"/>
+      <c r="BM48" s="51"/>
+    </row>
+    <row r="49" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="17"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="20">
+        <v>1</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21">
+        <v>0</v>
+      </c>
+      <c r="K49" s="55"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+      <c r="BG49" s="10"/>
+      <c r="BH49" s="10"/>
+      <c r="BI49" s="10"/>
+      <c r="BJ49" s="10"/>
+      <c r="BK49" s="10"/>
+      <c r="BL49" s="10"/>
+      <c r="BM49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
@@ -7447,13 +7531,8 @@
     <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AA4:AD4"/>
   </mergeCells>
-  <conditionalFormatting sqref="L10:BM48">
+  <conditionalFormatting sqref="L10:BM49">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -7503,25 +7582,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:colOff>61913</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>23813</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7532,6 +7609,141 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1560899</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName>REDMOND\v-soujap</DisplayName>
+        <AccountId>1954</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -8571,142 +8783,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Use this project planner to track your project by unique activities using the Gantt chart model. Easily see where each activity is according to plan.</APDescription>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">834193</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</EditorialStatus>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-04-26T11:59:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1560899</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName>REDMOND\v-soujap</DisplayName>
-        <AccountId>1954</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP</AssetType>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102887600</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0602295-AD8B-4999-B800-E8C6FA359398}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8722,28 +8823,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8873101-05C7-48A9-9E2E-94984378E3B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{034D67AC-589E-4C00-9B1A-F2A41167CA08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>